--- a/BD extracciones.xlsx
+++ b/BD extracciones.xlsx
@@ -438,11 +438,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L677"/>
+  <dimension ref="A1:L735"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A667" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F679" sqref="F679"/>
+      <pane ySplit="1" topLeftCell="A685" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A710" sqref="A710"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -29762,6 +29762,2797 @@
       </c>
       <c r="K677" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>Prueba</t>
+        </is>
+      </c>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>Prueba</t>
+        </is>
+      </c>
+      <c r="C678" t="inlineStr">
+        <is>
+          <t>Prueba</t>
+        </is>
+      </c>
+      <c r="D678" t="inlineStr">
+        <is>
+          <t>Prueba</t>
+        </is>
+      </c>
+      <c r="E678" t="inlineStr">
+        <is>
+          <t>Prueba</t>
+        </is>
+      </c>
+      <c r="F678" t="inlineStr">
+        <is>
+          <t>Prueba</t>
+        </is>
+      </c>
+      <c r="G678" t="inlineStr">
+        <is>
+          <t>Prueba</t>
+        </is>
+      </c>
+      <c r="H678" t="inlineStr">
+        <is>
+          <t>Prueba</t>
+        </is>
+      </c>
+      <c r="I678" t="inlineStr">
+        <is>
+          <t>Prueba</t>
+        </is>
+      </c>
+      <c r="J678" t="inlineStr">
+        <is>
+          <t>Prueba</t>
+        </is>
+      </c>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>Prueba</t>
+        </is>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>Barritas de submarino Aguila Caja (24 x 14 gr)</t>
+        </is>
+      </c>
+      <c r="C679" t="n">
+        <v>1</v>
+      </c>
+      <c r="D679" t="n">
+        <v>14946.31</v>
+      </c>
+      <c r="E679" t="n">
+        <v>14946.31</v>
+      </c>
+      <c r="F679" t="inlineStr">
+        <is>
+          <t>GOURMAND S.A</t>
+        </is>
+      </c>
+      <c r="G679" t="inlineStr">
+        <is>
+          <t>Mayorista Net</t>
+        </is>
+      </c>
+      <c r="H679" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I679" t="n">
+        <v>14946.31</v>
+      </c>
+      <c r="J679" t="n">
+        <v>14946.31</v>
+      </c>
+      <c r="K679" t="n">
+        <v>1</v>
+      </c>
+      <c r="L679" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>Queso Crema Milka ut Balde x 3.6 Kg</t>
+        </is>
+      </c>
+      <c r="C680" t="n">
+        <v>2</v>
+      </c>
+      <c r="D680" t="n">
+        <v>40698.53</v>
+      </c>
+      <c r="E680" t="n">
+        <v>81397.06</v>
+      </c>
+      <c r="F680" t="inlineStr">
+        <is>
+          <t>GOURMAND S.A</t>
+        </is>
+      </c>
+      <c r="G680" t="inlineStr">
+        <is>
+          <t>Mayorista Net</t>
+        </is>
+      </c>
+      <c r="H680" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I680" t="n">
+        <v>40698.53</v>
+      </c>
+      <c r="J680" t="n">
+        <v>81397.06</v>
+      </c>
+      <c r="K680" t="n">
+        <v>2</v>
+      </c>
+      <c r="L680" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>Rebozador Preferido Bolsa x 5 Kg</t>
+        </is>
+      </c>
+      <c r="C681" t="n">
+        <v>1</v>
+      </c>
+      <c r="D681" t="n">
+        <v>8961.049999999999</v>
+      </c>
+      <c r="E681" t="n">
+        <v>8961.049999999999</v>
+      </c>
+      <c r="F681" t="inlineStr">
+        <is>
+          <t>GOURMAND S.A</t>
+        </is>
+      </c>
+      <c r="G681" t="inlineStr">
+        <is>
+          <t>Mayorista Net</t>
+        </is>
+      </c>
+      <c r="H681" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I681" t="n">
+        <v>8961.049999999999</v>
+      </c>
+      <c r="J681" t="n">
+        <v>8961.049999999999</v>
+      </c>
+      <c r="K681" t="n">
+        <v>1</v>
+      </c>
+      <c r="L681" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>04/05/2025</t>
+        </is>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>Harina 000</t>
+        </is>
+      </c>
+      <c r="C682" t="n">
+        <v>100</v>
+      </c>
+      <c r="D682" t="n">
+        <v>250</v>
+      </c>
+      <c r="E682" t="n">
+        <v>25000</v>
+      </c>
+      <c r="F682" t="inlineStr">
+        <is>
+          <t>GOURMAND S.A.</t>
+        </is>
+      </c>
+      <c r="G682" t="inlineStr">
+        <is>
+          <t>Mayorista Net</t>
+        </is>
+      </c>
+      <c r="H682" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I682" t="n">
+        <v>250</v>
+      </c>
+      <c r="J682" t="n">
+        <v>25000</v>
+      </c>
+      <c r="K682" t="n">
+        <v>100</v>
+      </c>
+      <c r="L682" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>04/05/2025</t>
+        </is>
+      </c>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>Azucar</t>
+        </is>
+      </c>
+      <c r="C683" t="n">
+        <v>50</v>
+      </c>
+      <c r="D683" t="n">
+        <v>120</v>
+      </c>
+      <c r="E683" t="n">
+        <v>6000</v>
+      </c>
+      <c r="F683" t="inlineStr">
+        <is>
+          <t>GOURMAND S.A.</t>
+        </is>
+      </c>
+      <c r="G683" t="inlineStr">
+        <is>
+          <t>Mayorista Net</t>
+        </is>
+      </c>
+      <c r="H683" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I683" t="n">
+        <v>120</v>
+      </c>
+      <c r="J683" t="n">
+        <v>6000</v>
+      </c>
+      <c r="K683" t="n">
+        <v>50</v>
+      </c>
+      <c r="L683" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>04/05/2025</t>
+        </is>
+      </c>
+      <c r="B684" t="inlineStr">
+        <is>
+          <t>Levadura</t>
+        </is>
+      </c>
+      <c r="C684" t="n">
+        <v>2</v>
+      </c>
+      <c r="D684" t="n">
+        <v>350</v>
+      </c>
+      <c r="E684" t="n">
+        <v>700</v>
+      </c>
+      <c r="F684" t="inlineStr">
+        <is>
+          <t>GOURMAND S.A.</t>
+        </is>
+      </c>
+      <c r="G684" t="inlineStr">
+        <is>
+          <t>Mayorista Net</t>
+        </is>
+      </c>
+      <c r="H684" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I684" t="n">
+        <v>350</v>
+      </c>
+      <c r="J684" t="n">
+        <v>700</v>
+      </c>
+      <c r="K684" t="n">
+        <v>2</v>
+      </c>
+      <c r="L684" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>04/05/2025</t>
+        </is>
+      </c>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t>Sal</t>
+        </is>
+      </c>
+      <c r="C685" t="n">
+        <v>1</v>
+      </c>
+      <c r="D685" t="n">
+        <v>150</v>
+      </c>
+      <c r="E685" t="n">
+        <v>150</v>
+      </c>
+      <c r="F685" t="inlineStr">
+        <is>
+          <t>GOURMAND S.A.</t>
+        </is>
+      </c>
+      <c r="G685" t="inlineStr">
+        <is>
+          <t>Mayorista Net</t>
+        </is>
+      </c>
+      <c r="H685" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I685" t="n">
+        <v>150</v>
+      </c>
+      <c r="J685" t="n">
+        <v>150</v>
+      </c>
+      <c r="K685" t="n">
+        <v>1</v>
+      </c>
+      <c r="L685" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>04/05/2025</t>
+        </is>
+      </c>
+      <c r="B686" t="inlineStr">
+        <is>
+          <t>Manteca</t>
+        </is>
+      </c>
+      <c r="C686" t="n">
+        <v>25</v>
+      </c>
+      <c r="D686" t="n">
+        <v>300</v>
+      </c>
+      <c r="E686" t="n">
+        <v>7500</v>
+      </c>
+      <c r="F686" t="inlineStr">
+        <is>
+          <t>GOURMAND S.A.</t>
+        </is>
+      </c>
+      <c r="G686" t="inlineStr">
+        <is>
+          <t>Mayorista Net</t>
+        </is>
+      </c>
+      <c r="H686" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I686" t="n">
+        <v>300</v>
+      </c>
+      <c r="J686" t="n">
+        <v>7500</v>
+      </c>
+      <c r="K686" t="n">
+        <v>25</v>
+      </c>
+      <c r="L686" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>04/05/2025</t>
+        </is>
+      </c>
+      <c r="B687" t="inlineStr">
+        <is>
+          <t>Huevos</t>
+        </is>
+      </c>
+      <c r="C687" t="n">
+        <v>12</v>
+      </c>
+      <c r="D687" t="n">
+        <v>40</v>
+      </c>
+      <c r="E687" t="n">
+        <v>480</v>
+      </c>
+      <c r="F687" t="inlineStr">
+        <is>
+          <t>GOURMAND S.A.</t>
+        </is>
+      </c>
+      <c r="G687" t="inlineStr">
+        <is>
+          <t>Mayorista Net</t>
+        </is>
+      </c>
+      <c r="H687" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I687" t="n">
+        <v>40</v>
+      </c>
+      <c r="J687" t="n">
+        <v>480</v>
+      </c>
+      <c r="K687" t="n">
+        <v>12</v>
+      </c>
+      <c r="L687" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>04/05/2025</t>
+        </is>
+      </c>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t>Oferta</t>
+        </is>
+      </c>
+      <c r="C688" t="n">
+        <v>1</v>
+      </c>
+      <c r="D688" t="n">
+        <v>0</v>
+      </c>
+      <c r="E688" t="n">
+        <v>0</v>
+      </c>
+      <c r="F688" t="inlineStr">
+        <is>
+          <t>GOURMAND S.A.</t>
+        </is>
+      </c>
+      <c r="G688" t="inlineStr">
+        <is>
+          <t>Mayorista Net</t>
+        </is>
+      </c>
+      <c r="H688" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I688" t="n">
+        <v>0</v>
+      </c>
+      <c r="J688" t="n">
+        <v>0</v>
+      </c>
+      <c r="L688" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>04/05/2025</t>
+        </is>
+      </c>
+      <c r="B689" t="inlineStr">
+        <is>
+          <t>Aceite</t>
+        </is>
+      </c>
+      <c r="C689" t="n">
+        <v>20</v>
+      </c>
+      <c r="D689" t="n">
+        <v>200</v>
+      </c>
+      <c r="E689" t="n">
+        <v>4000</v>
+      </c>
+      <c r="F689" t="inlineStr">
+        <is>
+          <t>GOURMAND S.A.</t>
+        </is>
+      </c>
+      <c r="G689" t="inlineStr">
+        <is>
+          <t>Mayorista Net</t>
+        </is>
+      </c>
+      <c r="H689" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I689" t="n">
+        <v>200</v>
+      </c>
+      <c r="J689" t="n">
+        <v>4000</v>
+      </c>
+      <c r="K689" t="n">
+        <v>20</v>
+      </c>
+      <c r="L689" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+      <c r="B690" t="inlineStr">
+        <is>
+          <t>Levadura Prensada Virgen Calsa Pan x 500 Gr</t>
+        </is>
+      </c>
+      <c r="C690" t="n">
+        <v>2</v>
+      </c>
+      <c r="D690" t="n">
+        <v>3537.26</v>
+      </c>
+      <c r="E690" t="n">
+        <v>7074.52</v>
+      </c>
+      <c r="F690" t="inlineStr">
+        <is>
+          <t>Rissolar Pilar S.A.</t>
+        </is>
+      </c>
+      <c r="G690" t="inlineStr">
+        <is>
+          <t>Mayorista Net</t>
+        </is>
+      </c>
+      <c r="H690" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I690" t="n">
+        <v>3537.26</v>
+      </c>
+      <c r="J690" t="n">
+        <v>7074.52</v>
+      </c>
+      <c r="K690" t="n">
+        <v>2</v>
+      </c>
+      <c r="L690" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+      <c r="B691" t="inlineStr">
+        <is>
+          <t>Jamón Cocido Tradicional Campo Austral Pieza x 5 Kg</t>
+        </is>
+      </c>
+      <c r="C691" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="D691" t="n">
+        <v>10371.05</v>
+      </c>
+      <c r="E691" t="n">
+        <v>51025.57</v>
+      </c>
+      <c r="F691" t="inlineStr">
+        <is>
+          <t>Rissolar Pilar S.A.</t>
+        </is>
+      </c>
+      <c r="G691" t="inlineStr">
+        <is>
+          <t>Mayorista Net</t>
+        </is>
+      </c>
+      <c r="H691" t="inlineStr">
+        <is>
+          <t>Diferencia de Precio</t>
+        </is>
+      </c>
+      <c r="I691" t="n">
+        <v>10364.73</v>
+      </c>
+      <c r="J691" t="n">
+        <v>50994.47</v>
+      </c>
+      <c r="K691" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="L691" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+      <c r="B692" t="inlineStr">
+        <is>
+          <t>Queso Cheddar Fundido Milkaut Caja (2 x 3.5 Kg)</t>
+        </is>
+      </c>
+      <c r="C692" t="n">
+        <v>1</v>
+      </c>
+      <c r="D692" t="n">
+        <v>59358.44</v>
+      </c>
+      <c r="E692" t="n">
+        <v>59358.44</v>
+      </c>
+      <c r="F692" t="inlineStr">
+        <is>
+          <t>Rissolar Pilar S.A.</t>
+        </is>
+      </c>
+      <c r="G692" t="inlineStr">
+        <is>
+          <t>Mayorista Net</t>
+        </is>
+      </c>
+      <c r="H692" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I692" t="n">
+        <v>59358.44</v>
+      </c>
+      <c r="J692" t="n">
+        <v>59358.44</v>
+      </c>
+      <c r="K692" t="n">
+        <v>1</v>
+      </c>
+      <c r="L692" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+      <c r="B693" t="inlineStr">
+        <is>
+          <t>Queso Criña Milkaut Balde x 3.6 Kg</t>
+        </is>
+      </c>
+      <c r="C693" t="n">
+        <v>1</v>
+      </c>
+      <c r="D693" t="n">
+        <v>40698.53</v>
+      </c>
+      <c r="E693" t="n">
+        <v>40698.53</v>
+      </c>
+      <c r="F693" t="inlineStr">
+        <is>
+          <t>Rissolar Pilar S.A.</t>
+        </is>
+      </c>
+      <c r="G693" t="inlineStr">
+        <is>
+          <t>Mayorista Net</t>
+        </is>
+      </c>
+      <c r="H693" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I693" t="n">
+        <v>40698.53</v>
+      </c>
+      <c r="J693" t="n">
+        <v>40698.53</v>
+      </c>
+      <c r="K693" t="n">
+        <v>1</v>
+      </c>
+      <c r="L693" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+      <c r="B694" t="inlineStr">
+        <is>
+          <t>Panceta Ahumada Campo Austral Pieza x 2.2 Kg Aprox</t>
+        </is>
+      </c>
+      <c r="C694" t="n">
+        <v>1151</v>
+      </c>
+      <c r="D694" t="n">
+        <v>135.22</v>
+      </c>
+      <c r="E694" t="n">
+        <v>155635.38</v>
+      </c>
+      <c r="F694" t="inlineStr">
+        <is>
+          <t>Rissolar Pilar S.A.</t>
+        </is>
+      </c>
+      <c r="G694" t="inlineStr">
+        <is>
+          <t>Mayorista Net</t>
+        </is>
+      </c>
+      <c r="H694" t="inlineStr">
+        <is>
+          <t>Diferencia de Precio</t>
+        </is>
+      </c>
+      <c r="I694" t="n">
+        <v>13527.63</v>
+      </c>
+      <c r="J694" t="n">
+        <v>15570302.13</v>
+      </c>
+      <c r="K694" t="n">
+        <v>1150.98</v>
+      </c>
+      <c r="L694" t="inlineStr">
+        <is>
+          <t>Q no</t>
+        </is>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+      <c r="B695" t="inlineStr">
+        <is>
+          <t>Pan Rallado Preferido Bolsa x 5 Kg</t>
+        </is>
+      </c>
+      <c r="C695" t="n">
+        <v>2</v>
+      </c>
+      <c r="D695" t="n">
+        <v>8961.049999999999</v>
+      </c>
+      <c r="E695" t="n">
+        <v>17922.1</v>
+      </c>
+      <c r="F695" t="inlineStr">
+        <is>
+          <t>Rissolar Pilar S.A.</t>
+        </is>
+      </c>
+      <c r="G695" t="inlineStr">
+        <is>
+          <t>Mayorista Net</t>
+        </is>
+      </c>
+      <c r="H695" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I695" t="n">
+        <v>8961.049999999999</v>
+      </c>
+      <c r="J695" t="n">
+        <v>17922.1</v>
+      </c>
+      <c r="K695" t="n">
+        <v>2</v>
+      </c>
+      <c r="L695" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+      <c r="B696" t="inlineStr">
+        <is>
+          <t>Galletitas Chocolipas Bagley Caja (25 x 250 Grs)</t>
+        </is>
+      </c>
+      <c r="C696" t="n">
+        <v>1</v>
+      </c>
+      <c r="D696" t="n">
+        <v>37120.66</v>
+      </c>
+      <c r="E696" t="n">
+        <v>37120.66</v>
+      </c>
+      <c r="F696" t="inlineStr">
+        <is>
+          <t>Rissolar Pilar S.A.</t>
+        </is>
+      </c>
+      <c r="G696" t="inlineStr">
+        <is>
+          <t>Mayorista Net</t>
+        </is>
+      </c>
+      <c r="H696" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I696" t="n">
+        <v>37120.66</v>
+      </c>
+      <c r="J696" t="n">
+        <v>37120.66</v>
+      </c>
+      <c r="K696" t="n">
+        <v>1</v>
+      </c>
+      <c r="L696" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+      <c r="B697" t="inlineStr">
+        <is>
+          <t>Cafe Soluble Arlistan Pack (12 x 170 Grs)</t>
+        </is>
+      </c>
+      <c r="C697" t="n">
+        <v>1</v>
+      </c>
+      <c r="D697" t="n">
+        <v>62188.07</v>
+      </c>
+      <c r="E697" t="n">
+        <v>62188.07</v>
+      </c>
+      <c r="F697" t="inlineStr">
+        <is>
+          <t>Rissolar Pilar S.A.</t>
+        </is>
+      </c>
+      <c r="G697" t="inlineStr">
+        <is>
+          <t>Mayorista Net</t>
+        </is>
+      </c>
+      <c r="H697" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I697" t="n">
+        <v>62188.07</v>
+      </c>
+      <c r="J697" t="n">
+        <v>62188.07</v>
+      </c>
+      <c r="K697" t="n">
+        <v>1</v>
+      </c>
+      <c r="L697" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+      <c r="B698" t="inlineStr">
+        <is>
+          <t>Tomate Perita Cumana Lata x 2.93 Kg</t>
+        </is>
+      </c>
+      <c r="C698" t="n">
+        <v>6</v>
+      </c>
+      <c r="D698" t="n">
+        <v>6387.35</v>
+      </c>
+      <c r="E698" t="n">
+        <v>38324.1</v>
+      </c>
+      <c r="F698" t="inlineStr">
+        <is>
+          <t>Rissolar Pilar S.A.</t>
+        </is>
+      </c>
+      <c r="G698" t="inlineStr">
+        <is>
+          <t>Mayorista Net</t>
+        </is>
+      </c>
+      <c r="H698" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I698" t="n">
+        <v>6387.35</v>
+      </c>
+      <c r="J698" t="n">
+        <v>38324.1</v>
+      </c>
+      <c r="K698" t="n">
+        <v>6</v>
+      </c>
+      <c r="L698" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+      <c r="B699" t="inlineStr">
+        <is>
+          <t>Hanna de Trigo 0000 Cañuelas Bolsa x 25 Kg</t>
+        </is>
+      </c>
+      <c r="C699" t="n">
+        <v>2</v>
+      </c>
+      <c r="D699" t="n">
+        <v>16376.6</v>
+      </c>
+      <c r="E699" t="n">
+        <v>32753.2</v>
+      </c>
+      <c r="F699" t="inlineStr">
+        <is>
+          <t>Rissolar Pilar S.A.</t>
+        </is>
+      </c>
+      <c r="G699" t="inlineStr">
+        <is>
+          <t>Mayorista Net</t>
+        </is>
+      </c>
+      <c r="H699" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I699" t="n">
+        <v>16376.6</v>
+      </c>
+      <c r="J699" t="n">
+        <v>32753.2</v>
+      </c>
+      <c r="K699" t="n">
+        <v>2</v>
+      </c>
+      <c r="L699" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+      <c r="B700" t="inlineStr">
+        <is>
+          <t>Fideos Spaghetti Nº7 Lucchetti Paquete (20 x 300 Grs)</t>
+        </is>
+      </c>
+      <c r="C700" t="n">
+        <v>1</v>
+      </c>
+      <c r="D700" t="n">
+        <v>18010.62</v>
+      </c>
+      <c r="E700" t="n">
+        <v>18010.62</v>
+      </c>
+      <c r="F700" t="inlineStr">
+        <is>
+          <t>Rissolar Pilar S.A.</t>
+        </is>
+      </c>
+      <c r="G700" t="inlineStr">
+        <is>
+          <t>Mayorista Net</t>
+        </is>
+      </c>
+      <c r="H700" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I700" t="n">
+        <v>18010.62</v>
+      </c>
+      <c r="J700" t="n">
+        <v>18010.62</v>
+      </c>
+      <c r="K700" t="n">
+        <v>1</v>
+      </c>
+      <c r="L700" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+      <c r="B701" t="inlineStr">
+        <is>
+          <t>Sal Fina Dos Anclas Paquete (12 x 500 Grs)</t>
+        </is>
+      </c>
+      <c r="C701" t="n">
+        <v>1</v>
+      </c>
+      <c r="D701" t="n">
+        <v>11113.6</v>
+      </c>
+      <c r="E701" t="n">
+        <v>11113.6</v>
+      </c>
+      <c r="F701" t="inlineStr">
+        <is>
+          <t>Rissolar Pilar S.A.</t>
+        </is>
+      </c>
+      <c r="G701" t="inlineStr">
+        <is>
+          <t>Mayorista Net</t>
+        </is>
+      </c>
+      <c r="H701" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I701" t="n">
+        <v>11113.6</v>
+      </c>
+      <c r="J701" t="n">
+        <v>11113.6</v>
+      </c>
+      <c r="K701" t="n">
+        <v>1</v>
+      </c>
+      <c r="L701" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+      <c r="B702" t="inlineStr">
+        <is>
+          <t>Caldo de Verdura Granulado Knorr Caja (6 x 650 Grs)</t>
+        </is>
+      </c>
+      <c r="C702" t="n">
+        <v>1</v>
+      </c>
+      <c r="D702" t="n">
+        <v>57980.3</v>
+      </c>
+      <c r="E702" t="n">
+        <v>57980.3</v>
+      </c>
+      <c r="F702" t="inlineStr">
+        <is>
+          <t>Rissolar Pilar S.A.</t>
+        </is>
+      </c>
+      <c r="G702" t="inlineStr">
+        <is>
+          <t>Mayorista Net</t>
+        </is>
+      </c>
+      <c r="H702" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I702" t="n">
+        <v>57980.3</v>
+      </c>
+      <c r="J702" t="n">
+        <v>57980.3</v>
+      </c>
+      <c r="K702" t="n">
+        <v>1</v>
+      </c>
+      <c r="L702" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+      <c r="B703" t="inlineStr">
+        <is>
+          <t>Aceite Alto Oleico Vero Caja (2 x 10 Lts)</t>
+        </is>
+      </c>
+      <c r="C703" t="n">
+        <v>3</v>
+      </c>
+      <c r="D703" t="n">
+        <v>62032.32</v>
+      </c>
+      <c r="E703" t="n">
+        <v>186096.96</v>
+      </c>
+      <c r="F703" t="inlineStr">
+        <is>
+          <t>Rissolar Pilar S.A.</t>
+        </is>
+      </c>
+      <c r="G703" t="inlineStr">
+        <is>
+          <t>Mayorista Net</t>
+        </is>
+      </c>
+      <c r="H703" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I703" t="n">
+        <v>62032.32</v>
+      </c>
+      <c r="J703" t="n">
+        <v>186096.96</v>
+      </c>
+      <c r="K703" t="n">
+        <v>3</v>
+      </c>
+      <c r="L703" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+      <c r="B704" t="inlineStr">
+        <is>
+          <t>Salsa Demi Glace Safra Bolsa x 480 Grs</t>
+        </is>
+      </c>
+      <c r="C704" t="n">
+        <v>2</v>
+      </c>
+      <c r="D704" t="n">
+        <v>7795.79</v>
+      </c>
+      <c r="E704" t="n">
+        <v>15591.58</v>
+      </c>
+      <c r="F704" t="inlineStr">
+        <is>
+          <t>Rissolar Pilar S.A.</t>
+        </is>
+      </c>
+      <c r="G704" t="inlineStr">
+        <is>
+          <t>Mayorista Net</t>
+        </is>
+      </c>
+      <c r="H704" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I704" t="n">
+        <v>7795.79</v>
+      </c>
+      <c r="J704" t="n">
+        <v>15591.58</v>
+      </c>
+      <c r="K704" t="n">
+        <v>2</v>
+      </c>
+      <c r="L704" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+      <c r="B705" t="inlineStr">
+        <is>
+          <t>Nueces Mariposas Extra Light Cumana Bolsa x 1 Kg</t>
+        </is>
+      </c>
+      <c r="C705" t="n">
+        <v>1</v>
+      </c>
+      <c r="D705" t="n">
+        <v>21573.3</v>
+      </c>
+      <c r="E705" t="n">
+        <v>21573.3</v>
+      </c>
+      <c r="F705" t="inlineStr">
+        <is>
+          <t>Rissolar Pilar S.A.</t>
+        </is>
+      </c>
+      <c r="G705" t="inlineStr">
+        <is>
+          <t>Mayorista Net</t>
+        </is>
+      </c>
+      <c r="H705" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I705" t="n">
+        <v>21573.3</v>
+      </c>
+      <c r="J705" t="n">
+        <v>21573.3</v>
+      </c>
+      <c r="K705" t="n">
+        <v>1</v>
+      </c>
+      <c r="L705" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+      <c r="B706" t="inlineStr">
+        <is>
+          <t>Papa McCain Tradicional (6 x 2.5 Kg) (A11109)x</t>
+        </is>
+      </c>
+      <c r="C706" t="n">
+        <v>8</v>
+      </c>
+      <c r="D706" t="n">
+        <v>32902.53</v>
+      </c>
+      <c r="E706" t="n">
+        <v>263220.24</v>
+      </c>
+      <c r="F706" t="inlineStr">
+        <is>
+          <t>Rissolar Pilar S.A.</t>
+        </is>
+      </c>
+      <c r="G706" t="inlineStr">
+        <is>
+          <t>Mayorista Net</t>
+        </is>
+      </c>
+      <c r="H706" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I706" t="n">
+        <v>32902.53</v>
+      </c>
+      <c r="J706" t="n">
+        <v>263220.24</v>
+      </c>
+      <c r="K706" t="n">
+        <v>8</v>
+      </c>
+      <c r="L706" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>21/05/2025</t>
+        </is>
+      </c>
+      <c r="B707" t="inlineStr">
+        <is>
+          <t>Chocolate Blanco Cobertura (90) Fenix Bolsa x 2.5 Kg</t>
+        </is>
+      </c>
+      <c r="C707" t="n">
+        <v>1</v>
+      </c>
+      <c r="D707" t="n">
+        <v>65912.17999999999</v>
+      </c>
+      <c r="E707" t="n">
+        <v>65912.17999999999</v>
+      </c>
+      <c r="F707" t="inlineStr">
+        <is>
+          <t>Mojama SA</t>
+        </is>
+      </c>
+      <c r="G707" t="inlineStr">
+        <is>
+          <t>Mayorista Net</t>
+        </is>
+      </c>
+      <c r="H707" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I707" t="n">
+        <v>65912.17999999999</v>
+      </c>
+      <c r="J707" t="n">
+        <v>65912.17999999999</v>
+      </c>
+      <c r="K707" t="n">
+        <v>1</v>
+      </c>
+      <c r="L707" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>21/05/2025</t>
+        </is>
+      </c>
+      <c r="B708" t="inlineStr">
+        <is>
+          <t>Pan Rallado Prefendo Bolsa x 5 Kg</t>
+        </is>
+      </c>
+      <c r="C708" t="n">
+        <v>1</v>
+      </c>
+      <c r="D708" t="n">
+        <v>8961.049999999999</v>
+      </c>
+      <c r="E708" t="n">
+        <v>8961.049999999999</v>
+      </c>
+      <c r="F708" t="inlineStr">
+        <is>
+          <t>Mojama SA</t>
+        </is>
+      </c>
+      <c r="G708" t="inlineStr">
+        <is>
+          <t>Mayorista Net</t>
+        </is>
+      </c>
+      <c r="H708" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I708" t="n">
+        <v>8961.049999999999</v>
+      </c>
+      <c r="J708" t="n">
+        <v>8961.049999999999</v>
+      </c>
+      <c r="K708" t="n">
+        <v>1</v>
+      </c>
+      <c r="L708" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>21/05/2025</t>
+        </is>
+      </c>
+      <c r="B709" t="inlineStr">
+        <is>
+          <t>Chip de Chocolate Semiamargo (9641) Aguila Caja x 10 Kg</t>
+        </is>
+      </c>
+      <c r="C709" t="n">
+        <v>1</v>
+      </c>
+      <c r="D709" t="n">
+        <v>56017.25</v>
+      </c>
+      <c r="E709" t="n">
+        <v>56017.25</v>
+      </c>
+      <c r="F709" t="inlineStr">
+        <is>
+          <t>Mojama SA</t>
+        </is>
+      </c>
+      <c r="G709" t="inlineStr">
+        <is>
+          <t>Mayorista Net</t>
+        </is>
+      </c>
+      <c r="H709" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I709" t="n">
+        <v>56017.25</v>
+      </c>
+      <c r="J709" t="n">
+        <v>56017.25</v>
+      </c>
+      <c r="K709" t="n">
+        <v>1</v>
+      </c>
+      <c r="L709" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>17/06/2025</t>
+        </is>
+      </c>
+      <c r="B710" t="inlineStr">
+        <is>
+          <t>Té Clásico Green Hills con sobre Pack (10 x 50 un)</t>
+        </is>
+      </c>
+      <c r="C710" t="n">
+        <v>18818.27</v>
+      </c>
+      <c r="D710" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="E710" t="n">
+        <v>140007.93</v>
+      </c>
+      <c r="F710" t="inlineStr">
+        <is>
+          <t>GRATTINADO</t>
+        </is>
+      </c>
+      <c r="G710" t="inlineStr">
+        <is>
+          <t>Mayorista Net</t>
+        </is>
+      </c>
+      <c r="H710" t="inlineStr">
+        <is>
+          <t>Diferencia de Precio</t>
+        </is>
+      </c>
+      <c r="I710" t="n">
+        <v>0</v>
+      </c>
+      <c r="J710" t="n">
+        <v>0</v>
+      </c>
+      <c r="K710" t="n">
+        <v>18818.27</v>
+      </c>
+      <c r="L710" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>Prueba</t>
+        </is>
+      </c>
+      <c r="B711" t="inlineStr">
+        <is>
+          <t>Prueba</t>
+        </is>
+      </c>
+      <c r="C711" t="inlineStr">
+        <is>
+          <t>Prueba</t>
+        </is>
+      </c>
+      <c r="D711" t="inlineStr">
+        <is>
+          <t>Prueba</t>
+        </is>
+      </c>
+      <c r="E711" t="inlineStr">
+        <is>
+          <t>Prueba</t>
+        </is>
+      </c>
+      <c r="F711" t="inlineStr">
+        <is>
+          <t>Prueba</t>
+        </is>
+      </c>
+      <c r="G711" t="inlineStr">
+        <is>
+          <t>Prueba</t>
+        </is>
+      </c>
+      <c r="H711" t="inlineStr">
+        <is>
+          <t>Prueba</t>
+        </is>
+      </c>
+      <c r="I711" t="inlineStr">
+        <is>
+          <t>Prueba</t>
+        </is>
+      </c>
+      <c r="J711" t="inlineStr">
+        <is>
+          <t>Prueba</t>
+        </is>
+      </c>
+      <c r="K711" t="inlineStr">
+        <is>
+          <t>Prueba</t>
+        </is>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+      <c r="B712" t="inlineStr">
+        <is>
+          <t>Barritas de submarino Aguila Caja (24 x 14 gr)</t>
+        </is>
+      </c>
+      <c r="C712" t="n">
+        <v>1</v>
+      </c>
+      <c r="D712" t="n">
+        <v>14946.31</v>
+      </c>
+      <c r="E712" t="n">
+        <v>14946.31</v>
+      </c>
+      <c r="F712" t="inlineStr">
+        <is>
+          <t>GOURMAND S.A</t>
+        </is>
+      </c>
+      <c r="G712" t="inlineStr">
+        <is>
+          <t>Mayorista Net</t>
+        </is>
+      </c>
+      <c r="H712" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I712" t="n">
+        <v>14946.31</v>
+      </c>
+      <c r="J712" t="n">
+        <v>14946.31</v>
+      </c>
+      <c r="K712" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+      <c r="B713" t="inlineStr">
+        <is>
+          <t>Queso Crema Milka ut Balde x 3.6 Kg</t>
+        </is>
+      </c>
+      <c r="C713" t="n">
+        <v>2</v>
+      </c>
+      <c r="D713" t="n">
+        <v>40698.53</v>
+      </c>
+      <c r="E713" t="n">
+        <v>81397.06</v>
+      </c>
+      <c r="F713" t="inlineStr">
+        <is>
+          <t>GOURMAND S.A</t>
+        </is>
+      </c>
+      <c r="G713" t="inlineStr">
+        <is>
+          <t>Mayorista Net</t>
+        </is>
+      </c>
+      <c r="H713" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I713" t="n">
+        <v>40698.53</v>
+      </c>
+      <c r="J713" t="n">
+        <v>81397.06</v>
+      </c>
+      <c r="K713" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>20/05/2025</t>
+        </is>
+      </c>
+      <c r="B714" t="inlineStr">
+        <is>
+          <t>Rebozador Preferido Bolsa x 5 Kg</t>
+        </is>
+      </c>
+      <c r="C714" t="n">
+        <v>1</v>
+      </c>
+      <c r="D714" t="n">
+        <v>8961.049999999999</v>
+      </c>
+      <c r="E714" t="n">
+        <v>8961.049999999999</v>
+      </c>
+      <c r="F714" t="inlineStr">
+        <is>
+          <t>GOURMAND S.A</t>
+        </is>
+      </c>
+      <c r="G714" t="inlineStr">
+        <is>
+          <t>Mayorista Net</t>
+        </is>
+      </c>
+      <c r="H714" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I714" t="n">
+        <v>8961.049999999999</v>
+      </c>
+      <c r="J714" t="n">
+        <v>8961.049999999999</v>
+      </c>
+      <c r="K714" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>01/01/2025</t>
+        </is>
+      </c>
+      <c r="B715" t="inlineStr">
+        <is>
+          <t>Levadura Prensada Virgen Calsa Pan x 500 Gr</t>
+        </is>
+      </c>
+      <c r="C715" t="n">
+        <v>2</v>
+      </c>
+      <c r="D715" t="n">
+        <v>3537.26</v>
+      </c>
+      <c r="E715" t="n">
+        <v>7074.52</v>
+      </c>
+      <c r="F715" t="inlineStr">
+        <is>
+          <t>Rissolar Pilar S.A.</t>
+        </is>
+      </c>
+      <c r="G715" t="inlineStr">
+        <is>
+          <t>Mayorista Net</t>
+        </is>
+      </c>
+      <c r="H715" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I715" t="n">
+        <v>3537.26</v>
+      </c>
+      <c r="J715" t="n">
+        <v>7074.52</v>
+      </c>
+      <c r="K715" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>01/01/2025</t>
+        </is>
+      </c>
+      <c r="B716" t="inlineStr">
+        <is>
+          <t>Jamón Cocido Tradicional Campo Austral Pieza x 5 Kg</t>
+        </is>
+      </c>
+      <c r="C716" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="D716" t="n">
+        <v>10371.05</v>
+      </c>
+      <c r="E716" t="n">
+        <v>51025.57</v>
+      </c>
+      <c r="F716" t="inlineStr">
+        <is>
+          <t>Rissolar Pilar S.A.</t>
+        </is>
+      </c>
+      <c r="G716" t="inlineStr">
+        <is>
+          <t>Mayorista Net</t>
+        </is>
+      </c>
+      <c r="H716" t="inlineStr">
+        <is>
+          <t>Diferencia de Precio</t>
+        </is>
+      </c>
+      <c r="I716" t="n">
+        <v>10364.73</v>
+      </c>
+      <c r="J716" t="n">
+        <v>50994.47</v>
+      </c>
+      <c r="K716" t="n">
+        <v>4.92</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>01/01/2025</t>
+        </is>
+      </c>
+      <c r="B717" t="inlineStr">
+        <is>
+          <t>Queso Cheddar Fundido Milkaut Caja (2 x 3.5 Kg)</t>
+        </is>
+      </c>
+      <c r="C717" t="n">
+        <v>1</v>
+      </c>
+      <c r="D717" t="n">
+        <v>59358.44</v>
+      </c>
+      <c r="E717" t="n">
+        <v>59358.44</v>
+      </c>
+      <c r="F717" t="inlineStr">
+        <is>
+          <t>Rissolar Pilar S.A.</t>
+        </is>
+      </c>
+      <c r="G717" t="inlineStr">
+        <is>
+          <t>Mayorista Net</t>
+        </is>
+      </c>
+      <c r="H717" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I717" t="n">
+        <v>59358.44</v>
+      </c>
+      <c r="J717" t="n">
+        <v>59358.44</v>
+      </c>
+      <c r="K717" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>01/01/2025</t>
+        </is>
+      </c>
+      <c r="B718" t="inlineStr">
+        <is>
+          <t>Queso Criña Milkaut Balde x 3.6 Kg</t>
+        </is>
+      </c>
+      <c r="C718" t="n">
+        <v>1</v>
+      </c>
+      <c r="D718" t="n">
+        <v>40698.53</v>
+      </c>
+      <c r="E718" t="n">
+        <v>40698.53</v>
+      </c>
+      <c r="F718" t="inlineStr">
+        <is>
+          <t>Rissolar Pilar S.A.</t>
+        </is>
+      </c>
+      <c r="G718" t="inlineStr">
+        <is>
+          <t>Mayorista Net</t>
+        </is>
+      </c>
+      <c r="H718" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I718" t="n">
+        <v>40698.53</v>
+      </c>
+      <c r="J718" t="n">
+        <v>40698.53</v>
+      </c>
+      <c r="K718" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t>01/01/2025</t>
+        </is>
+      </c>
+      <c r="B719" t="inlineStr">
+        <is>
+          <t>Panceta Ahumada Campo Austral Pieza x 2.2 Kg Aprox</t>
+        </is>
+      </c>
+      <c r="C719" t="n">
+        <v>11.51</v>
+      </c>
+      <c r="D719" t="n">
+        <v>13521.75</v>
+      </c>
+      <c r="E719" t="n">
+        <v>155635.38</v>
+      </c>
+      <c r="F719" t="inlineStr">
+        <is>
+          <t>Rissolar Pilar S.A.</t>
+        </is>
+      </c>
+      <c r="G719" t="inlineStr">
+        <is>
+          <t>Mayorista Net</t>
+        </is>
+      </c>
+      <c r="H719" t="inlineStr">
+        <is>
+          <t>Diferencia de Precio</t>
+        </is>
+      </c>
+      <c r="I719" t="n">
+        <v>13527.63</v>
+      </c>
+      <c r="J719" t="n">
+        <v>155703.02</v>
+      </c>
+      <c r="K719" t="n">
+        <v>11.51</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t>01/01/2025</t>
+        </is>
+      </c>
+      <c r="B720" t="inlineStr">
+        <is>
+          <t>Pan Rallado Preferido Bolsa x 5 Kg</t>
+        </is>
+      </c>
+      <c r="C720" t="n">
+        <v>2</v>
+      </c>
+      <c r="D720" t="n">
+        <v>8961.049999999999</v>
+      </c>
+      <c r="E720" t="n">
+        <v>17922.1</v>
+      </c>
+      <c r="F720" t="inlineStr">
+        <is>
+          <t>Rissolar Pilar S.A.</t>
+        </is>
+      </c>
+      <c r="G720" t="inlineStr">
+        <is>
+          <t>Mayorista Net</t>
+        </is>
+      </c>
+      <c r="H720" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I720" t="n">
+        <v>8961.049999999999</v>
+      </c>
+      <c r="J720" t="n">
+        <v>17922.1</v>
+      </c>
+      <c r="K720" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t>01/01/2025</t>
+        </is>
+      </c>
+      <c r="B721" t="inlineStr">
+        <is>
+          <t>Galletitas Chocolipas Bagley Caja (25 x 250 Grs)</t>
+        </is>
+      </c>
+      <c r="C721" t="n">
+        <v>1</v>
+      </c>
+      <c r="D721" t="n">
+        <v>37120.66</v>
+      </c>
+      <c r="E721" t="n">
+        <v>37120.66</v>
+      </c>
+      <c r="F721" t="inlineStr">
+        <is>
+          <t>Rissolar Pilar S.A.</t>
+        </is>
+      </c>
+      <c r="G721" t="inlineStr">
+        <is>
+          <t>Mayorista Net</t>
+        </is>
+      </c>
+      <c r="H721" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I721" t="n">
+        <v>37120.66</v>
+      </c>
+      <c r="J721" t="n">
+        <v>37120.66</v>
+      </c>
+      <c r="K721" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t>01/01/2025</t>
+        </is>
+      </c>
+      <c r="B722" t="inlineStr">
+        <is>
+          <t>Cafe Soluble Arlistan Pack (12 x 170 Grs)</t>
+        </is>
+      </c>
+      <c r="C722" t="n">
+        <v>1</v>
+      </c>
+      <c r="D722" t="n">
+        <v>62188.07</v>
+      </c>
+      <c r="E722" t="n">
+        <v>62188.07</v>
+      </c>
+      <c r="F722" t="inlineStr">
+        <is>
+          <t>Rissolar Pilar S.A.</t>
+        </is>
+      </c>
+      <c r="G722" t="inlineStr">
+        <is>
+          <t>Mayorista Net</t>
+        </is>
+      </c>
+      <c r="H722" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I722" t="n">
+        <v>62188.07</v>
+      </c>
+      <c r="J722" t="n">
+        <v>62188.07</v>
+      </c>
+      <c r="K722" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>01/01/2025</t>
+        </is>
+      </c>
+      <c r="B723" t="inlineStr">
+        <is>
+          <t>Tomate Perita Cumana Lata x 2.93 Kg</t>
+        </is>
+      </c>
+      <c r="C723" t="n">
+        <v>6</v>
+      </c>
+      <c r="D723" t="n">
+        <v>6387.35</v>
+      </c>
+      <c r="E723" t="n">
+        <v>38324.1</v>
+      </c>
+      <c r="F723" t="inlineStr">
+        <is>
+          <t>Rissolar Pilar S.A.</t>
+        </is>
+      </c>
+      <c r="G723" t="inlineStr">
+        <is>
+          <t>Mayorista Net</t>
+        </is>
+      </c>
+      <c r="H723" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I723" t="n">
+        <v>6387.35</v>
+      </c>
+      <c r="J723" t="n">
+        <v>38324.1</v>
+      </c>
+      <c r="K723" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>01/01/2025</t>
+        </is>
+      </c>
+      <c r="B724" t="inlineStr">
+        <is>
+          <t>Hanna de Trigo 0000 Cañuelas Bolsa x 25 Kg</t>
+        </is>
+      </c>
+      <c r="C724" t="n">
+        <v>2</v>
+      </c>
+      <c r="D724" t="n">
+        <v>16376.6</v>
+      </c>
+      <c r="E724" t="n">
+        <v>32753.2</v>
+      </c>
+      <c r="F724" t="inlineStr">
+        <is>
+          <t>Rissolar Pilar S.A.</t>
+        </is>
+      </c>
+      <c r="G724" t="inlineStr">
+        <is>
+          <t>Mayorista Net</t>
+        </is>
+      </c>
+      <c r="H724" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I724" t="n">
+        <v>16376.6</v>
+      </c>
+      <c r="J724" t="n">
+        <v>32753.2</v>
+      </c>
+      <c r="K724" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
+          <t>01/01/2025</t>
+        </is>
+      </c>
+      <c r="B725" t="inlineStr">
+        <is>
+          <t>Fideos Spaghetti Nº7 Lucchetti Paquete (20 x 300 Grs)</t>
+        </is>
+      </c>
+      <c r="C725" t="n">
+        <v>1</v>
+      </c>
+      <c r="D725" t="n">
+        <v>18010.62</v>
+      </c>
+      <c r="E725" t="n">
+        <v>18010.62</v>
+      </c>
+      <c r="F725" t="inlineStr">
+        <is>
+          <t>Rissolar Pilar S.A.</t>
+        </is>
+      </c>
+      <c r="G725" t="inlineStr">
+        <is>
+          <t>Mayorista Net</t>
+        </is>
+      </c>
+      <c r="H725" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I725" t="n">
+        <v>18010.62</v>
+      </c>
+      <c r="J725" t="n">
+        <v>18010.62</v>
+      </c>
+      <c r="K725" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr">
+        <is>
+          <t>01/01/2025</t>
+        </is>
+      </c>
+      <c r="B726" t="inlineStr">
+        <is>
+          <t>Sal Fina Dos Anclas Paquete (12 x 500 Grs)</t>
+        </is>
+      </c>
+      <c r="C726" t="n">
+        <v>1</v>
+      </c>
+      <c r="D726" t="n">
+        <v>11113.6</v>
+      </c>
+      <c r="E726" t="n">
+        <v>11113.6</v>
+      </c>
+      <c r="F726" t="inlineStr">
+        <is>
+          <t>Rissolar Pilar S.A.</t>
+        </is>
+      </c>
+      <c r="G726" t="inlineStr">
+        <is>
+          <t>Mayorista Net</t>
+        </is>
+      </c>
+      <c r="H726" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I726" t="n">
+        <v>11113.6</v>
+      </c>
+      <c r="J726" t="n">
+        <v>11113.6</v>
+      </c>
+      <c r="K726" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="inlineStr">
+        <is>
+          <t>01/01/2025</t>
+        </is>
+      </c>
+      <c r="B727" t="inlineStr">
+        <is>
+          <t>Caldo de Verdura Granulado Knorr Caja (6 x 650 Grs)</t>
+        </is>
+      </c>
+      <c r="C727" t="n">
+        <v>1</v>
+      </c>
+      <c r="D727" t="n">
+        <v>57980.3</v>
+      </c>
+      <c r="E727" t="n">
+        <v>57980.3</v>
+      </c>
+      <c r="F727" t="inlineStr">
+        <is>
+          <t>Rissolar Pilar S.A.</t>
+        </is>
+      </c>
+      <c r="G727" t="inlineStr">
+        <is>
+          <t>Mayorista Net</t>
+        </is>
+      </c>
+      <c r="H727" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I727" t="n">
+        <v>57980.3</v>
+      </c>
+      <c r="J727" t="n">
+        <v>57980.3</v>
+      </c>
+      <c r="K727" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="inlineStr">
+        <is>
+          <t>01/01/2025</t>
+        </is>
+      </c>
+      <c r="B728" t="inlineStr">
+        <is>
+          <t>Aceite Alto Oleico Vero Caja (2 x 10 Lts)</t>
+        </is>
+      </c>
+      <c r="C728" t="n">
+        <v>3</v>
+      </c>
+      <c r="D728" t="n">
+        <v>62032.32</v>
+      </c>
+      <c r="E728" t="n">
+        <v>186096.96</v>
+      </c>
+      <c r="F728" t="inlineStr">
+        <is>
+          <t>Rissolar Pilar S.A.</t>
+        </is>
+      </c>
+      <c r="G728" t="inlineStr">
+        <is>
+          <t>Mayorista Net</t>
+        </is>
+      </c>
+      <c r="H728" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I728" t="n">
+        <v>62032.32</v>
+      </c>
+      <c r="J728" t="n">
+        <v>186096.96</v>
+      </c>
+      <c r="K728" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="inlineStr">
+        <is>
+          <t>01/01/2025</t>
+        </is>
+      </c>
+      <c r="B729" t="inlineStr">
+        <is>
+          <t>Salsa Demi Glace Safra Bolsa x 480 Grs</t>
+        </is>
+      </c>
+      <c r="C729" t="n">
+        <v>2</v>
+      </c>
+      <c r="D729" t="n">
+        <v>7795.79</v>
+      </c>
+      <c r="E729" t="n">
+        <v>15591.58</v>
+      </c>
+      <c r="F729" t="inlineStr">
+        <is>
+          <t>Rissolar Pilar S.A.</t>
+        </is>
+      </c>
+      <c r="G729" t="inlineStr">
+        <is>
+          <t>Mayorista Net</t>
+        </is>
+      </c>
+      <c r="H729" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I729" t="n">
+        <v>7795.79</v>
+      </c>
+      <c r="J729" t="n">
+        <v>15591.58</v>
+      </c>
+      <c r="K729" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="inlineStr">
+        <is>
+          <t>01/01/2025</t>
+        </is>
+      </c>
+      <c r="B730" t="inlineStr">
+        <is>
+          <t>Nueces Mariposas Extra Light Cumana Bolsa x 1 Kg</t>
+        </is>
+      </c>
+      <c r="C730" t="n">
+        <v>1</v>
+      </c>
+      <c r="D730" t="n">
+        <v>21573.3</v>
+      </c>
+      <c r="E730" t="n">
+        <v>21573.3</v>
+      </c>
+      <c r="F730" t="inlineStr">
+        <is>
+          <t>Rissolar Pilar S.A.</t>
+        </is>
+      </c>
+      <c r="G730" t="inlineStr">
+        <is>
+          <t>Mayorista Net</t>
+        </is>
+      </c>
+      <c r="H730" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I730" t="n">
+        <v>21573.3</v>
+      </c>
+      <c r="J730" t="n">
+        <v>21573.3</v>
+      </c>
+      <c r="K730" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t>01/01/2025</t>
+        </is>
+      </c>
+      <c r="B731" t="inlineStr">
+        <is>
+          <t>Papa McCain Tradicional (6 x 2.5 Kg) (A11109)x</t>
+        </is>
+      </c>
+      <c r="C731" t="n">
+        <v>8</v>
+      </c>
+      <c r="D731" t="n">
+        <v>32902.53</v>
+      </c>
+      <c r="E731" t="n">
+        <v>263220.24</v>
+      </c>
+      <c r="F731" t="inlineStr">
+        <is>
+          <t>Rissolar Pilar S.A.</t>
+        </is>
+      </c>
+      <c r="G731" t="inlineStr">
+        <is>
+          <t>Mayorista Net</t>
+        </is>
+      </c>
+      <c r="H731" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I731" t="n">
+        <v>32902.53</v>
+      </c>
+      <c r="J731" t="n">
+        <v>263220.24</v>
+      </c>
+      <c r="K731" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>21/05/2025</t>
+        </is>
+      </c>
+      <c r="B732" t="inlineStr">
+        <is>
+          <t>Chocolate Blanco Cobertura (90) Fenix Bolsa x 2.5 Kg</t>
+        </is>
+      </c>
+      <c r="C732" t="n">
+        <v>1</v>
+      </c>
+      <c r="D732" t="n">
+        <v>65912.17999999999</v>
+      </c>
+      <c r="E732" t="n">
+        <v>65912.17999999999</v>
+      </c>
+      <c r="F732" t="inlineStr">
+        <is>
+          <t>Mojama SA</t>
+        </is>
+      </c>
+      <c r="G732" t="inlineStr">
+        <is>
+          <t>Mayorista Net</t>
+        </is>
+      </c>
+      <c r="H732" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I732" t="n">
+        <v>65912.17999999999</v>
+      </c>
+      <c r="J732" t="n">
+        <v>65912.17999999999</v>
+      </c>
+      <c r="K732" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>21/05/2025</t>
+        </is>
+      </c>
+      <c r="B733" t="inlineStr">
+        <is>
+          <t>Pan Rallado Prefendo Bolsa x 5 Kg</t>
+        </is>
+      </c>
+      <c r="C733" t="n">
+        <v>1</v>
+      </c>
+      <c r="D733" t="n">
+        <v>8961.049999999999</v>
+      </c>
+      <c r="E733" t="n">
+        <v>8961.049999999999</v>
+      </c>
+      <c r="F733" t="inlineStr">
+        <is>
+          <t>Mojama SA</t>
+        </is>
+      </c>
+      <c r="G733" t="inlineStr">
+        <is>
+          <t>Mayorista Net</t>
+        </is>
+      </c>
+      <c r="H733" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I733" t="n">
+        <v>8961.049999999999</v>
+      </c>
+      <c r="J733" t="n">
+        <v>8961.049999999999</v>
+      </c>
+      <c r="K733" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t>21/05/2025</t>
+        </is>
+      </c>
+      <c r="B734" t="inlineStr">
+        <is>
+          <t>Chip de Chocolate Semiamargo (9641) Aguila Caja x 10 Kg</t>
+        </is>
+      </c>
+      <c r="C734" t="n">
+        <v>1</v>
+      </c>
+      <c r="D734" t="n">
+        <v>56017.25</v>
+      </c>
+      <c r="E734" t="n">
+        <v>56017.25</v>
+      </c>
+      <c r="F734" t="inlineStr">
+        <is>
+          <t>Mojama SA</t>
+        </is>
+      </c>
+      <c r="G734" t="inlineStr">
+        <is>
+          <t>Mayorista Net</t>
+        </is>
+      </c>
+      <c r="H734" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I734" t="n">
+        <v>56017.25</v>
+      </c>
+      <c r="J734" t="n">
+        <v>56017.25</v>
+      </c>
+      <c r="K734" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t>17/06/2025</t>
+        </is>
+      </c>
+      <c r="B735" t="inlineStr">
+        <is>
+          <t>Té Clásico Green Hills con sobre Pack (10 x 50 un)</t>
+        </is>
+      </c>
+      <c r="C735" t="n">
+        <v>0</v>
+      </c>
+      <c r="D735" t="n">
+        <v>0</v>
+      </c>
+      <c r="E735" t="n">
+        <v>0</v>
+      </c>
+      <c r="F735" t="inlineStr">
+        <is>
+          <t>GRATTINADO</t>
+        </is>
+      </c>
+      <c r="G735" t="inlineStr">
+        <is>
+          <t>Mayorista Net</t>
+        </is>
+      </c>
+      <c r="H735" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I735" t="n">
+        <v>0</v>
+      </c>
+      <c r="J735" t="n">
+        <v>0</v>
+      </c>
+      <c r="K735" t="n">
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/BD extracciones.xlsx
+++ b/BD extracciones.xlsx
@@ -437,11 +437,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S146"/>
+  <dimension ref="A1:S105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -612,15 +612,11 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>14946,31</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>14946,31</t>
-        </is>
+      <c r="N2" t="n">
+        <v>14946.31</v>
+      </c>
+      <c r="O2" t="n">
+        <v>14946.31</v>
       </c>
     </row>
     <row r="3">
@@ -675,15 +671,11 @@
       <c r="M3" t="n">
         <v>2</v>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>40698,53</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>81397,05</t>
-        </is>
+      <c r="N3" t="n">
+        <v>40698.53</v>
+      </c>
+      <c r="O3" t="n">
+        <v>81397.05</v>
       </c>
     </row>
     <row r="4">
@@ -738,21 +730,17 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>8961,05</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>8961,05</t>
-        </is>
+      <c r="N4" t="n">
+        <v>8961.049999999999</v>
+      </c>
+      <c r="O4" t="n">
+        <v>8961.049999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20/05/2025</t>
+          <t>01/01/2025</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -793,11 +781,25 @@
       <c r="K5" t="n">
         <v>2</v>
       </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Levadura Prensada Virgen Calsa Pan x 500 Gr</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3537.26</v>
+      </c>
+      <c r="O5" t="n">
+        <v>7074.52</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20/05/2025</t>
+          <t>01/01/2025</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -838,11 +840,25 @@
       <c r="K6" t="n">
         <v>4.92</v>
       </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Jamon Cocido Tradicional Campo Austral Pieza x 5 Kg</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="n">
+        <v>59358.44</v>
+      </c>
+      <c r="O6" t="n">
+        <v>59358.44</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>20/05/2025</t>
+          <t>01/01/2025</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -883,11 +899,25 @@
       <c r="K7" t="n">
         <v>1</v>
       </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Queso Cheddar Fundido Milkaut Caja (2 x 3.5 Kg)</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="n">
+        <v>10364.73</v>
+      </c>
+      <c r="O7" t="n">
+        <v>10364.73</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20/05/2025</t>
+          <t>01/01/2025</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -928,11 +958,25 @@
       <c r="K8" t="n">
         <v>1</v>
       </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Queso Crema Milka ut Balde x 3.6 Kg</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="n">
+        <v>40698.53</v>
+      </c>
+      <c r="O8" t="n">
+        <v>40698.53</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20/05/2025</t>
+          <t>01/01/2025</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -973,11 +1017,25 @@
       <c r="K9" t="n">
         <v>11.51</v>
       </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Panceta Ahumada Campo Austral Pieza x 2.2 Yo Aprox</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>6</v>
+      </c>
+      <c r="N9" t="n">
+        <v>13527.63</v>
+      </c>
+      <c r="O9" t="n">
+        <v>155635.38</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20/05/2025</t>
+          <t>01/01/2025</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1018,11 +1076,25 @@
       <c r="K10" t="n">
         <v>2</v>
       </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Pan Rallado Preferido Bolsa x 5 Kg</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="n">
+        <v>8961.049999999999</v>
+      </c>
+      <c r="O10" t="n">
+        <v>17922.1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>20/05/2025</t>
+          <t>01/01/2025</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1063,11 +1135,25 @@
       <c r="K11" t="n">
         <v>1</v>
       </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Galietitas Chocolinas Bagley Caja (25 x 250 Grs)</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="n">
+        <v>37120.66</v>
+      </c>
+      <c r="O11" t="n">
+        <v>37120.66</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>20/05/2025</t>
+          <t>01/01/2025</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1108,11 +1194,25 @@
       <c r="K12" t="n">
         <v>1</v>
       </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Cafe Soluble Arlistan Pack (12 x 170 Grs)</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="n">
+        <v>62188.07</v>
+      </c>
+      <c r="O12" t="n">
+        <v>62188.07</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>20/05/2025</t>
+          <t>01/01/2025</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1153,11 +1253,25 @@
       <c r="K13" t="n">
         <v>6</v>
       </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Tomate Perita Cumana Lata x 2.93 Kg</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>6</v>
+      </c>
+      <c r="N13" t="n">
+        <v>6387.35</v>
+      </c>
+      <c r="O13" t="n">
+        <v>38324.1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20/05/2025</t>
+          <t>01/01/2025</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1198,11 +1312,25 @@
       <c r="K14" t="n">
         <v>2</v>
       </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Harina de Trigo 0000 Cañuelas Bolsa x 25 Kg</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="n">
+        <v>16376.6</v>
+      </c>
+      <c r="O14" t="n">
+        <v>32753.2</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>20/05/2025</t>
+          <t>01/01/2025</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1243,11 +1371,25 @@
       <c r="K15" t="n">
         <v>1</v>
       </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Fideos Spaghetti No7 Lucchetti Paquete (20 x 500 Grs)</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="n">
+        <v>18010.62</v>
+      </c>
+      <c r="O15" t="n">
+        <v>18010.62</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>20/05/2025</t>
+          <t>01/01/2025</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1288,11 +1430,25 @@
       <c r="K16" t="n">
         <v>1</v>
       </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Sal Fina Dos Anclas Paquete (12 x 500 Gis)</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1113.6</v>
+      </c>
+      <c r="O16" t="n">
+        <v>11113.6</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20/05/2025</t>
+          <t>01/01/2025</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1333,11 +1489,25 @@
       <c r="K17" t="n">
         <v>1</v>
       </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Caldo de Verdura Granulado Knorr Caja (6 x 650 Gr)</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="n">
+        <v>57980.3</v>
+      </c>
+      <c r="O17" t="n">
+        <v>57980.3</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>20/05/2025</t>
+          <t>01/01/2025</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1378,11 +1548,25 @@
       <c r="K18" t="n">
         <v>3</v>
       </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Aceite Alto Oleico Vero Caja (2 x 10 Lts)</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="n">
+        <v>62032.32</v>
+      </c>
+      <c r="O18" t="n">
+        <v>186096.96</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20/05/2025</t>
+          <t>01/01/2025</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1423,11 +1607,25 @@
       <c r="K19" t="n">
         <v>2</v>
       </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Salsa Demi-Glace Safra Bolsa x 480 Grs</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="n">
+        <v>7795.79</v>
+      </c>
+      <c r="O19" t="n">
+        <v>15591.58</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20/05/2025</t>
+          <t>01/01/2025</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1468,11 +1666,25 @@
       <c r="K20" t="n">
         <v>1</v>
       </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Nueces Mariposas Extra Light Cumana Bolsa x 1 Kg.</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>21573.3</v>
+      </c>
+      <c r="O20" t="n">
+        <v>21573.3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20/05/2025</t>
+          <t>01/01/2025</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1513,30 +1725,44 @@
       <c r="K21" t="n">
         <v>8</v>
       </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Papa McCain Tradicional (6 x 2.5 Kg) (A11109)x</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
+        <v>8</v>
+      </c>
+      <c r="N21" t="n">
+        <v>32902.53</v>
+      </c>
+      <c r="O21" t="n">
+        <v>263220.27</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>28/05/2025</t>
+          <t>21/05/2025</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Cobertura de Chocolate Negro Amargo (87) Fenix Bolsa x 2,5 Kg</t>
+          <t>Chocolate Blanco Cobertura (90) Fenix Bolsa x 2.5 Kg</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>82945.66</v>
+        <v>65912.17999999999</v>
       </c>
       <c r="E22" t="n">
-        <v>82945.66</v>
+        <v>65912.17999999999</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Mince Bar S.A.S</t>
+          <t>Mojama SA</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1550,56 +1776,52 @@
         </is>
       </c>
       <c r="I22" t="n">
-        <v>82945.66</v>
+        <v>65912.17999999999</v>
       </c>
       <c r="J22" t="n">
-        <v>82945.66</v>
+        <v>65912.17999999999</v>
       </c>
       <c r="K22" t="n">
         <v>1</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Cobertura de Chocolate Negro Amargo (87) Fenix Bolsa x 2.5 Kg</t>
+          <t>Chocolate Blanco Cobertura (90) Fenix Bolsa x 2.5 Kg</t>
         </is>
       </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>82945,66</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>82945,66</t>
-        </is>
+      <c r="N22" t="n">
+        <v>65912.17999999999</v>
+      </c>
+      <c r="O22" t="n">
+        <v>65912.17999999999</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>28/05/2025</t>
+          <t>21/05/2025</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Crema de Leche (44%) Milkaut Balde 5 itríos</t>
+          <t>Pan Rallado Prefendo Bolsa x 5 Kg</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>43401.18</v>
+        <v>8961.049999999999</v>
       </c>
       <c r="E23" t="n">
-        <v>43401.18</v>
+        <v>8961.049999999999</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Mince Bar S.A.S</t>
+          <t>Mojama SA</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1613,56 +1835,52 @@
         </is>
       </c>
       <c r="I23" t="n">
-        <v>43401.18</v>
+        <v>8961.049999999999</v>
       </c>
       <c r="J23" t="n">
-        <v>43401.18</v>
+        <v>8961.049999999999</v>
       </c>
       <c r="K23" t="n">
         <v>1</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Crema de Leche (44%) Milkaut Balde 5 litros.</t>
+          <t>Pan Rallado Preferido Bolsa x 5 Kg</t>
         </is>
       </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>43401,18</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>43401,18</t>
-        </is>
+      <c r="N23" t="n">
+        <v>8961.049999999999</v>
+      </c>
+      <c r="O23" t="n">
+        <v>8961.049999999999</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>28/05/2025</t>
+          <t>21/05/2025</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Queso Pategras Sandwich La Paulina Barra x 3,5 Kg</t>
+          <t>Chip de Chocolate Semiamargo (9641) Aguila Caja x 10 Kg</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>30173.08</v>
+        <v>56017.25</v>
       </c>
       <c r="E24" t="n">
-        <v>30173.08</v>
+        <v>56017.25</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Mince Bar S.A.S</t>
+          <t>Mojama SA</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1676,251 +1894,211 @@
         </is>
       </c>
       <c r="I24" t="n">
-        <v>30173.08</v>
+        <v>56017.25</v>
       </c>
       <c r="J24" t="n">
-        <v>30173.08</v>
+        <v>56017.25</v>
       </c>
       <c r="K24" t="n">
         <v>1</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Queso Pategras Sandwich La Paulina Barra x 3,5 Kg</t>
+          <t>Chip de Chocolate Semiamargo (9641) Aguila Caja x 10 Kg</t>
         </is>
       </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>30173,08</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>30173,08</t>
-        </is>
+      <c r="N24" t="n">
+        <v>56017.25</v>
+      </c>
+      <c r="O24" t="n">
+        <v>56017.25</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>28/05/2025</t>
+          <t>17/06/2025</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>Té Clásico Green Hills con sobre Pack (10 x 50 un)</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>18818.27</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>GRATTINADO</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Mayorista Net</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v/>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Té Clasico Green Hills con sobre Pack (10 x 50 un)</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
+        <v>6</v>
+      </c>
+      <c r="N25" t="n">
+        <v>18818.27</v>
+      </c>
+      <c r="O25" t="n">
+        <v>112909.62</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v/>
+      </c>
+      <c r="B26" t="n">
+        <v/>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v/>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v/>
+      </c>
+      <c r="G26" t="n">
+        <v/>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v/>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
           <t>Ketchup Hellmann's Sobres Caja (196 x 8 gr)</t>
         </is>
       </c>
-      <c r="C25" t="n">
-        <v>2</v>
-      </c>
-      <c r="D25" t="n">
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="n">
         <v>11401.56</v>
       </c>
-      <c r="E25" t="n">
-        <v>22803.12</v>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Mince Bar S.A.S</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
+      <c r="O26" t="n">
+        <v>34204.68</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v/>
+      </c>
+      <c r="B27" t="n">
+        <v/>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v/>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v/>
+      </c>
+      <c r="G27" t="n">
+        <v/>
+      </c>
+      <c r="H27" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
       </c>
-      <c r="I25" t="n">
-        <v>11401.56</v>
-      </c>
-      <c r="J25" t="n">
-        <v>22803.12</v>
-      </c>
-      <c r="K25" t="n">
-        <v>2</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>Ketchup Hellmann's Sobres Caja (196 x 8 gr)</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>2</v>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>11401,56</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>22803,12</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>28/05/2025</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Salsa de Chocolate Lheritter Pomo x 500 Grs</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>2</v>
-      </c>
-      <c r="D26" t="n">
-        <v>2318.76</v>
-      </c>
-      <c r="E26" t="n">
-        <v>4637.52</v>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Mince Bar S.A.S</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
-        <v>2318.76</v>
-      </c>
-      <c r="J26" t="n">
-        <v>4637.52</v>
-      </c>
-      <c r="K26" t="n">
-        <v>2</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>Salsa de Chocolate Lheritier Pomo x 500 Grs</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>2</v>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>2318,76</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>4637,52</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>28/05/2025</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Salsa de Dulce de Leche Lheritter Pomo x 500 Grs</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>2</v>
-      </c>
-      <c r="D27" t="n">
-        <v>2318.76</v>
-      </c>
-      <c r="E27" t="n">
-        <v>4637.52</v>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Mince Bar S.A.S</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
       <c r="I27" t="n">
-        <v>2318.76</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>4637.52</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>2</v>
+        <v/>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Salsa de Dulce de Leche Lheritier Pomo x 500 Grs</t>
+          <t>Mayonesa Hellmann's Sobres Caja (196 x 7.6 gr)</t>
         </is>
       </c>
       <c r="M27" t="n">
         <v>2</v>
       </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>2318,76</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>4637,52</t>
-        </is>
+      <c r="N27" t="n">
+        <v>11363.08</v>
+      </c>
+      <c r="O27" t="n">
+        <v>22726.16</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>28/05/2025</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Azucar Impalpable Talco Lesarisi Bolsa x 1 Kg</t>
-        </is>
+      <c r="A28" t="n">
+        <v/>
+      </c>
+      <c r="B28" t="n">
+        <v/>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>1533.1</v>
+        <v/>
       </c>
       <c r="E28" t="n">
-        <v>3066.2</v>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Mince Bar S.A.S</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v/>
+      </c>
+      <c r="G28" t="n">
+        <v/>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -1928,62 +2106,50 @@
         </is>
       </c>
       <c r="I28" t="n">
-        <v>1533.1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>3066.2</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>2</v>
+        <v/>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Azucar Impalpable Talco Lesansi Bolsa x 1 Kg</t>
+          <t>Atun al Natural Lomito Cumana Lata x 170 Grs</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>2</v>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>1533,10</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>3066,20</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="N28" t="n">
+        <v>1755.72</v>
+      </c>
+      <c r="O28" t="n">
+        <v>8778.6</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>28/05/2025</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Panko Blanco Nutripanko Bolsa x 1 Kg</t>
-        </is>
+      <c r="A29" t="n">
+        <v/>
+      </c>
+      <c r="B29" t="n">
+        <v/>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>6219.94</v>
+        <v/>
       </c>
       <c r="E29" t="n">
-        <v>12439.88</v>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Mince Bar S.A.S</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v/>
+      </c>
+      <c r="G29" t="n">
+        <v/>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1991,62 +2157,50 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>6219.94</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>12439.88</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>2</v>
+        <v/>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Panko Blanco Nutripanko Bolsa x 1 kg</t>
+          <t>Harina de Trigo 0000 Morixe Paquete (10 x 1 Kg)</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>2</v>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>6219,94</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>12439,88</t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="N29" t="n">
+        <v>8640.17</v>
+      </c>
+      <c r="O29" t="n">
+        <v>8640.17</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>20/05/2025</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Barritas de submarino Aguila Caja (24 x 14 gr)</t>
-        </is>
+      <c r="A30" t="n">
+        <v/>
+      </c>
+      <c r="B30" t="n">
+        <v/>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>GOURMAND S.A</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
+      <c r="F30" t="n">
+        <v/>
+      </c>
+      <c r="G30" t="n">
+        <v/>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -2059,55 +2213,45 @@
       <c r="J30" t="n">
         <v>0</v>
       </c>
+      <c r="K30" t="n">
+        <v/>
+      </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>20/05/2025</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>Barritas de submarino Aguila Caja (24 x 14 gr)</t>
-        </is>
+          <t>Papa McCain Crinkle (5 x 2.5 Kg) (06570)</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
+        <v>10</v>
       </c>
       <c r="N30" t="n">
-        <v>1</v>
+        <v>52127.51</v>
       </c>
       <c r="O30" t="n">
-        <v>14946.31</v>
-      </c>
-      <c r="P30" t="n">
-        <v>14946.31</v>
+        <v>521275.07</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>20/05/2025</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Queso Crema Milka ut Balde x 3.6 Kg</t>
-        </is>
+      <c r="A31" t="n">
+        <v/>
+      </c>
+      <c r="B31" t="n">
+        <v/>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>GOURMAND S.A</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
+      <c r="F31" t="n">
+        <v/>
+      </c>
+      <c r="G31" t="n">
+        <v/>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -2120,55 +2264,35 @@
       <c r="J31" t="n">
         <v>0</v>
       </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>20/05/2025</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>Queso Crema Milka ut Balde x 3.6 Kg</t>
-        </is>
-      </c>
-      <c r="N31" t="n">
-        <v>2</v>
-      </c>
-      <c r="O31" t="n">
-        <v>40698.53</v>
-      </c>
-      <c r="P31" t="n">
-        <v>81397.05</v>
-      </c>
+      <c r="K31" t="n">
+        <v/>
+      </c>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>20/05/2025</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Rebozador Preferido Bolsa x 5 Kg</t>
-        </is>
+      <c r="A32" t="n">
+        <v/>
+      </c>
+      <c r="B32" t="n">
+        <v/>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>GOURMAND S.A</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
+      <c r="F32" t="n">
+        <v/>
+      </c>
+      <c r="G32" t="n">
+        <v/>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -2181,55 +2305,35 @@
       <c r="J32" t="n">
         <v>0</v>
       </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>20/05/2025</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>Rebozador Preferido Bolsa x 5 Kg</t>
-        </is>
-      </c>
-      <c r="N32" t="n">
-        <v>1</v>
-      </c>
-      <c r="O32" t="n">
-        <v>8961.049999999999</v>
-      </c>
-      <c r="P32" t="n">
-        <v>8961.049999999999</v>
-      </c>
+      <c r="K32" t="n">
+        <v/>
+      </c>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>20/05/2025</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Barritas de submarino Aguila Caja (24 x 14 gr)</t>
-        </is>
+      <c r="A33" t="n">
+        <v/>
+      </c>
+      <c r="B33" t="n">
+        <v/>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>GOURMAND S.A</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
+      <c r="F33" t="n">
+        <v/>
+      </c>
+      <c r="G33" t="n">
+        <v/>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -2242,36 +2346,35 @@
       <c r="J33" t="n">
         <v>0</v>
       </c>
+      <c r="K33" t="n">
+        <v/>
+      </c>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>20/05/2025</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Queso Crema Milka ut Balde x 3.6 Kg</t>
-        </is>
+      <c r="A34" t="n">
+        <v/>
+      </c>
+      <c r="B34" t="n">
+        <v/>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>GOURMAND S.A</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
+      <c r="F34" t="n">
+        <v/>
+      </c>
+      <c r="G34" t="n">
+        <v/>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -2284,36 +2387,35 @@
       <c r="J34" t="n">
         <v>0</v>
       </c>
+      <c r="K34" t="n">
+        <v/>
+      </c>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>20/05/2025</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Rebozador Preferido Bolsa x 5 Kg</t>
-        </is>
+      <c r="A35" t="n">
+        <v/>
+      </c>
+      <c r="B35" t="n">
+        <v/>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>GOURMAND S.A</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
+      <c r="F35" t="n">
+        <v/>
+      </c>
+      <c r="G35" t="n">
+        <v/>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -2326,36 +2428,35 @@
       <c r="J35" t="n">
         <v>0</v>
       </c>
+      <c r="K35" t="n">
+        <v/>
+      </c>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>01/01/2025</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Levadura Prensada Virgen Calsa Pan x 500 Gr</t>
-        </is>
+      <c r="A36" t="n">
+        <v/>
+      </c>
+      <c r="B36" t="n">
+        <v/>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Rissolar Pilar S.A.</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
+      <c r="F36" t="n">
+        <v/>
+      </c>
+      <c r="G36" t="n">
+        <v/>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -2368,55 +2469,35 @@
       <c r="J36" t="n">
         <v>0</v>
       </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>01/01/2025</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>Levadura Prensada Virgen Calsa Pan x 500 Gr</t>
-        </is>
-      </c>
-      <c r="N36" t="n">
-        <v>2</v>
-      </c>
-      <c r="O36" t="n">
+      <c r="K36" t="n">
+        <v/>
+      </c>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v/>
+      </c>
+      <c r="B37" t="n">
+        <v/>
+      </c>
+      <c r="C37" t="n">
         <v>0</v>
       </c>
-      <c r="P36" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>01/01/2025</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Jamón Cocido Tradicional Campo Austral Pieza x 5 Kg</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>4.92</v>
-      </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Rissolar Pilar S.A.</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
+      <c r="F37" t="n">
+        <v/>
+      </c>
+      <c r="G37" t="n">
+        <v/>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -2429,55 +2510,35 @@
       <c r="J37" t="n">
         <v>0</v>
       </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>01/01/2025</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>Jamon Cocido Tradicional Campo Austral Pieza x 5 Kg</t>
-        </is>
-      </c>
-      <c r="N37" t="n">
-        <v>1</v>
-      </c>
-      <c r="O37" t="n">
+      <c r="K37" t="n">
+        <v/>
+      </c>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v/>
+      </c>
+      <c r="B38" t="n">
+        <v/>
+      </c>
+      <c r="C38" t="n">
         <v>0</v>
       </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>01/01/2025</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Queso Cheddar Fundido Milkaut Caja (2 x 3.5 Kg)</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>1</v>
-      </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Rissolar Pilar S.A.</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
+      <c r="F38" t="n">
+        <v/>
+      </c>
+      <c r="G38" t="n">
+        <v/>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -2490,55 +2551,35 @@
       <c r="J38" t="n">
         <v>0</v>
       </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>01/01/2025</t>
-        </is>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>Queso Cheddar Fundido Milkaut Caja (2 x 3.5 Kg)</t>
-        </is>
-      </c>
-      <c r="N38" t="n">
-        <v>1</v>
-      </c>
-      <c r="O38" t="n">
+      <c r="K38" t="n">
+        <v/>
+      </c>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v/>
+      </c>
+      <c r="B39" t="n">
+        <v/>
+      </c>
+      <c r="C39" t="n">
         <v>0</v>
       </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>01/01/2025</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Queso Criña Milkaut Balde x 3.6 Kg</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>1</v>
-      </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Rissolar Pilar S.A.</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
+      <c r="F39" t="n">
+        <v/>
+      </c>
+      <c r="G39" t="n">
+        <v/>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -2551,55 +2592,35 @@
       <c r="J39" t="n">
         <v>0</v>
       </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>01/01/2025</t>
-        </is>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>Queso Crema Milka ut Balde x 3.6 Kg</t>
-        </is>
-      </c>
-      <c r="N39" t="n">
-        <v>1</v>
-      </c>
-      <c r="O39" t="n">
+      <c r="K39" t="n">
+        <v/>
+      </c>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v/>
+      </c>
+      <c r="B40" t="n">
+        <v/>
+      </c>
+      <c r="C40" t="n">
         <v>0</v>
       </c>
-      <c r="P39" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>01/01/2025</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Panceta Ahumada Campo Austral Pieza x 2.2 Kg Aprox</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>11.51</v>
-      </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Rissolar Pilar S.A.</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
+      <c r="F40" t="n">
+        <v/>
+      </c>
+      <c r="G40" t="n">
+        <v/>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -2612,55 +2633,35 @@
       <c r="J40" t="n">
         <v>0</v>
       </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>01/01/2025</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>Panceta Ahumada Campo Austral Pieza x 2.2 Yo Aprox</t>
-        </is>
-      </c>
-      <c r="N40" t="n">
-        <v>6</v>
-      </c>
-      <c r="O40" t="n">
+      <c r="K40" t="n">
+        <v/>
+      </c>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v/>
+      </c>
+      <c r="B41" t="n">
+        <v/>
+      </c>
+      <c r="C41" t="n">
         <v>0</v>
       </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>01/01/2025</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Pan Rallado Preferido Bolsa x 5 Kg</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>2</v>
-      </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Rissolar Pilar S.A.</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
+      <c r="F41" t="n">
+        <v/>
+      </c>
+      <c r="G41" t="n">
+        <v/>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -2673,55 +2674,35 @@
       <c r="J41" t="n">
         <v>0</v>
       </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>01/01/2025</t>
-        </is>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>Pan Rallado Preferido Bolsa x 5 Kg</t>
-        </is>
-      </c>
-      <c r="N41" t="n">
-        <v>2</v>
-      </c>
-      <c r="O41" t="n">
+      <c r="K41" t="n">
+        <v/>
+      </c>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v/>
+      </c>
+      <c r="B42" t="n">
+        <v/>
+      </c>
+      <c r="C42" t="n">
         <v>0</v>
       </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>01/01/2025</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Galletitas Chocolipas Bagley Caja (25 x 250 Grs)</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>1</v>
-      </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Rissolar Pilar S.A.</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
+      <c r="F42" t="n">
+        <v/>
+      </c>
+      <c r="G42" t="n">
+        <v/>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -2734,55 +2715,35 @@
       <c r="J42" t="n">
         <v>0</v>
       </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>01/01/2025</t>
-        </is>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>Galietitas Chocolinas Bagley Caja (25 x 250 Grs)</t>
-        </is>
-      </c>
-      <c r="N42" t="n">
-        <v>1</v>
-      </c>
-      <c r="O42" t="n">
+      <c r="K42" t="n">
+        <v/>
+      </c>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v/>
+      </c>
+      <c r="B43" t="n">
+        <v/>
+      </c>
+      <c r="C43" t="n">
         <v>0</v>
       </c>
-      <c r="P42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>01/01/2025</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Cafe Soluble Arlistan Pack (12 x 170 Grs)</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>1</v>
-      </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Rissolar Pilar S.A.</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
+      <c r="F43" t="n">
+        <v/>
+      </c>
+      <c r="G43" t="n">
+        <v/>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -2795,55 +2756,35 @@
       <c r="J43" t="n">
         <v>0</v>
       </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>01/01/2025</t>
-        </is>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>Cafe Soluble Arlistan Pack (12 x 170 Grs)</t>
-        </is>
-      </c>
-      <c r="N43" t="n">
-        <v>1</v>
-      </c>
-      <c r="O43" t="n">
+      <c r="K43" t="n">
+        <v/>
+      </c>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v/>
+      </c>
+      <c r="B44" t="n">
+        <v/>
+      </c>
+      <c r="C44" t="n">
         <v>0</v>
       </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>01/01/2025</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Tomate Perita Cumana Lata x 2.93 Kg</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>6</v>
-      </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Rissolar Pilar S.A.</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
+      <c r="F44" t="n">
+        <v/>
+      </c>
+      <c r="G44" t="n">
+        <v/>
       </c>
       <c r="H44" t="inlineStr">
         <is>
@@ -2856,55 +2797,35 @@
       <c r="J44" t="n">
         <v>0</v>
       </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>01/01/2025</t>
-        </is>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>Tomate Perita Cumana Lata x 2.93 Kg</t>
-        </is>
-      </c>
-      <c r="N44" t="n">
-        <v>6</v>
-      </c>
-      <c r="O44" t="n">
+      <c r="K44" t="n">
+        <v/>
+      </c>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v/>
+      </c>
+      <c r="B45" t="n">
+        <v/>
+      </c>
+      <c r="C45" t="n">
         <v>0</v>
       </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>01/01/2025</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Hanna de Trigo 0000 Cañuelas Bolsa x 25 Kg</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>2</v>
-      </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Rissolar Pilar S.A.</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
+      <c r="F45" t="n">
+        <v/>
+      </c>
+      <c r="G45" t="n">
+        <v/>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -2917,55 +2838,35 @@
       <c r="J45" t="n">
         <v>0</v>
       </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>01/01/2025</t>
-        </is>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>Harina de Trigo 0000 Cañuelas Bolsa x 25 Kg</t>
-        </is>
-      </c>
-      <c r="N45" t="n">
-        <v>2</v>
-      </c>
-      <c r="O45" t="n">
+      <c r="K45" t="n">
+        <v/>
+      </c>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v/>
+      </c>
+      <c r="B46" t="n">
+        <v/>
+      </c>
+      <c r="C46" t="n">
         <v>0</v>
       </c>
-      <c r="P45" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>01/01/2025</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Fideos Spaghetti Nº7 Lucchetti Paquete (20 x 300 Grs)</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>1</v>
-      </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Rissolar Pilar S.A.</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
+      <c r="F46" t="n">
+        <v/>
+      </c>
+      <c r="G46" t="n">
+        <v/>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -2978,55 +2879,35 @@
       <c r="J46" t="n">
         <v>0</v>
       </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>01/01/2025</t>
-        </is>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>Fideos Spaghetti No7 Lucchetti Paquete (20 x 500 Grs)</t>
-        </is>
-      </c>
-      <c r="N46" t="n">
-        <v>1</v>
-      </c>
-      <c r="O46" t="n">
+      <c r="K46" t="n">
+        <v/>
+      </c>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v/>
+      </c>
+      <c r="B47" t="n">
+        <v/>
+      </c>
+      <c r="C47" t="n">
         <v>0</v>
       </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>01/01/2025</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Sal Fina Dos Anclas Paquete (12 x 500 Grs)</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>1</v>
-      </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E47" t="n">
         <v>0</v>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Rissolar Pilar S.A.</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
+      <c r="F47" t="n">
+        <v/>
+      </c>
+      <c r="G47" t="n">
+        <v/>
       </c>
       <c r="H47" t="inlineStr">
         <is>
@@ -3039,55 +2920,35 @@
       <c r="J47" t="n">
         <v>0</v>
       </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>01/01/2025</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>Sal Fina Dos Anclas Paquete (12 x 500 Gis)</t>
-        </is>
-      </c>
-      <c r="N47" t="n">
-        <v>1</v>
-      </c>
-      <c r="O47" t="n">
+      <c r="K47" t="n">
+        <v/>
+      </c>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v/>
+      </c>
+      <c r="B48" t="n">
+        <v/>
+      </c>
+      <c r="C48" t="n">
         <v>0</v>
       </c>
-      <c r="P47" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>01/01/2025</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Caldo de Verdura Granulado Knorr Caja (6 x 650 Grs)</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>1</v>
-      </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E48" t="n">
         <v>0</v>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Rissolar Pilar S.A.</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
+      <c r="F48" t="n">
+        <v/>
+      </c>
+      <c r="G48" t="n">
+        <v/>
       </c>
       <c r="H48" t="inlineStr">
         <is>
@@ -3100,55 +2961,35 @@
       <c r="J48" t="n">
         <v>0</v>
       </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>01/01/2025</t>
-        </is>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>Caldo de Verdura Granulado Knorr Caja (6 x 650 Gr)</t>
-        </is>
-      </c>
-      <c r="N48" t="n">
-        <v>1</v>
-      </c>
-      <c r="O48" t="n">
+      <c r="K48" t="n">
+        <v/>
+      </c>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v/>
+      </c>
+      <c r="B49" t="n">
+        <v/>
+      </c>
+      <c r="C49" t="n">
         <v>0</v>
       </c>
-      <c r="P48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>01/01/2025</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Aceite Alto Oleico Vero Caja (2 x 10 Lts)</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>3</v>
-      </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E49" t="n">
         <v>0</v>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Rissolar Pilar S.A.</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
+      <c r="F49" t="n">
+        <v/>
+      </c>
+      <c r="G49" t="n">
+        <v/>
       </c>
       <c r="H49" t="inlineStr">
         <is>
@@ -3161,55 +3002,35 @@
       <c r="J49" t="n">
         <v>0</v>
       </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>01/01/2025</t>
-        </is>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>Aceite Alto Oleico Vero Caja (2 x 10 Lts)</t>
-        </is>
-      </c>
-      <c r="N49" t="n">
-        <v>3</v>
-      </c>
-      <c r="O49" t="n">
+      <c r="K49" t="n">
+        <v/>
+      </c>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v/>
+      </c>
+      <c r="B50" t="n">
+        <v/>
+      </c>
+      <c r="C50" t="n">
         <v>0</v>
       </c>
-      <c r="P49" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>01/01/2025</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Salsa Demi Glace Safra Bolsa x 480 Grs</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>2</v>
-      </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E50" t="n">
         <v>0</v>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Rissolar Pilar S.A.</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
+      <c r="F50" t="n">
+        <v/>
+      </c>
+      <c r="G50" t="n">
+        <v/>
       </c>
       <c r="H50" t="inlineStr">
         <is>
@@ -3222,55 +3043,35 @@
       <c r="J50" t="n">
         <v>0</v>
       </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>01/01/2025</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>Salsa Demi-Glace Safra Bolsa x 480 Grs</t>
-        </is>
-      </c>
-      <c r="N50" t="n">
-        <v>2</v>
-      </c>
-      <c r="O50" t="n">
+      <c r="K50" t="n">
+        <v/>
+      </c>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v/>
+      </c>
+      <c r="B51" t="n">
+        <v/>
+      </c>
+      <c r="C51" t="n">
         <v>0</v>
       </c>
-      <c r="P50" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>01/01/2025</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Nueces Mariposas Extra Light Cumana Bolsa x 1 Kg</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>1</v>
-      </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E51" t="n">
         <v>0</v>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Rissolar Pilar S.A.</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
+      <c r="F51" t="n">
+        <v/>
+      </c>
+      <c r="G51" t="n">
+        <v/>
       </c>
       <c r="H51" t="inlineStr">
         <is>
@@ -3283,55 +3084,35 @@
       <c r="J51" t="n">
         <v>0</v>
       </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>01/01/2025</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>Nueces Mariposas Extra Light Cumana Bolsa x 1 Kg.</t>
-        </is>
-      </c>
-      <c r="N51" t="n">
-        <v>1</v>
-      </c>
-      <c r="O51" t="n">
+      <c r="K51" t="n">
+        <v/>
+      </c>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v/>
+      </c>
+      <c r="B52" t="n">
+        <v/>
+      </c>
+      <c r="C52" t="n">
         <v>0</v>
       </c>
-      <c r="P51" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>01/01/2025</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Papa McCain Tradicional (6 x 2.5 Kg) (A11109)x</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>8</v>
-      </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E52" t="n">
         <v>0</v>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Rissolar Pilar S.A.</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
+      <c r="F52" t="n">
+        <v/>
+      </c>
+      <c r="G52" t="n">
+        <v/>
       </c>
       <c r="H52" t="inlineStr">
         <is>
@@ -3344,55 +3125,35 @@
       <c r="J52" t="n">
         <v>0</v>
       </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>01/01/2025</t>
-        </is>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>Papa McCain Tradicional (6 x 2.5 Kg) (A11109)x</t>
-        </is>
-      </c>
-      <c r="N52" t="n">
-        <v>8</v>
-      </c>
-      <c r="O52" t="n">
+      <c r="K52" t="n">
+        <v/>
+      </c>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v/>
+      </c>
+      <c r="B53" t="n">
+        <v/>
+      </c>
+      <c r="C53" t="n">
         <v>0</v>
       </c>
-      <c r="P52" t="n">
+      <c r="D53" t="n">
+        <v/>
+      </c>
+      <c r="E53" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>28/05/2025</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Cobertura de Chocolate Negro Amargo (87) Fenix Bolsa x 2,5 Kg</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>1</v>
-      </c>
-      <c r="D53" t="n">
-        <v>82945.66</v>
-      </c>
-      <c r="E53" t="n">
-        <v>82945.66</v>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Mince Bar S.A.S</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
+      <c r="F53" t="n">
+        <v/>
+      </c>
+      <c r="G53" t="n">
+        <v/>
       </c>
       <c r="H53" t="inlineStr">
         <is>
@@ -3400,63 +3161,40 @@
         </is>
       </c>
       <c r="I53" t="n">
-        <v>82945.66</v>
+        <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>82945.66</v>
+        <v>0</v>
       </c>
       <c r="K53" t="n">
-        <v>1</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>28/05/2025</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>Cobertura de Chocolate Negro Amargo (87) Fenix Bolsa x 2.5 Kg</t>
-        </is>
-      </c>
-      <c r="N53" t="n">
-        <v>1</v>
-      </c>
-      <c r="O53" t="n">
-        <v>82945.66</v>
-      </c>
-      <c r="P53" t="n">
-        <v>82945.66</v>
-      </c>
+        <v/>
+      </c>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>28/05/2025</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Crema de Leche (44%) Milkaut Balde 5 itríos</t>
-        </is>
+      <c r="A54" t="n">
+        <v/>
+      </c>
+      <c r="B54" t="n">
+        <v/>
       </c>
       <c r="C54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>43401.18</v>
+        <v/>
       </c>
       <c r="E54" t="n">
-        <v>43401.18</v>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Mince Bar S.A.S</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v/>
+      </c>
+      <c r="G54" t="n">
+        <v/>
       </c>
       <c r="H54" t="inlineStr">
         <is>
@@ -3464,63 +3202,40 @@
         </is>
       </c>
       <c r="I54" t="n">
-        <v>43401.18</v>
+        <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>43401.18</v>
+        <v>0</v>
       </c>
       <c r="K54" t="n">
-        <v>1</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>28/05/2025</t>
-        </is>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>Crema de Leche (44%) Milkaut Balde 5 litros.</t>
-        </is>
-      </c>
-      <c r="N54" t="n">
-        <v>1</v>
-      </c>
-      <c r="O54" t="n">
-        <v>43401.18</v>
-      </c>
-      <c r="P54" t="n">
-        <v>43401.18</v>
-      </c>
+        <v/>
+      </c>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>28/05/2025</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Queso Pategras Sandwich La Paulina Barra x 3,5 Kg</t>
-        </is>
+      <c r="A55" t="n">
+        <v/>
+      </c>
+      <c r="B55" t="n">
+        <v/>
       </c>
       <c r="C55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>30173.08</v>
+        <v/>
       </c>
       <c r="E55" t="n">
-        <v>30173.08</v>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Mince Bar S.A.S</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v/>
+      </c>
+      <c r="G55" t="n">
+        <v/>
       </c>
       <c r="H55" t="inlineStr">
         <is>
@@ -3528,63 +3243,40 @@
         </is>
       </c>
       <c r="I55" t="n">
-        <v>30173.08</v>
+        <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>30173.08</v>
+        <v>0</v>
       </c>
       <c r="K55" t="n">
-        <v>1</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>28/05/2025</t>
-        </is>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>Queso Pategras Sandwich La Paulina Barra x 3,5-Kg</t>
-        </is>
-      </c>
-      <c r="N55" t="n">
-        <v>1</v>
-      </c>
-      <c r="O55" t="n">
-        <v>30173.08</v>
-      </c>
-      <c r="P55" t="n">
-        <v>30173.08</v>
-      </c>
+        <v/>
+      </c>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>28/05/2025</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Ketchup Hellmann's Sobres Caja (196 x 8 gr)</t>
-        </is>
+      <c r="A56" t="n">
+        <v/>
+      </c>
+      <c r="B56" t="n">
+        <v/>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>11401.56</v>
+        <v/>
       </c>
       <c r="E56" t="n">
-        <v>22803.12</v>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Mince Bar S.A.S</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v/>
+      </c>
+      <c r="G56" t="n">
+        <v/>
       </c>
       <c r="H56" t="inlineStr">
         <is>
@@ -3592,63 +3284,40 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>11401.56</v>
+        <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>22803.12</v>
+        <v>0</v>
       </c>
       <c r="K56" t="n">
-        <v>2</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>28/05/2025</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>Ketchup Hellmann's Sobres Caja (196 x 8 gr)</t>
-        </is>
-      </c>
-      <c r="N56" t="n">
-        <v>2</v>
-      </c>
-      <c r="O56" t="n">
-        <v>11401.56</v>
-      </c>
-      <c r="P56" t="n">
-        <v>22803.12</v>
-      </c>
+        <v/>
+      </c>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>28/05/2025</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Salsa de Chocolate Lheritter Pomo x 500 Grs</t>
-        </is>
+      <c r="A57" t="n">
+        <v/>
+      </c>
+      <c r="B57" t="n">
+        <v/>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>2318.76</v>
+        <v/>
       </c>
       <c r="E57" t="n">
-        <v>4637.52</v>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Mince Bar S.A.S</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v/>
+      </c>
+      <c r="G57" t="n">
+        <v/>
       </c>
       <c r="H57" t="inlineStr">
         <is>
@@ -3656,63 +3325,40 @@
         </is>
       </c>
       <c r="I57" t="n">
-        <v>2318.76</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>4637.52</v>
+        <v>0</v>
       </c>
       <c r="K57" t="n">
-        <v>2</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>28/05/2025</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>Salsa de Chocolate Lheritier Pomo x 500 Grs</t>
-        </is>
-      </c>
-      <c r="N57" t="n">
-        <v>2</v>
-      </c>
-      <c r="O57" t="n">
-        <v>2318.76</v>
-      </c>
-      <c r="P57" t="n">
-        <v>4637.52</v>
-      </c>
+        <v/>
+      </c>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>28/05/2025</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Salsa de Dulce de Leche Lheritter Pomo x 500 Grs</t>
-        </is>
+      <c r="A58" t="n">
+        <v/>
+      </c>
+      <c r="B58" t="n">
+        <v/>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>2318.76</v>
+        <v/>
       </c>
       <c r="E58" t="n">
-        <v>4637.52</v>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Mince Bar S.A.S</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v/>
+      </c>
+      <c r="G58" t="n">
+        <v/>
       </c>
       <c r="H58" t="inlineStr">
         <is>
@@ -3720,63 +3366,40 @@
         </is>
       </c>
       <c r="I58" t="n">
-        <v>2318.76</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>4637.52</v>
+        <v>0</v>
       </c>
       <c r="K58" t="n">
-        <v>2</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>28/05/2025</t>
-        </is>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>Salsa de Dulce de Leche Lheritier Pomo x 500 Grs</t>
-        </is>
-      </c>
-      <c r="N58" t="n">
-        <v>2</v>
-      </c>
-      <c r="O58" t="n">
-        <v>2318.76</v>
-      </c>
-      <c r="P58" t="n">
-        <v>4637.52</v>
-      </c>
+        <v/>
+      </c>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>28/05/2025</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Azucar Impalpable Talco Lesarisi Bolsa x 1 Kg</t>
-        </is>
+      <c r="A59" t="n">
+        <v/>
+      </c>
+      <c r="B59" t="n">
+        <v/>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>1533.1</v>
+        <v/>
       </c>
       <c r="E59" t="n">
-        <v>3066.2</v>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Mince Bar S.A.S</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v/>
+      </c>
+      <c r="G59" t="n">
+        <v/>
       </c>
       <c r="H59" t="inlineStr">
         <is>
@@ -3784,63 +3407,40 @@
         </is>
       </c>
       <c r="I59" t="n">
-        <v>1533.1</v>
+        <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>3066.2</v>
+        <v>0</v>
       </c>
       <c r="K59" t="n">
-        <v>2</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>28/05/2025</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>Azucar Impalpable Talco Lesansi Bolsa x 1 Kg</t>
-        </is>
-      </c>
-      <c r="N59" t="n">
-        <v>2</v>
-      </c>
-      <c r="O59" t="n">
-        <v>1533.1</v>
-      </c>
-      <c r="P59" t="n">
-        <v>3066.2</v>
-      </c>
+        <v/>
+      </c>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr"/>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>28/05/2025</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Panko Blanco Nutripanko Bolsa x 1 Kg</t>
-        </is>
+      <c r="A60" t="n">
+        <v/>
+      </c>
+      <c r="B60" t="n">
+        <v/>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>6219.94</v>
+        <v/>
       </c>
       <c r="E60" t="n">
-        <v>12439.88</v>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Mince Bar S.A.S</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
+        <v/>
+      </c>
+      <c r="G60" t="n">
+        <v/>
       </c>
       <c r="H60" t="inlineStr">
         <is>
@@ -3848,63 +3448,40 @@
         </is>
       </c>
       <c r="I60" t="n">
-        <v>6219.94</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>12439.88</v>
+        <v>0</v>
       </c>
       <c r="K60" t="n">
-        <v>2</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>28/05/2025</t>
-        </is>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>Panko Blanco Nutripanko Bolsa x 1 kg</t>
-        </is>
-      </c>
-      <c r="N60" t="n">
-        <v>2</v>
-      </c>
-      <c r="O60" t="n">
-        <v>6219.94</v>
-      </c>
-      <c r="P60" t="n">
-        <v>12439.88</v>
-      </c>
+        <v/>
+      </c>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr"/>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>29/05/2025</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Barritas de submarino Aguila Caja (24 x 14 gr)</t>
-        </is>
+      <c r="A61" t="n">
+        <v/>
+      </c>
+      <c r="B61" t="n">
+        <v/>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>14946.31</v>
+        <v/>
       </c>
       <c r="E61" t="n">
-        <v>14946.31</v>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>GOURMAND S.A</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
+        <v/>
+      </c>
+      <c r="G61" t="n">
+        <v/>
       </c>
       <c r="H61" t="inlineStr">
         <is>
@@ -3912,53 +3489,42 @@
         </is>
       </c>
       <c r="I61" t="n">
-        <v>14946.31</v>
+        <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>14946.31</v>
+        <v>0</v>
       </c>
       <c r="K61" t="n">
-        <v>1</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>Barritas de submarino Aguila Caja (24 x 14 gr)</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>14946,31</t>
-        </is>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>14946,31</t>
-        </is>
-      </c>
+        <v/>
+      </c>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>29/05/2025</t>
+          <t>13/06/2025</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Queso Crema Milka ut Balde x 3.6 Kg</t>
+          <t>Queso Mozzarella La Paulina Barra x 3,5 Kg ($ x unidad)</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="D62" t="n">
+        <v>24999.99</v>
       </c>
       <c r="E62" t="n">
-        <v>0</v>
+        <v>74999.97</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>GOURMAND S.A</t>
+          <t>Rabble S.A</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -3972,53 +3538,52 @@
         </is>
       </c>
       <c r="I62" t="n">
-        <v>40698.53</v>
+        <v>24999.99</v>
       </c>
       <c r="J62" t="n">
-        <v>0</v>
+        <v>74999.97</v>
+      </c>
+      <c r="K62" t="n">
+        <v>3</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Queso Crema Milka ut Balde x 3.6 Kg</t>
+          <t>Queso Mozzarella La Paulina Barra x 3,5 Kg</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>2</v>
-      </c>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>40698,53</t>
-        </is>
-      </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>81397,05</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="N62" t="n">
+        <v>24999.99</v>
+      </c>
+      <c r="O62" t="n">
+        <v>74999.96000000001</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>29/05/2025</t>
+          <t>13/06/2025</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Rebozador Preferido Bolsa x 5 Kg</t>
+          <t>Pan Rallado Preferido Bolsa x 5 Kg</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>8961.049999999999</v>
       </c>
       <c r="E63" t="n">
         <v>8961.049999999999</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>GOURMAND S.A</t>
+          <t>Rabble S.A</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -4028,57 +3593,56 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Diferencia de Precio</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="I63" t="n">
         <v>8961.049999999999</v>
       </c>
       <c r="J63" t="n">
-        <v>0</v>
+        <v>8961.049999999999</v>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Rebozador Preferido Bolsa x 5 Kg</t>
+          <t>Pan Rallado Preferido Bolsa x 5 Kg</t>
         </is>
       </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>8961,05</t>
-        </is>
-      </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t>8961,05</t>
-        </is>
+      <c r="N63" t="n">
+        <v>8961.049999999999</v>
+      </c>
+      <c r="O63" t="n">
+        <v>8961.049999999999</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>01/01/2025</t>
+          <t>13/06/2025</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Levadura Prensada Virgen Calsa Pan x 500 Gr</t>
+          <t>Harina de Trigo 0000 Chacabuco Bolsa x 25 Kg</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D64" t="n">
-        <v>3537.26</v>
+        <v>17435.43</v>
       </c>
       <c r="E64" t="n">
-        <v>7074.52</v>
+        <v>17435.43</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Rissolar Pilar S.A.</t>
+          <t>Rabble S.A</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -4092,56 +3656,52 @@
         </is>
       </c>
       <c r="I64" t="n">
-        <v>3537.26</v>
+        <v>17435.43</v>
       </c>
       <c r="J64" t="n">
-        <v>7074.52</v>
+        <v>17435.43</v>
       </c>
       <c r="K64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Levadura Prensada Virgen Calsa Pan x 500 Gr</t>
+          <t>Harina de Trigo 0000 Chacabuco Bolsa x 25 Kg</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>2</v>
-      </c>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>3.537,26</t>
-        </is>
-      </c>
-      <c r="O64" t="inlineStr">
-        <is>
-          <t>7.074,52</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="N64" t="n">
+        <v>17435.43</v>
+      </c>
+      <c r="O64" t="n">
+        <v>17435.43</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>01/01/2025</t>
+          <t>13/06/2025</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Jamón Cocido Tradicional Campo Austral Pieza x 5 Kg</t>
+          <t>Harina de Trigo 0000 Chacabuco Bolsa x 25 Kg</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4.92</v>
+        <v>1</v>
       </c>
       <c r="D65" t="n">
-        <v>10371.05</v>
+        <v>14329.53</v>
       </c>
       <c r="E65" t="n">
-        <v>51025.57</v>
+        <v>14329.53</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Rissolar Pilar S.A.</t>
+          <t>Rabble S.A</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -4151,60 +3711,56 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Diferencia de Precio</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>10364.73</v>
+        <v>14329.53</v>
       </c>
       <c r="J65" t="n">
-        <v>50994.47</v>
+        <v>14329.53</v>
       </c>
       <c r="K65" t="n">
-        <v>4.92</v>
+        <v>1</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Jamon Cocido Tradicional Campo Austral Pieza x 5 Kg</t>
+          <t>Harina de Trigo 000 Chacabuco Bolsa x 25 Kg</t>
         </is>
       </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>59.358,44</t>
-        </is>
-      </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>59.358,44</t>
-        </is>
+      <c r="N65" t="n">
+        <v>14329.53</v>
+      </c>
+      <c r="O65" t="n">
+        <v>14329.53</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>01/01/2025</t>
+          <t>13/06/2025</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Queso Cheddar Fundido Milkaut Caja (2 x 3.5 Kg)</t>
+          <t>Pasta de Maní Oddi's Frasco x 350 Gr</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
-        <v>59358.44</v>
+        <v>3066.7</v>
       </c>
       <c r="E66" t="n">
-        <v>59358.44</v>
+        <v>15333.5</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Rissolar Pilar S.A.</t>
+          <t>Rabble S.A</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -4218,56 +3774,52 @@
         </is>
       </c>
       <c r="I66" t="n">
-        <v>59358.44</v>
+        <v>3066.7</v>
       </c>
       <c r="J66" t="n">
-        <v>59358.44</v>
+        <v>15333.5</v>
       </c>
       <c r="K66" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Queso Cheddar Fundido Milkaut Caja (2 x 3.5 Kg)</t>
+          <t>Pasta de Mani Oddi's Frasco x 350 Gr</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>40.698,53</t>
-        </is>
-      </c>
-      <c r="O66" t="inlineStr">
-        <is>
-          <t>40.698,53</t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="N66" t="n">
+        <v>3066.7</v>
+      </c>
+      <c r="O66" t="n">
+        <v>15333.5</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>01/01/2025</t>
+          <t>28/05/2025</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Queso Criña Milkaut Balde x 3.6 Kg</t>
+          <t>Cobertura de Chocolate Negro Amargo (87) Fenix Bolsa x 2,5 Kg</t>
         </is>
       </c>
       <c r="C67" t="n">
         <v>1</v>
       </c>
       <c r="D67" t="n">
-        <v>40698.53</v>
+        <v>82945.66</v>
       </c>
       <c r="E67" t="n">
-        <v>40698.53</v>
+        <v>82945.66</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Rissolar Pilar S.A.</t>
+          <t>Mince Bar S.A.S</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -4281,56 +3833,52 @@
         </is>
       </c>
       <c r="I67" t="n">
-        <v>40698.53</v>
+        <v>82945.66</v>
       </c>
       <c r="J67" t="n">
-        <v>40698.53</v>
+        <v>82945.66</v>
       </c>
       <c r="K67" t="n">
         <v>1</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Queso Crema Milka ut Balde x 3.6 Kg</t>
+          <t>Cobertura de Chocolate Negro Amargo (87) Fenix Bolsa x 2.5 Kg</t>
         </is>
       </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>59.358,44</t>
-        </is>
-      </c>
-      <c r="O67" t="inlineStr">
-        <is>
-          <t>59.358,44</t>
-        </is>
+      <c r="N67" t="n">
+        <v>82945.66</v>
+      </c>
+      <c r="O67" t="n">
+        <v>82945.66</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>01/01/2025</t>
+          <t>28/05/2025</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Panceta Ahumada Campo Austral Pieza x 2.2 Kg Aprox</t>
+          <t>Crema de Leche (44%) Milkaut Balde 5 itríos</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>11.51</v>
+        <v>1</v>
       </c>
       <c r="D68" t="n">
-        <v>13521.75</v>
+        <v>43401.18</v>
       </c>
       <c r="E68" t="n">
-        <v>155635.38</v>
+        <v>43401.18</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Rissolar Pilar S.A.</t>
+          <t>Mince Bar S.A.S</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -4340,60 +3888,56 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Diferencia de Precio</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>13527.63</v>
+        <v>43401.18</v>
       </c>
       <c r="J68" t="n">
-        <v>155703.02</v>
+        <v>43401.18</v>
       </c>
       <c r="K68" t="n">
-        <v>11.51</v>
+        <v>1</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Panceta Ahumada Campo Austral Pieza x 2.2 Yo Aprox</t>
+          <t>Crema de Leche (44%) Milkaut Balde 5 litros.</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>6</v>
-      </c>
-      <c r="N68" t="inlineStr">
-        <is>
-          <t>13.527,63</t>
-        </is>
-      </c>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>155.635,38</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="N68" t="n">
+        <v>43401.18</v>
+      </c>
+      <c r="O68" t="n">
+        <v>43401.18</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>01/01/2025</t>
+          <t>28/05/2025</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Pan Rallado Preferido Bolsa x 5 Kg</t>
+          <t>Queso Pategras Sandwich La Paulina Barra x 3,5 Kg</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>8961.049999999999</v>
+        <v>30173.08</v>
       </c>
       <c r="E69" t="n">
-        <v>17922.1</v>
+        <v>30173.08</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Rissolar Pilar S.A.</t>
+          <t>Mince Bar S.A.S</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -4407,56 +3951,52 @@
         </is>
       </c>
       <c r="I69" t="n">
-        <v>8961.049999999999</v>
+        <v>30173.08</v>
       </c>
       <c r="J69" t="n">
-        <v>17922.1</v>
+        <v>30173.08</v>
       </c>
       <c r="K69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Pan Rallado Preferido Bolsa x 5 Kg</t>
+          <t>Queso Pategras Sandwich La Paulina Barra x 3,5 Kg</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>2</v>
-      </c>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>8.961,05</t>
-        </is>
-      </c>
-      <c r="O69" t="inlineStr">
-        <is>
-          <t>17.922,10</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="N69" t="n">
+        <v>30173.08</v>
+      </c>
+      <c r="O69" t="n">
+        <v>30173.08</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>01/01/2025</t>
+          <t>28/05/2025</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Galletitas Chocolipas Bagley Caja (25 x 250 Grs)</t>
+          <t>Ketchup Hellmann's Sobres Caja (196 x 8 gr)</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
-        <v>37120.66</v>
+        <v>11401.56</v>
       </c>
       <c r="E70" t="n">
-        <v>37120.66</v>
+        <v>22803.12</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Rissolar Pilar S.A.</t>
+          <t>Mince Bar S.A.S</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -4470,56 +4010,52 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>37120.66</v>
+        <v>11401.56</v>
       </c>
       <c r="J70" t="n">
-        <v>37120.66</v>
+        <v>22803.12</v>
       </c>
       <c r="K70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Galietitas Chocolinas Bagley Caja (25 x 250 Grs)</t>
+          <t>Ketchup Hellmann's Sobres Caja (196 x 8 gr)</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>37.120,66</t>
-        </is>
-      </c>
-      <c r="O70" t="inlineStr">
-        <is>
-          <t>37.120,66</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="N70" t="n">
+        <v>11401.56</v>
+      </c>
+      <c r="O70" t="n">
+        <v>22803.12</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>01/01/2025</t>
+          <t>28/05/2025</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Cafe Soluble Arlistan Pack (12 x 170 Grs)</t>
+          <t>Salsa de Chocolate Lheritter Pomo x 500 Grs</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
-        <v>62188.07</v>
+        <v>2318.76</v>
       </c>
       <c r="E71" t="n">
-        <v>62188.07</v>
+        <v>4637.52</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Rissolar Pilar S.A.</t>
+          <t>Mince Bar S.A.S</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -4533,56 +4069,52 @@
         </is>
       </c>
       <c r="I71" t="n">
-        <v>62188.07</v>
+        <v>2318.76</v>
       </c>
       <c r="J71" t="n">
-        <v>62188.07</v>
+        <v>4637.52</v>
       </c>
       <c r="K71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Cafe Soluble Arlistan Pack (12 x 170 Grs)</t>
+          <t>Salsa de Chocolate Lheritier Pomo x 500 Grs</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>62.188,07</t>
-        </is>
-      </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t>62.188,07</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="N71" t="n">
+        <v>2318.76</v>
+      </c>
+      <c r="O71" t="n">
+        <v>4637.52</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>01/01/2025</t>
+          <t>28/05/2025</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Tomate Perita Cumana Lata x 2.93 Kg</t>
+          <t>Salsa de Dulce de Leche Lheritter Pomo x 500 Grs</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
-        <v>6387.35</v>
+        <v>2318.76</v>
       </c>
       <c r="E72" t="n">
-        <v>38324.1</v>
+        <v>4637.52</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Rissolar Pilar S.A.</t>
+          <t>Mince Bar S.A.S</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -4596,56 +4128,52 @@
         </is>
       </c>
       <c r="I72" t="n">
-        <v>6387.35</v>
+        <v>2318.76</v>
       </c>
       <c r="J72" t="n">
-        <v>38324.1</v>
+        <v>4637.52</v>
       </c>
       <c r="K72" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>Tomate Perita Cumana Lata x 2.93 Kg</t>
+          <t>Salsa de Dulce de Leche Lheritier Pomo x 500 Grs</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>6</v>
-      </c>
-      <c r="N72" t="inlineStr">
-        <is>
-          <t>6.387,35</t>
-        </is>
-      </c>
-      <c r="O72" t="inlineStr">
-        <is>
-          <t>38.324,10</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="N72" t="n">
+        <v>2318.76</v>
+      </c>
+      <c r="O72" t="n">
+        <v>4637.52</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>01/01/2025</t>
+          <t>28/05/2025</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Hanna de Trigo 0000 Cañuelas Bolsa x 25 Kg</t>
+          <t>Azucar Impalpable Talco Lesarisi Bolsa x 1 Kg</t>
         </is>
       </c>
       <c r="C73" t="n">
         <v>2</v>
       </c>
       <c r="D73" t="n">
-        <v>16376.6</v>
+        <v>1533.1</v>
       </c>
       <c r="E73" t="n">
-        <v>32753.2</v>
+        <v>3066.2</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Rissolar Pilar S.A.</t>
+          <t>Mince Bar S.A.S</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -4659,56 +4187,52 @@
         </is>
       </c>
       <c r="I73" t="n">
-        <v>16376.6</v>
+        <v>1533.1</v>
       </c>
       <c r="J73" t="n">
-        <v>32753.2</v>
+        <v>3066.2</v>
       </c>
       <c r="K73" t="n">
         <v>2</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Harina de Trigo 0000 Cañuelas Bolsa x 25 Kg</t>
+          <t>Azucar Impalpable Talco Lesansi Bolsa x 1 Kg</t>
         </is>
       </c>
       <c r="M73" t="n">
         <v>2</v>
       </c>
-      <c r="N73" t="inlineStr">
-        <is>
-          <t>16.376,60</t>
-        </is>
-      </c>
-      <c r="O73" t="inlineStr">
-        <is>
-          <t>32.753,20</t>
-        </is>
+      <c r="N73" t="n">
+        <v>1533.1</v>
+      </c>
+      <c r="O73" t="n">
+        <v>3066.2</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>01/01/2025</t>
+          <t>28/05/2025</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Fideos Spaghetti Nº7 Lucchetti Paquete (20 x 300 Grs)</t>
+          <t>Panko Blanco Nutripanko Bolsa x 1 Kg</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
-        <v>18010.62</v>
+        <v>6219.94</v>
       </c>
       <c r="E74" t="n">
-        <v>18010.62</v>
+        <v>12439.88</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Rissolar Pilar S.A.</t>
+          <t>Mince Bar S.A.S</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -4722,56 +4246,52 @@
         </is>
       </c>
       <c r="I74" t="n">
-        <v>18010.62</v>
+        <v>6219.94</v>
       </c>
       <c r="J74" t="n">
-        <v>18010.62</v>
+        <v>12439.88</v>
       </c>
       <c r="K74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Fideos Spaghetti No7 Lucchetti Paquete (20 x 500 Grs)</t>
+          <t>Panko Blanco Nutripanko Bolsa x 1 kg</t>
         </is>
       </c>
       <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr">
-        <is>
-          <t>18.010,62</t>
-        </is>
-      </c>
-      <c r="O74" t="inlineStr">
-        <is>
-          <t>18.010,62</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="N74" t="n">
+        <v>6219.94</v>
+      </c>
+      <c r="O74" t="n">
+        <v>12439.88</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>01/01/2025</t>
+          <t>18/06/2025</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Sal Fina Dos Anclas Paquete (12 x 500 Grs)</t>
+          <t>Queso Cremoso La Paulina Horma x 4 Kg</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>1</v>
+        <v>4.73</v>
       </c>
       <c r="D75" t="n">
-        <v>11113.6</v>
+        <v>6505.82</v>
       </c>
       <c r="E75" t="n">
-        <v>11113.6</v>
+        <v>30772.55</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Rissolar Pilar S.A.</t>
+          <t>Rabble S.A</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -4781,60 +4301,56 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>Diferencia de Precio</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>11113.6</v>
+        <v>6512.71</v>
       </c>
       <c r="J75" t="n">
-        <v>11113.6</v>
+        <v>30805.12</v>
       </c>
       <c r="K75" t="n">
-        <v>1</v>
+        <v>4.73</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Sal Fina Dos Anclas Paquete (12 x 500 Gis)</t>
+          <t>Queso Cremoso La Paulina Horma x 4 Kg</t>
         </is>
       </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
-      <c r="N75" t="inlineStr">
-        <is>
-          <t>11.113,60</t>
-        </is>
-      </c>
-      <c r="O75" t="inlineStr">
-        <is>
-          <t>11.113,60</t>
-        </is>
+      <c r="N75" t="n">
+        <v>6512.71</v>
+      </c>
+      <c r="O75" t="n">
+        <v>30772.55</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>01/01/2025</t>
+          <t>18/06/2025</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Caldo de Verdura Granulado Knorr Caja (6 x 650 Grs)</t>
+          <t>Sal Fina Dos Anclas Bolsa x 5 Kg</t>
         </is>
       </c>
       <c r="C76" t="n">
         <v>1</v>
       </c>
       <c r="D76" t="n">
-        <v>57980.3</v>
+        <v>5998.27</v>
       </c>
       <c r="E76" t="n">
-        <v>57980.3</v>
+        <v>5998.27</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Rissolar Pilar S.A.</t>
+          <t>Rabble S.A</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -4848,56 +4364,52 @@
         </is>
       </c>
       <c r="I76" t="n">
-        <v>57980.3</v>
+        <v>5998.27</v>
       </c>
       <c r="J76" t="n">
-        <v>57980.3</v>
+        <v>5998.27</v>
       </c>
       <c r="K76" t="n">
         <v>1</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Caldo de Verdura Granulado Knorr Caja (6 x 650 Gr)</t>
+          <t>Sal Fina Dos Anclas Bolsa x 5 Kg</t>
         </is>
       </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
-      <c r="N76" t="inlineStr">
-        <is>
-          <t>57.980,30</t>
-        </is>
-      </c>
-      <c r="O76" t="inlineStr">
-        <is>
-          <t>57.980,30</t>
-        </is>
+      <c r="N76" t="n">
+        <v>5998.27</v>
+      </c>
+      <c r="O76" t="n">
+        <v>5998.27</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>01/01/2025</t>
+          <t>18/06/2025</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Aceite Alto Oleico Vero Caja (2 x 10 Lts)</t>
+          <t>Castañas de Caju W3 Cumana Bolsa x 1 Kg</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D77" t="n">
-        <v>62032.32</v>
+        <v>12215.96</v>
       </c>
       <c r="E77" t="n">
-        <v>186096.96</v>
+        <v>12215.96</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Rissolar Pilar S.A.</t>
+          <t>Rabble S.A</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -4911,56 +4423,52 @@
         </is>
       </c>
       <c r="I77" t="n">
-        <v>62032.32</v>
+        <v>12215.96</v>
       </c>
       <c r="J77" t="n">
-        <v>186096.96</v>
+        <v>12215.96</v>
       </c>
       <c r="K77" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Aceite Alto Oleico Vero Caja (2 x 10 Lts)</t>
+          <t>Castañas de Caju W3 Cumana Bolsa x 1 Kg</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>3</v>
-      </c>
-      <c r="N77" t="inlineStr">
-        <is>
-          <t>62.032,32</t>
-        </is>
-      </c>
-      <c r="O77" t="inlineStr">
-        <is>
-          <t>186.096,96</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="N77" t="n">
+        <v>12215.96</v>
+      </c>
+      <c r="O77" t="n">
+        <v>12215.96</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>01/01/2025</t>
+          <t>18/06/2025</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Salsa Demi Glace Safra Bolsa x 480 Grs</t>
+          <t>Sal Entrefina Parrillera Dos Anclas Bolsa x 5 Kg</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D78" t="n">
-        <v>7795.79</v>
+        <v>5577.68</v>
       </c>
       <c r="E78" t="n">
-        <v>15591.58</v>
+        <v>5577.68</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Rissolar Pilar S.A.</t>
+          <t>Rabble S.A</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -4974,56 +4482,52 @@
         </is>
       </c>
       <c r="I78" t="n">
-        <v>7795.79</v>
+        <v>5577.68</v>
       </c>
       <c r="J78" t="n">
-        <v>15591.58</v>
+        <v>5577.68</v>
       </c>
       <c r="K78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Salsa Demi-Glace Safra Bolsa x 480 Grs</t>
+          <t>Sal Entrefina Parrillera Dos Anclas Bolsa x 5 Kg</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>2</v>
-      </c>
-      <c r="N78" t="inlineStr">
-        <is>
-          <t>7.795,79</t>
-        </is>
-      </c>
-      <c r="O78" t="inlineStr">
-        <is>
-          <t>15.591,58</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="N78" t="n">
+        <v>5577.68</v>
+      </c>
+      <c r="O78" t="n">
+        <v>5577.68</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>01/01/2025</t>
+          <t>18/06/2025</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Nueces Mariposas Extra Light Cumana Bolsa x 1 Kg</t>
+          <t>Pasta de Mani Oddi's Frasco x 350 Gr</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
-        <v>21573.3</v>
+        <v>3066.7</v>
       </c>
       <c r="E79" t="n">
-        <v>21573.3</v>
+        <v>12266.8</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Rissolar Pilar S.A.</t>
+          <t>Rabble S.A</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -5037,56 +4541,52 @@
         </is>
       </c>
       <c r="I79" t="n">
-        <v>21573.3</v>
+        <v>3066.7</v>
       </c>
       <c r="J79" t="n">
-        <v>21573.3</v>
+        <v>12266.8</v>
       </c>
       <c r="K79" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Nueces Mariposas Extra Light Cumana Bolsa x 1 Kg.</t>
+          <t>Pasta de Mani Oddi's Frasco x 350 Gr</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr">
-        <is>
-          <t>21.573,30</t>
-        </is>
-      </c>
-      <c r="O79" t="inlineStr">
-        <is>
-          <t>21.573,30</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="N79" t="n">
+        <v>3066.7</v>
+      </c>
+      <c r="O79" t="n">
+        <v>12266.8</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>01/01/2025</t>
+          <t>18/06/2025</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Papa McCain Tradicional (6 x 2.5 Kg) (A11109)x</t>
+          <t>Mostaza Antigua en Granos Arytza Balde x 4.5 Kg</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D80" t="n">
-        <v>32902.53</v>
+        <v>39044.92</v>
       </c>
       <c r="E80" t="n">
-        <v>263220.24</v>
+        <v>39044.92</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Rissolar Pilar S.A.</t>
+          <t>Rabble S.A</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -5100,56 +4600,52 @@
         </is>
       </c>
       <c r="I80" t="n">
-        <v>32902.53</v>
+        <v>39044.92</v>
       </c>
       <c r="J80" t="n">
-        <v>263220.24</v>
+        <v>39044.92</v>
       </c>
       <c r="K80" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Papa McCain Tradicional (6 x 2.5 Kg) (A11109)x</t>
+          <t>Mostaza Antigua en Granos Arytza Balde x 4.5 Kg</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>8</v>
-      </c>
-      <c r="N80" t="inlineStr">
-        <is>
-          <t>32.902,53</t>
-        </is>
-      </c>
-      <c r="O80" t="inlineStr">
-        <is>
-          <t>263.220,27</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="N80" t="n">
+        <v>39044.92</v>
+      </c>
+      <c r="O80" t="n">
+        <v>39044.92</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>28/05/2025</t>
+          <t>12/06/2025</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Cobertura de Chocolate Negro Amargo (87) Fenix Bolsa x 2,5 Kg</t>
+          <t>Ketchup Hellmann's Sobres Caja (196 x 8 gr)</t>
         </is>
       </c>
       <c r="C81" t="n">
         <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>82945.66</v>
+        <v>11401.56</v>
       </c>
       <c r="E81" t="n">
-        <v>82945.66</v>
+        <v>11401.56</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Mince Bar S.A.S</t>
+          <t>9 REINAS SA</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -5163,56 +4659,52 @@
         </is>
       </c>
       <c r="I81" t="n">
-        <v>82945.66</v>
+        <v>11401.56</v>
       </c>
       <c r="J81" t="n">
-        <v>82945.66</v>
+        <v>11401.56</v>
       </c>
       <c r="K81" t="n">
         <v>1</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Cobertura de Chocolate Negro Amargo (87) Fenix Bolsa x 2.5 Kg</t>
+          <t>Ketchup Hellmann's Sobres Caja (196 x 8 gr)</t>
         </is>
       </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
-      <c r="N81" t="inlineStr">
-        <is>
-          <t>82945,66</t>
-        </is>
-      </c>
-      <c r="O81" t="inlineStr">
-        <is>
-          <t>82945,66</t>
-        </is>
+      <c r="N81" t="n">
+        <v>11401.56</v>
+      </c>
+      <c r="O81" t="n">
+        <v>11401.56</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>28/05/2025</t>
+          <t>12/06/2025</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Crema de Leche (44%) Milkaut Balde 5 itríos</t>
+          <t>Mayonesa Hellmann's Sobres Caja (196 x 7.6 gr)</t>
         </is>
       </c>
       <c r="C82" t="n">
         <v>1</v>
       </c>
       <c r="D82" t="n">
-        <v>43401.18</v>
+        <v>11363.08</v>
       </c>
       <c r="E82" t="n">
-        <v>43401.18</v>
+        <v>11363.08</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Mince Bar S.A.S</t>
+          <t>9 REINAS SA</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -5226,56 +4718,52 @@
         </is>
       </c>
       <c r="I82" t="n">
-        <v>43401.18</v>
+        <v>11363.08</v>
       </c>
       <c r="J82" t="n">
-        <v>43401.18</v>
+        <v>11363.08</v>
       </c>
       <c r="K82" t="n">
         <v>1</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Crema de Leche (44%) Milkaut Balde 5 litros.</t>
+          <t>Mayonesa Hellmann's Sobres Caja (196 x 7.6 gr)</t>
         </is>
       </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
-      <c r="N82" t="inlineStr">
-        <is>
-          <t>43401,18</t>
-        </is>
-      </c>
-      <c r="O82" t="inlineStr">
-        <is>
-          <t>43401,18</t>
-        </is>
+      <c r="N82" t="n">
+        <v>11363.08</v>
+      </c>
+      <c r="O82" t="n">
+        <v>11363.08</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>28/05/2025</t>
+          <t>12/06/2025</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Queso Pategras Sandwich La Paulina Barra x 3,5 Kg</t>
+          <t>Papa McCain Crinkle (5 x 2.5 Kg) (06570)</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
-        <v>30173.08</v>
+        <v>52127.51</v>
       </c>
       <c r="E83" t="n">
-        <v>30173.08</v>
+        <v>260637.53</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Mince Bar S.A.S</t>
+          <t>9 REINAS SA</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -5289,56 +4777,52 @@
         </is>
       </c>
       <c r="I83" t="n">
-        <v>30173.08</v>
+        <v>52127.51</v>
       </c>
       <c r="J83" t="n">
-        <v>30173.08</v>
+        <v>260637.55</v>
       </c>
       <c r="K83" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Queso Pategras Sandwich La Paulina Barra x 3,5-Kg</t>
+          <t>Papa McCain Crinkle (5 x 2.5 Kg)</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr">
-        <is>
-          <t>30173,08</t>
-        </is>
-      </c>
-      <c r="O83" t="inlineStr">
-        <is>
-          <t>30173,08</t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="N83" t="n">
+        <v>52127.51</v>
+      </c>
+      <c r="O83" t="n">
+        <v>260637.53</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>28/05/2025</t>
+          <t>02/06/2025</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Ketchup Hellmann's Sobres Caja (196 x 8 gr)</t>
+          <t>Chocolate Cobertura Amargo Lacteado (86) Fenix Caja x 2.5 Kg</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D84" t="n">
-        <v>11401.56</v>
+        <v>75539.8</v>
       </c>
       <c r="E84" t="n">
-        <v>22803.12</v>
+        <v>75539.8</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Mince Bar S.A.S</t>
+          <t>PERSEO &amp; CO</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -5352,56 +4836,52 @@
         </is>
       </c>
       <c r="I84" t="n">
-        <v>11401.56</v>
+        <v>75539.8</v>
       </c>
       <c r="J84" t="n">
-        <v>22803.12</v>
+        <v>75539.8</v>
       </c>
       <c r="K84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Ketchup Hellmann's Sobres Caja (196 x 8 gr)</t>
+          <t>Chocolate Cobertura Amargo Lacteado (86) Fenix Caja x 2.5 Kg</t>
         </is>
       </c>
       <c r="M84" t="n">
-        <v>2</v>
-      </c>
-      <c r="N84" t="inlineStr">
-        <is>
-          <t>11401,56</t>
-        </is>
-      </c>
-      <c r="O84" t="inlineStr">
-        <is>
-          <t>22803,12</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="N84" t="n">
+        <v>75539.8</v>
+      </c>
+      <c r="O84" t="n">
+        <v>75539.8</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>28/05/2025</t>
+          <t>02/06/2025</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Salsa de Chocolate Lheritter Pomo x 500 Grs</t>
+          <t>Vinagre de Alcohol Menoyo Bidon x 5 Rs</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
-        <v>2318.76</v>
+        <v>5176.24</v>
       </c>
       <c r="E85" t="n">
-        <v>4637.52</v>
+        <v>25881.2</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Mince Bar S.A.S</t>
+          <t>PERSEO &amp; CO</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -5415,56 +4895,52 @@
         </is>
       </c>
       <c r="I85" t="n">
-        <v>2318.76</v>
+        <v>5176.24</v>
       </c>
       <c r="J85" t="n">
-        <v>4637.52</v>
+        <v>25881.2</v>
       </c>
       <c r="K85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Salsa de Chocolate Lheritier Pomo x 500 Grs</t>
+          <t>Vinagre de Alcohol Menoyo Bidon x 5 Its</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>2</v>
-      </c>
-      <c r="N85" t="inlineStr">
-        <is>
-          <t>2318,76</t>
-        </is>
-      </c>
-      <c r="O85" t="inlineStr">
-        <is>
-          <t>4637,52</t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="N85" t="n">
+        <v>5176.24</v>
+      </c>
+      <c r="O85" t="n">
+        <v>25881.2</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>28/05/2025</t>
+          <t>02/06/2025</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Salsa de Dulce de Leche Lheritter Pomo x 500 Grs</t>
+          <t>Pan Rallado Preferido Bolsa x 5 Kg</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D86" t="n">
-        <v>2318.76</v>
+        <v>8961.049999999999</v>
       </c>
       <c r="E86" t="n">
-        <v>4637.52</v>
+        <v>8961.049999999999</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Mince Bar S.A.S</t>
+          <t>ESCABECHE S.A</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -5478,56 +4954,52 @@
         </is>
       </c>
       <c r="I86" t="n">
-        <v>2318.76</v>
+        <v>8961.049999999999</v>
       </c>
       <c r="J86" t="n">
-        <v>4637.52</v>
+        <v>8961.049999999999</v>
       </c>
       <c r="K86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Salsa de Dulce de Leche Lheritier Pomo x 500 Grs</t>
+          <t>Pan Rallado Preferido Bolsa x 5 Kg</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>2</v>
-      </c>
-      <c r="N86" t="inlineStr">
-        <is>
-          <t>2318,76</t>
-        </is>
-      </c>
-      <c r="O86" t="inlineStr">
-        <is>
-          <t>4637,52</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="N86" t="n">
+        <v>8961.049999999999</v>
+      </c>
+      <c r="O86" t="n">
+        <v>8961.049999999999</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>28/05/2025</t>
+          <t>02/06/2025</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Azucar Impalpable Talco Lesarisi Bolsa x 1 Kg</t>
+          <t>Pure de Tomate Noel Brick Caja (12 x 520 gr)</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D87" t="n">
-        <v>1533.1</v>
+        <v>8061.1</v>
       </c>
       <c r="E87" t="n">
-        <v>3066.2</v>
+        <v>8061.1</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Mince Bar S.A.S</t>
+          <t>ESCABECHE S.A</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -5541,56 +5013,52 @@
         </is>
       </c>
       <c r="I87" t="n">
-        <v>1533.1</v>
+        <v>8061.1</v>
       </c>
       <c r="J87" t="n">
-        <v>3066.2</v>
+        <v>8061.1</v>
       </c>
       <c r="K87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Azucar Impalpable Talco Lesansi Bolsa x 1 Kg</t>
+          <t>Pure de Tomate Noel Brick Caja (12 x 520 gr)</t>
         </is>
       </c>
       <c r="M87" t="n">
-        <v>2</v>
-      </c>
-      <c r="N87" t="inlineStr">
-        <is>
-          <t>1533,10</t>
-        </is>
-      </c>
-      <c r="O87" t="inlineStr">
-        <is>
-          <t>3066,20</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="N87" t="n">
+        <v>8061.1</v>
+      </c>
+      <c r="O87" t="n">
+        <v>8061.1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>28/05/2025</t>
+          <t>02/06/2025</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Panko Blanco Nutripanko Bolsa x 1 Kg</t>
+          <t>Harina de Trigo 0000 Morixe Paquete (10 x 1 Kg)</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D88" t="n">
-        <v>6219.94</v>
+        <v>8640.17</v>
       </c>
       <c r="E88" t="n">
-        <v>12439.88</v>
+        <v>8640.17</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Mince Bar S.A.S</t>
+          <t>ESCABECHE S.A</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -5604,56 +5072,52 @@
         </is>
       </c>
       <c r="I88" t="n">
-        <v>6219.94</v>
+        <v>8640.17</v>
       </c>
       <c r="J88" t="n">
-        <v>12439.88</v>
+        <v>8640.17</v>
       </c>
       <c r="K88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Panko Blanco Nutripanko Bolsa x 1 kg</t>
+          <t>Harina de Trigo 0000 Morixe Paquete (10 x 1 Kg)</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>2</v>
-      </c>
-      <c r="N88" t="inlineStr">
-        <is>
-          <t>6219,94</t>
-        </is>
-      </c>
-      <c r="O88" t="inlineStr">
-        <is>
-          <t>12439,88</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="N88" t="n">
+        <v>8640.17</v>
+      </c>
+      <c r="O88" t="n">
+        <v>8640.17</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>20/05/2025</t>
+          <t>02/06/2025</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Barritas de submarino Aguila Caja (24 x 14 gr)</t>
+          <t>Harina Leudante Morixe Paquete (10 x 1 Kg)</t>
         </is>
       </c>
       <c r="C89" t="n">
         <v>1</v>
       </c>
       <c r="D89" t="n">
-        <v>0</v>
+        <v>10011.63</v>
       </c>
       <c r="E89" t="n">
-        <v>0</v>
+        <v>10011.63</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>GOURMAND S.A</t>
+          <t>ESCABECHE S.A</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -5667,49 +5131,52 @@
         </is>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>10011.63</v>
       </c>
       <c r="J89" t="n">
-        <v>0</v>
+        <v>10011.63</v>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>Barritas de submarino Aguila Caja (24 x 14 gr)</t>
+          <t>Harina Leudante Morixe Paquete (10 x 1 Kg)</t>
         </is>
       </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
       <c r="N89" t="n">
-        <v>14946.31</v>
+        <v>10011.63</v>
       </c>
       <c r="O89" t="n">
-        <v>14946.31</v>
+        <v>10011.63</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>20/05/2025</t>
+          <t>02/06/2025</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Queso Crema Milka ut Balde x 3.6 Kg</t>
+          <t>Azucar Blanca Arcor Bolsa (10 x 1 Kg)</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D90" t="n">
-        <v>0</v>
+        <v>11435.31</v>
       </c>
       <c r="E90" t="n">
-        <v>0</v>
+        <v>11435.31</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>GOURMAND S.A</t>
+          <t>ESCABECHE S.A</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -5723,49 +5190,52 @@
         </is>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>11435.31</v>
       </c>
       <c r="J90" t="n">
-        <v>0</v>
+        <v>11435.31</v>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Queso Crema Milka ut Balde x 3.6 Kg</t>
+          <t>Azucar Blanca Arcor Bolsa (10 x 1 Kg)</t>
         </is>
       </c>
       <c r="M90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N90" t="n">
-        <v>40698.53</v>
+        <v>11435.31</v>
       </c>
       <c r="O90" t="n">
-        <v>81397.05</v>
+        <v>11435.31</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>20/05/2025</t>
+          <t>02/06/2025</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Rebozador Preferido Bolsa x 5 Kg</t>
+          <t>Aceite Alto Oleico Vero Caja (2 x 10 Lts)</t>
         </is>
       </c>
       <c r="C91" t="n">
         <v>1</v>
       </c>
       <c r="D91" t="n">
-        <v>0</v>
+        <v>62032.32</v>
       </c>
       <c r="E91" t="n">
-        <v>0</v>
+        <v>62032.32</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>GOURMAND S.A</t>
+          <t>ESCABECHE S.A</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -5779,49 +5249,52 @@
         </is>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>62032.32</v>
       </c>
       <c r="J91" t="n">
-        <v>0</v>
+        <v>62032.32</v>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>Rebozador Preferido Bolsa x 5 Kg</t>
+          <t>Aceite Alto Oleico Vero Caja (2 x 10 Lts)</t>
         </is>
       </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
       <c r="N91" t="n">
-        <v>8961.049999999999</v>
+        <v>62032.32</v>
       </c>
       <c r="O91" t="n">
-        <v>8961.049999999999</v>
+        <v>62032.32</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>01/01/2025</t>
+          <t>28/05/2025</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Levadura Prensada Virgen Calsa Pan x 500 Gr</t>
+          <t>Cobertura de Chocolate Negro Amargo (87) Fenix Bolsa x 2,5 Kg</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D92" t="n">
-        <v>3537.26</v>
+        <v>82945.66</v>
       </c>
       <c r="E92" t="n">
-        <v>7074.52</v>
+        <v>82945.66</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Rissolar Pilar S.A.</t>
+          <t>Mince Bar S.A.S</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -5835,52 +5308,52 @@
         </is>
       </c>
       <c r="I92" t="n">
-        <v>3537.26</v>
+        <v>82945.66</v>
       </c>
       <c r="J92" t="n">
-        <v>7074.52</v>
+        <v>82945.66</v>
       </c>
       <c r="K92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>Levadura Prensada Virgen Calsa Pan x 500 Gr</t>
+          <t>Cobertura de Chocolate Negro Amargo (87) Fenix Bolsa x 2.5 Kg</t>
         </is>
       </c>
       <c r="M92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N92" t="n">
-        <v>0</v>
+        <v>82945.66</v>
       </c>
       <c r="O92" t="n">
-        <v>0</v>
+        <v>82945.66</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>01/01/2025</t>
+          <t>28/05/2025</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Jamón Cocido Tradicional Campo Austral Pieza x 5 Kg</t>
+          <t>Crema de Leche (44%) Milkaut Balde 5 itríos</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4.92</v>
+        <v>1</v>
       </c>
       <c r="D93" t="n">
-        <v>10371.05</v>
+        <v>43401.18</v>
       </c>
       <c r="E93" t="n">
-        <v>51025.57</v>
+        <v>43401.18</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Rissolar Pilar S.A.</t>
+          <t>Mince Bar S.A.S</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -5890,56 +5363,56 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Diferencia de Precio</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>10364.73</v>
+        <v>43401.18</v>
       </c>
       <c r="J93" t="n">
-        <v>50994.47</v>
+        <v>43401.18</v>
       </c>
       <c r="K93" t="n">
-        <v>4.92</v>
+        <v>1</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>Jamon Cocido Tradicional Campo Austral Pieza x 5 Kg</t>
+          <t>Crema de Leche (44%) Milkaut Balde 5 litros.</t>
         </is>
       </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
       <c r="N93" t="n">
-        <v>0</v>
+        <v>43401.18</v>
       </c>
       <c r="O93" t="n">
-        <v>0</v>
+        <v>43401.18</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>01/01/2025</t>
+          <t>28/05/2025</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Queso Cheddar Fundido Milkaut Caja (2 x 3.5 Kg)</t>
+          <t>Queso Pategras Sandwich La Paulina Barra x 3,5 Kg</t>
         </is>
       </c>
       <c r="C94" t="n">
         <v>1</v>
       </c>
       <c r="D94" t="n">
-        <v>59358.44</v>
+        <v>30173.08</v>
       </c>
       <c r="E94" t="n">
-        <v>59358.44</v>
+        <v>30173.08</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Rissolar Pilar S.A.</t>
+          <t>Mince Bar S.A.S</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -5953,52 +5426,52 @@
         </is>
       </c>
       <c r="I94" t="n">
-        <v>59358.44</v>
+        <v>30173.08</v>
       </c>
       <c r="J94" t="n">
-        <v>59358.44</v>
+        <v>30173.08</v>
       </c>
       <c r="K94" t="n">
         <v>1</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>Queso Cheddar Fundido Milkaut Caja (2 x 3.5 Kg)</t>
+          <t>Queso Pategras Sandwich La Paulina Barra x 3,5 Kg</t>
         </is>
       </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
       <c r="N94" t="n">
-        <v>0</v>
+        <v>30173.08</v>
       </c>
       <c r="O94" t="n">
-        <v>0</v>
+        <v>30173.08</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>01/01/2025</t>
+          <t>28/05/2025</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Queso Criña Milkaut Balde x 3.6 Kg</t>
+          <t>Ketchup Hellmann's Sobres Caja (196 x 8 gr)</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
-        <v>40698.53</v>
+        <v>11401.56</v>
       </c>
       <c r="E95" t="n">
-        <v>40698.53</v>
+        <v>22803.12</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Rissolar Pilar S.A.</t>
+          <t>Mince Bar S.A.S</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -6012,52 +5485,52 @@
         </is>
       </c>
       <c r="I95" t="n">
-        <v>40698.53</v>
+        <v>11401.56</v>
       </c>
       <c r="J95" t="n">
-        <v>40698.53</v>
+        <v>22803.12</v>
       </c>
       <c r="K95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>Queso Crema Milka ut Balde x 3.6 Kg</t>
+          <t>Ketchup Hellmann's Sobres Caja (196 x 8 gr)</t>
         </is>
       </c>
       <c r="M95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N95" t="n">
-        <v>0</v>
+        <v>11401.56</v>
       </c>
       <c r="O95" t="n">
-        <v>0</v>
+        <v>22803.12</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>01/01/2025</t>
+          <t>28/05/2025</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Panceta Ahumada Campo Austral Pieza x 2.2 Kg Aprox</t>
+          <t>Salsa de Chocolate Lheritter Pomo x 500 Grs</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>11.51</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
-        <v>13521.75</v>
+        <v>2318.76</v>
       </c>
       <c r="E96" t="n">
-        <v>155635.38</v>
+        <v>4637.52</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Rissolar Pilar S.A.</t>
+          <t>Mince Bar S.A.S</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -6067,56 +5540,56 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Diferencia de Precio</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>13527.63</v>
+        <v>2318.76</v>
       </c>
       <c r="J96" t="n">
-        <v>155703.02</v>
+        <v>4637.52</v>
       </c>
       <c r="K96" t="n">
-        <v>11.51</v>
+        <v>2</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>Panceta Ahumada Campo Austral Pieza x 2.2 Yo Aprox</t>
+          <t>Salsa de Chocolate Lheritier Pomo x 500 Grs</t>
         </is>
       </c>
       <c r="M96" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N96" t="n">
-        <v>0</v>
+        <v>2318.76</v>
       </c>
       <c r="O96" t="n">
-        <v>0</v>
+        <v>4637.52</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>01/01/2025</t>
+          <t>28/05/2025</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Pan Rallado Preferido Bolsa x 5 Kg</t>
+          <t>Salsa de Dulce de Leche Lheritter Pomo x 500 Grs</t>
         </is>
       </c>
       <c r="C97" t="n">
         <v>2</v>
       </c>
       <c r="D97" t="n">
-        <v>8961.049999999999</v>
+        <v>2318.76</v>
       </c>
       <c r="E97" t="n">
-        <v>17922.1</v>
+        <v>4637.52</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Rissolar Pilar S.A.</t>
+          <t>Mince Bar S.A.S</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -6130,52 +5603,52 @@
         </is>
       </c>
       <c r="I97" t="n">
-        <v>8961.049999999999</v>
+        <v>2318.76</v>
       </c>
       <c r="J97" t="n">
-        <v>17922.1</v>
+        <v>4637.52</v>
       </c>
       <c r="K97" t="n">
         <v>2</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>Pan Rallado Preferido Bolsa x 5 Kg</t>
+          <t>Salsa de Dulce de Leche Lheritier Pomo x 500 Grs</t>
         </is>
       </c>
       <c r="M97" t="n">
         <v>2</v>
       </c>
       <c r="N97" t="n">
-        <v>0</v>
+        <v>2318.76</v>
       </c>
       <c r="O97" t="n">
-        <v>0</v>
+        <v>4637.52</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>01/01/2025</t>
+          <t>28/05/2025</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Galletitas Chocolipas Bagley Caja (25 x 250 Grs)</t>
+          <t>Azucar Impalpable Talco Lesarisi Bolsa x 1 Kg</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
-        <v>37120.66</v>
+        <v>1533.1</v>
       </c>
       <c r="E98" t="n">
-        <v>37120.66</v>
+        <v>3066.2</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Rissolar Pilar S.A.</t>
+          <t>Mince Bar S.A.S</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -6189,52 +5662,52 @@
         </is>
       </c>
       <c r="I98" t="n">
-        <v>37120.66</v>
+        <v>1533.1</v>
       </c>
       <c r="J98" t="n">
-        <v>37120.66</v>
+        <v>3066.2</v>
       </c>
       <c r="K98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>Galietitas Chocolinas Bagley Caja (25 x 250 Grs)</t>
+          <t>Azucar Impalpable Talco Lesansi Bolsa x 1 Kg</t>
         </is>
       </c>
       <c r="M98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N98" t="n">
-        <v>0</v>
+        <v>1533.1</v>
       </c>
       <c r="O98" t="n">
-        <v>0</v>
+        <v>3066.2</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>01/01/2025</t>
+          <t>28/05/2025</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Cafe Soluble Arlistan Pack (12 x 170 Grs)</t>
+          <t>Panko Blanco Nutripanko Bolsa x 1 Kg</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
-        <v>62188.07</v>
+        <v>6219.94</v>
       </c>
       <c r="E99" t="n">
-        <v>62188.07</v>
+        <v>12439.88</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Rissolar Pilar S.A.</t>
+          <t>Mince Bar S.A.S</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -6248,52 +5721,52 @@
         </is>
       </c>
       <c r="I99" t="n">
-        <v>62188.07</v>
+        <v>6219.94</v>
       </c>
       <c r="J99" t="n">
-        <v>62188.07</v>
+        <v>12439.88</v>
       </c>
       <c r="K99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>Cafe Soluble Arlistan Pack (12 x 170 Grs)</t>
+          <t>Panko Blanco Nutripanko Bolsa x 1 kg</t>
         </is>
       </c>
       <c r="M99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N99" t="n">
-        <v>0</v>
+        <v>6219.94</v>
       </c>
       <c r="O99" t="n">
-        <v>0</v>
+        <v>12439.88</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>01/01/2025</t>
+          <t>20/xx/xxxx</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Tomate Perita Cumana Lata x 2.93 Kg</t>
+          <t>Levadura Prensada Virgen Calsa Pan x 500 Gr</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D100" t="n">
-        <v>6387.35</v>
+        <v>3537.26</v>
       </c>
       <c r="E100" t="n">
-        <v>38324.1</v>
+        <v>3537.26</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Rissolar Pilar S.A.</t>
+          <t>PERSEO &amp; CO</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -6307,52 +5780,52 @@
         </is>
       </c>
       <c r="I100" t="n">
-        <v>6387.35</v>
+        <v>3537.26</v>
       </c>
       <c r="J100" t="n">
-        <v>38324.1</v>
+        <v>3537.26</v>
       </c>
       <c r="K100" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>Tomate Perita Cumana Lata x 2.93 Kg</t>
+          <t>Levadura Prensada Virgen Calsa Pan x 500 Gr</t>
         </is>
       </c>
       <c r="M100" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N100" t="n">
-        <v>0</v>
+        <v>3537.26</v>
       </c>
       <c r="O100" t="n">
-        <v>0</v>
+        <v>3537.26</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>01/01/2025</t>
+          <t>20/xx/xxxx</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Hanna de Trigo 0000 Cañuelas Bolsa x 25 Kg</t>
+          <t>Queso Mozzarella P/Fetea r La Paulina Barra x 3,5 Kg</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D101" t="n">
-        <v>16376.6</v>
+        <v>26268.94</v>
       </c>
       <c r="E101" t="n">
-        <v>32753.2</v>
+        <v>26268.94</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Rissolar Pilar S.A.</t>
+          <t>PERSEO &amp; CO</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -6366,52 +5839,52 @@
         </is>
       </c>
       <c r="I101" t="n">
-        <v>16376.6</v>
+        <v>26268.94</v>
       </c>
       <c r="J101" t="n">
-        <v>32753.2</v>
+        <v>26268.94</v>
       </c>
       <c r="K101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>Harina de Trigo 0000 Cañuelas Bolsa x 25 Kg</t>
+          <t>Queso Mozzarella P/Fetea r La Paulina Barra x 3,5 Kg</t>
         </is>
       </c>
       <c r="M101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N101" t="n">
-        <v>0</v>
+        <v>26268.94</v>
       </c>
       <c r="O101" t="n">
-        <v>0</v>
+        <v>26268.94</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>01/01/2025</t>
+          <t>20/xx/xxxx</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Fideos Spaghetti Nº7 Lucchetti Paquete (20 x 300 Grs)</t>
+          <t>Harina de Trigo 0000 Cañuelas Bolsa x 25 Kg</t>
         </is>
       </c>
       <c r="C102" t="n">
         <v>1</v>
       </c>
       <c r="D102" t="n">
-        <v>18010.62</v>
+        <v>15811.89</v>
       </c>
       <c r="E102" t="n">
-        <v>18010.62</v>
+        <v>15811.89</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Rissolar Pilar S.A.</t>
+          <t>PERSEO &amp; CO</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -6425,52 +5898,52 @@
         </is>
       </c>
       <c r="I102" t="n">
-        <v>18010.62</v>
+        <v>15811.89</v>
       </c>
       <c r="J102" t="n">
-        <v>18010.62</v>
+        <v>15811.89</v>
       </c>
       <c r="K102" t="n">
         <v>1</v>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>Fideos Spaghetti No7 Lucchetti Paquete (20 x 500 Grs)</t>
+          <t>Harina de Trigo 0000 Cañuelas Bolsa x 25 Kg</t>
         </is>
       </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
       <c r="N102" t="n">
-        <v>0</v>
+        <v>15811.89</v>
       </c>
       <c r="O102" t="n">
-        <v>0</v>
+        <v>15811.89</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>01/01/2025</t>
+          <t>20/xx/xxxx</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Sal Fina Dos Anclas Paquete (12 x 500 Grs)</t>
+          <t>Azucar Blanca Ledesma Bolsa x 25 Kg</t>
         </is>
       </c>
       <c r="C103" t="n">
         <v>1</v>
       </c>
       <c r="D103" t="n">
-        <v>11113.6</v>
+        <v>29551.5</v>
       </c>
       <c r="E103" t="n">
-        <v>11113.6</v>
+        <v>29551.5</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Rissolar Pilar S.A.</t>
+          <t>PERSEO &amp; CO</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -6484,52 +5957,52 @@
         </is>
       </c>
       <c r="I103" t="n">
-        <v>11113.6</v>
+        <v>29551.5</v>
       </c>
       <c r="J103" t="n">
-        <v>11113.6</v>
+        <v>29551.5</v>
       </c>
       <c r="K103" t="n">
         <v>1</v>
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>Sal Fina Dos Anclas Paquete (12 x 500 Gis)</t>
+          <t>Azucar Blanca Ledesma Bolsa x 25 Kg</t>
         </is>
       </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
       <c r="N103" t="n">
-        <v>0</v>
+        <v>29551.5</v>
       </c>
       <c r="O103" t="n">
-        <v>0</v>
+        <v>29551.5</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>01/01/2025</t>
+          <t>20/xx/xxxx</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Caldo de Verdura Granulado Knorr Caja (6 x 650 Grs)</t>
+          <t>Leche de Almendras S/AzucarTratenfu Pack (8 x 1 Lt)</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D104" t="n">
-        <v>57980.3</v>
+        <v>25600.2</v>
       </c>
       <c r="E104" t="n">
-        <v>57980.3</v>
+        <v>51200.4</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Rissolar Pilar S.A.</t>
+          <t>PERSEO &amp; CO</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -6543,52 +6016,52 @@
         </is>
       </c>
       <c r="I104" t="n">
-        <v>57980.3</v>
+        <v>25600.2</v>
       </c>
       <c r="J104" t="n">
-        <v>57980.3</v>
+        <v>51200.4</v>
       </c>
       <c r="K104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>Caldo de Verdura Granulado Knorr Caja (6 x 650 Gr)</t>
+          <t>Leche de Almendras S/AzucarTratenfu Pack (8x1 Lt)</t>
         </is>
       </c>
       <c r="M104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N104" t="n">
-        <v>0</v>
+        <v>25600.2</v>
       </c>
       <c r="O104" t="n">
-        <v>0</v>
+        <v>51200.4</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>01/01/2025</t>
+          <t>20/xx/xxxx</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Aceite Alto Oleico Vero Caja (2 x 10 Lts)</t>
+          <t>Azucar Rubia Lesansi Bolsa x 1 Kg</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D105" t="n">
-        <v>62032.32</v>
+        <v>1461.46</v>
       </c>
       <c r="E105" t="n">
-        <v>186096.96</v>
+        <v>2922.92</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Rissolar Pilar S.A.</t>
+          <t>PERSEO &amp; CO</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -6602,2443 +6075,27 @@
         </is>
       </c>
       <c r="I105" t="n">
-        <v>62032.32</v>
+        <v>1461.46</v>
       </c>
       <c r="J105" t="n">
-        <v>186096.96</v>
+        <v>2922.92</v>
       </c>
       <c r="K105" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>Aceite Alto Oleico Vero Caja (2 x 10 Lts)</t>
+          <t>Azucar Rubia Lesansi Bolsa x 1 Kg</t>
         </is>
       </c>
       <c r="M105" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N105" t="n">
-        <v>0</v>
+        <v>1461.46</v>
       </c>
       <c r="O105" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>01/01/2025</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>Salsa Demi Glace Safra Bolsa x 480 Grs</t>
-        </is>
-      </c>
-      <c r="C106" t="n">
-        <v>2</v>
-      </c>
-      <c r="D106" t="n">
-        <v>7795.79</v>
-      </c>
-      <c r="E106" t="n">
-        <v>15591.58</v>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Rissolar Pilar S.A.</t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I106" t="n">
-        <v>7795.79</v>
-      </c>
-      <c r="J106" t="n">
-        <v>15591.58</v>
-      </c>
-      <c r="K106" t="n">
-        <v>2</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>Salsa Demi-Glace Safra Bolsa x 480 Grs</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>2</v>
-      </c>
-      <c r="N106" t="n">
-        <v>0</v>
-      </c>
-      <c r="O106" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>01/01/2025</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>Nueces Mariposas Extra Light Cumana Bolsa x 1 Kg</t>
-        </is>
-      </c>
-      <c r="C107" t="n">
-        <v>1</v>
-      </c>
-      <c r="D107" t="n">
-        <v>21573.3</v>
-      </c>
-      <c r="E107" t="n">
-        <v>21573.3</v>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Rissolar Pilar S.A.</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I107" t="n">
-        <v>21573.3</v>
-      </c>
-      <c r="J107" t="n">
-        <v>21573.3</v>
-      </c>
-      <c r="K107" t="n">
-        <v>1</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>Nueces Mariposas Extra Light Cumana Bolsa x 1 Kg.</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="n">
-        <v>0</v>
-      </c>
-      <c r="O107" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>01/01/2025</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>Papa McCain Tradicional (6 x 2.5 Kg) (A11109)x</t>
-        </is>
-      </c>
-      <c r="C108" t="n">
-        <v>8</v>
-      </c>
-      <c r="D108" t="n">
-        <v>32902.53</v>
-      </c>
-      <c r="E108" t="n">
-        <v>263220.24</v>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Rissolar Pilar S.A.</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I108" t="n">
-        <v>32902.53</v>
-      </c>
-      <c r="J108" t="n">
-        <v>263220.24</v>
-      </c>
-      <c r="K108" t="n">
-        <v>8</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>Papa McCain Tradicional (6 x 2.5 Kg) (A11109)x</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>8</v>
-      </c>
-      <c r="N108" t="n">
-        <v>0</v>
-      </c>
-      <c r="O108" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>28/05/2025</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>Cobertura de Chocolate Negro Amargo (87) Fenix Bolsa x 2,5 Kg</t>
-        </is>
-      </c>
-      <c r="C109" t="n">
-        <v>1</v>
-      </c>
-      <c r="D109" t="n">
-        <v>82945.66</v>
-      </c>
-      <c r="E109" t="n">
-        <v>82945.66</v>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Mince Bar S.A.S</t>
-        </is>
-      </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
-      </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I109" t="n">
-        <v>82945.66</v>
-      </c>
-      <c r="J109" t="n">
-        <v>82945.66</v>
-      </c>
-      <c r="K109" t="n">
-        <v>1</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>Cobertura de Chocolate Negro Amargo (87) Fenix Bolsa x 2.5 Kg</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="n">
-        <v>82945.66</v>
-      </c>
-      <c r="O109" t="n">
-        <v>82945.66</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>28/05/2025</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>Crema de Leche (44%) Milkaut Balde 5 itríos</t>
-        </is>
-      </c>
-      <c r="C110" t="n">
-        <v>1</v>
-      </c>
-      <c r="D110" t="n">
-        <v>43401.18</v>
-      </c>
-      <c r="E110" t="n">
-        <v>43401.18</v>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Mince Bar S.A.S</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I110" t="n">
-        <v>43401.18</v>
-      </c>
-      <c r="J110" t="n">
-        <v>43401.18</v>
-      </c>
-      <c r="K110" t="n">
-        <v>1</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>Crema de Leche (44%) Milkaut Balde 5 litros.</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="n">
-        <v>43401.18</v>
-      </c>
-      <c r="O110" t="n">
-        <v>43401.18</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>28/05/2025</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>Queso Pategras Sandwich La Paulina Barra x 3,5 Kg</t>
-        </is>
-      </c>
-      <c r="C111" t="n">
-        <v>1</v>
-      </c>
-      <c r="D111" t="n">
-        <v>30173.08</v>
-      </c>
-      <c r="E111" t="n">
-        <v>30173.08</v>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Mince Bar S.A.S</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I111" t="n">
-        <v>30173.08</v>
-      </c>
-      <c r="J111" t="n">
-        <v>30173.08</v>
-      </c>
-      <c r="K111" t="n">
-        <v>1</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>Queso Pategras Sandwich La Paulina Barra x 3,5 Kg</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="n">
-        <v>30173.08</v>
-      </c>
-      <c r="O111" t="n">
-        <v>30173.08</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>28/05/2025</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>Ketchup Hellmann's Sobres Caja (196 x 8 gr)</t>
-        </is>
-      </c>
-      <c r="C112" t="n">
-        <v>2</v>
-      </c>
-      <c r="D112" t="n">
-        <v>11401.56</v>
-      </c>
-      <c r="E112" t="n">
-        <v>22803.12</v>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Mince Bar S.A.S</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I112" t="n">
-        <v>11401.56</v>
-      </c>
-      <c r="J112" t="n">
-        <v>22803.12</v>
-      </c>
-      <c r="K112" t="n">
-        <v>2</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>Ketchup Hellmann's Sobres Caja (196 x 8 gr)</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>2</v>
-      </c>
-      <c r="N112" t="n">
-        <v>11401.56</v>
-      </c>
-      <c r="O112" t="n">
-        <v>22803.12</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>28/05/2025</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>Salsa de Chocolate Lheritter Pomo x 500 Grs</t>
-        </is>
-      </c>
-      <c r="C113" t="n">
-        <v>2</v>
-      </c>
-      <c r="D113" t="n">
-        <v>2318.76</v>
-      </c>
-      <c r="E113" t="n">
-        <v>4637.52</v>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Mince Bar S.A.S</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
-      </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I113" t="n">
-        <v>2318.76</v>
-      </c>
-      <c r="J113" t="n">
-        <v>4637.52</v>
-      </c>
-      <c r="K113" t="n">
-        <v>2</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>Salsa de Chocolate Lheritier Pomo x 500 Grs</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>2</v>
-      </c>
-      <c r="N113" t="n">
-        <v>2318.76</v>
-      </c>
-      <c r="O113" t="n">
-        <v>4637.52</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>28/05/2025</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>Salsa de Dulce de Leche Lheritter Pomo x 500 Grs</t>
-        </is>
-      </c>
-      <c r="C114" t="n">
-        <v>2</v>
-      </c>
-      <c r="D114" t="n">
-        <v>2318.76</v>
-      </c>
-      <c r="E114" t="n">
-        <v>4637.52</v>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Mince Bar S.A.S</t>
-        </is>
-      </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
-      </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I114" t="n">
-        <v>2318.76</v>
-      </c>
-      <c r="J114" t="n">
-        <v>4637.52</v>
-      </c>
-      <c r="K114" t="n">
-        <v>2</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>Salsa de Dulce de Leche Lheritier Pomo x 500 Grs</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>2</v>
-      </c>
-      <c r="N114" t="n">
-        <v>2318.76</v>
-      </c>
-      <c r="O114" t="n">
-        <v>4637.52</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>28/05/2025</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>Azucar Impalpable Talco Lesarisi Bolsa x 1 Kg</t>
-        </is>
-      </c>
-      <c r="C115" t="n">
-        <v>2</v>
-      </c>
-      <c r="D115" t="n">
-        <v>1533.1</v>
-      </c>
-      <c r="E115" t="n">
-        <v>3066.2</v>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>Mince Bar S.A.S</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
-      </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I115" t="n">
-        <v>1533.1</v>
-      </c>
-      <c r="J115" t="n">
-        <v>3066.2</v>
-      </c>
-      <c r="K115" t="n">
-        <v>2</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>Azucar Impalpable Talco Lesansi Bolsa x 1 Kg</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>2</v>
-      </c>
-      <c r="N115" t="n">
-        <v>1533.1</v>
-      </c>
-      <c r="O115" t="n">
-        <v>3066.2</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>28/05/2025</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>Panko Blanco Nutripanko Bolsa x 1 Kg</t>
-        </is>
-      </c>
-      <c r="C116" t="n">
-        <v>2</v>
-      </c>
-      <c r="D116" t="n">
-        <v>6219.94</v>
-      </c>
-      <c r="E116" t="n">
-        <v>12439.88</v>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>Mince Bar S.A.S</t>
-        </is>
-      </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
-      </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I116" t="n">
-        <v>6219.94</v>
-      </c>
-      <c r="J116" t="n">
-        <v>12439.88</v>
-      </c>
-      <c r="K116" t="n">
-        <v>2</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>Panko Blanco Nutripanko Bolsa x 1 kg</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>2</v>
-      </c>
-      <c r="N116" t="n">
-        <v>6219.94</v>
-      </c>
-      <c r="O116" t="n">
-        <v>12439.88</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>17/06/2025</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>Té Clásico Green Hills con sobre Pack (10 x 50 un)</t>
-        </is>
-      </c>
-      <c r="C117" t="n">
-        <v>18818.27</v>
-      </c>
-      <c r="D117" t="n">
-        <v>0</v>
-      </c>
-      <c r="E117" t="n">
-        <v>0</v>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>GRATTINADO</t>
-        </is>
-      </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
-      </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="n">
-        <v>0</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>Té Clasico Green Hills con sobre Pack (10 x 50 un)</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>6</v>
-      </c>
-      <c r="N117" t="n">
-        <v>18818.27</v>
-      </c>
-      <c r="O117" t="n">
-        <v>112909.62</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>20/05/2025</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>Barritas de submarino Aguila Caja (24 x 14 gr)</t>
-        </is>
-      </c>
-      <c r="C118" t="n">
-        <v>1</v>
-      </c>
-      <c r="D118" t="n">
-        <v>14946.31</v>
-      </c>
-      <c r="E118" t="n">
-        <v>14946.31</v>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>GOURMAND S.A</t>
-        </is>
-      </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
-      </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I118" t="n">
-        <v>14946.31</v>
-      </c>
-      <c r="J118" t="n">
-        <v>14946.31</v>
-      </c>
-      <c r="K118" t="n">
-        <v>1</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>Barritas de submarino Aguila Caja (24 x 14 gr)</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="n">
-        <v>14946.31</v>
-      </c>
-      <c r="O118" t="n">
-        <v>14946.31</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>20/05/2025</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>Queso Crema Milka ut Balde x 3.6 Kg</t>
-        </is>
-      </c>
-      <c r="C119" t="n">
-        <v>2</v>
-      </c>
-      <c r="D119" t="n">
-        <v>40698.53</v>
-      </c>
-      <c r="E119" t="n">
-        <v>81397.06</v>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>GOURMAND S.A</t>
-        </is>
-      </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
-      </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I119" t="n">
-        <v>40698.53</v>
-      </c>
-      <c r="J119" t="n">
-        <v>81397.06</v>
-      </c>
-      <c r="K119" t="n">
-        <v>2</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>Queso Crema Milka ut Balde x 3.6 Kg</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>2</v>
-      </c>
-      <c r="N119" t="n">
-        <v>40698.53</v>
-      </c>
-      <c r="O119" t="n">
-        <v>81397.05</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>20/05/2025</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>Rebozador Preferido Bolsa x 5 Kg</t>
-        </is>
-      </c>
-      <c r="C120" t="n">
-        <v>1</v>
-      </c>
-      <c r="D120" t="n">
-        <v>8961.049999999999</v>
-      </c>
-      <c r="E120" t="n">
-        <v>8961.049999999999</v>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>GOURMAND S.A</t>
-        </is>
-      </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
-      </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I120" t="n">
-        <v>8961.049999999999</v>
-      </c>
-      <c r="J120" t="n">
-        <v>8961.049999999999</v>
-      </c>
-      <c r="K120" t="n">
-        <v>1</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>Rebozador Preferido Bolsa x 5 Kg</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="n">
-        <v>8961.049999999999</v>
-      </c>
-      <c r="O120" t="n">
-        <v>8961.049999999999</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>01/01/2025</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>Levadura Prensada Virgen Calsa Pan x 500 Gr</t>
-        </is>
-      </c>
-      <c r="C121" t="n">
-        <v>2</v>
-      </c>
-      <c r="D121" t="n">
-        <v>3537.26</v>
-      </c>
-      <c r="E121" t="n">
-        <v>7074.52</v>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>Rissolar Pilar S.A.</t>
-        </is>
-      </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
-      </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I121" t="n">
-        <v>3537.26</v>
-      </c>
-      <c r="J121" t="n">
-        <v>7074.52</v>
-      </c>
-      <c r="K121" t="n">
-        <v>2</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>Levadura Prensada Virgen Calsa Pan x 500 Gr</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>2</v>
-      </c>
-      <c r="N121" t="n">
-        <v>3537.26</v>
-      </c>
-      <c r="O121" t="n">
-        <v>7074.52</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>01/01/2025</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>Jamón Cocido Tradicional Campo Austral Pieza x 5 Kg</t>
-        </is>
-      </c>
-      <c r="C122" t="n">
-        <v>4.92</v>
-      </c>
-      <c r="D122" t="n">
-        <v>10371.05</v>
-      </c>
-      <c r="E122" t="n">
-        <v>51025.57</v>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>Rissolar Pilar S.A.</t>
-        </is>
-      </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
-      </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>Diferencia de Precio</t>
-        </is>
-      </c>
-      <c r="I122" t="n">
-        <v>10364.73</v>
-      </c>
-      <c r="J122" t="n">
-        <v>50994.47</v>
-      </c>
-      <c r="K122" t="n">
-        <v>4.92</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>Jamon Cocido Tradicional Campo Austral Pieza x 5 Kg</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="n">
-        <v>51025.57</v>
-      </c>
-      <c r="O122" t="n">
-        <v>51025.57</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>01/01/2025</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>Queso Cheddar Fundido Milkaut Caja (2 x 3.5 Kg)</t>
-        </is>
-      </c>
-      <c r="C123" t="n">
-        <v>1</v>
-      </c>
-      <c r="D123" t="n">
-        <v>59358.44</v>
-      </c>
-      <c r="E123" t="n">
-        <v>59358.44</v>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>Rissolar Pilar S.A.</t>
-        </is>
-      </c>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
-      </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I123" t="n">
-        <v>59358.44</v>
-      </c>
-      <c r="J123" t="n">
-        <v>59358.44</v>
-      </c>
-      <c r="K123" t="n">
-        <v>1</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>Queso Cheddar Fundido Milkaut Caja (2 x 3.5 Kg)</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="n">
-        <v>10364.73</v>
-      </c>
-      <c r="O123" t="n">
-        <v>10364.73</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>01/01/2025</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>Queso Criña Milkaut Balde x 3.6 Kg</t>
-        </is>
-      </c>
-      <c r="C124" t="n">
-        <v>1</v>
-      </c>
-      <c r="D124" t="n">
-        <v>40698.53</v>
-      </c>
-      <c r="E124" t="n">
-        <v>40698.53</v>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>Rissolar Pilar S.A.</t>
-        </is>
-      </c>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
-      </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I124" t="n">
-        <v>40698.53</v>
-      </c>
-      <c r="J124" t="n">
-        <v>40698.53</v>
-      </c>
-      <c r="K124" t="n">
-        <v>1</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>Queso Crema Milka ut Balde x 3.6 Kg</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="n">
-        <v>59358.44</v>
-      </c>
-      <c r="O124" t="n">
-        <v>59358.44</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>01/01/2025</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>Panceta Ahumada Campo Austral Pieza x 2.2 Kg Aprox</t>
-        </is>
-      </c>
-      <c r="C125" t="n">
-        <v>11.51</v>
-      </c>
-      <c r="D125" t="n">
-        <v>13521.75</v>
-      </c>
-      <c r="E125" t="n">
-        <v>155635.38</v>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>Rissolar Pilar S.A.</t>
-        </is>
-      </c>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
-      </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>Diferencia de Precio</t>
-        </is>
-      </c>
-      <c r="I125" t="n">
-        <v>13527.63</v>
-      </c>
-      <c r="J125" t="n">
-        <v>155703.02</v>
-      </c>
-      <c r="K125" t="n">
-        <v>11.51</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>Panceta Ahumada Campo Austral Pieza x 2.2 Yo Aprox</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>6</v>
-      </c>
-      <c r="N125" t="n">
-        <v>40698.53</v>
-      </c>
-      <c r="O125" t="n">
-        <v>155635.38</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>01/01/2025</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>Pan Rallado Preferido Bolsa x 5 Kg</t>
-        </is>
-      </c>
-      <c r="C126" t="n">
-        <v>2</v>
-      </c>
-      <c r="D126" t="n">
-        <v>8961.049999999999</v>
-      </c>
-      <c r="E126" t="n">
-        <v>17922.1</v>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>Rissolar Pilar S.A.</t>
-        </is>
-      </c>
-      <c r="G126" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
-      </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I126" t="n">
-        <v>8961.049999999999</v>
-      </c>
-      <c r="J126" t="n">
-        <v>17922.1</v>
-      </c>
-      <c r="K126" t="n">
-        <v>2</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>Pan Rallado Preferido Bolsa x 5 Kg</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>2</v>
-      </c>
-      <c r="N126" t="n">
-        <v>13527.63</v>
-      </c>
-      <c r="O126" t="n">
-        <v>17922.1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>01/01/2025</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>Galletitas Chocolipas Bagley Caja (25 x 250 Grs)</t>
-        </is>
-      </c>
-      <c r="C127" t="n">
-        <v>1</v>
-      </c>
-      <c r="D127" t="n">
-        <v>37120.66</v>
-      </c>
-      <c r="E127" t="n">
-        <v>37120.66</v>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>Rissolar Pilar S.A.</t>
-        </is>
-      </c>
-      <c r="G127" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
-      </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I127" t="n">
-        <v>37120.66</v>
-      </c>
-      <c r="J127" t="n">
-        <v>37120.66</v>
-      </c>
-      <c r="K127" t="n">
-        <v>1</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>Galietitas Chocolinas Bagley Caja (25 x 250 Grs)</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="n">
-        <v>8961.049999999999</v>
-      </c>
-      <c r="O127" t="n">
-        <v>8961.049999999999</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>01/01/2025</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>Cafe Soluble Arlistan Pack (12 x 170 Grs)</t>
-        </is>
-      </c>
-      <c r="C128" t="n">
-        <v>1</v>
-      </c>
-      <c r="D128" t="n">
-        <v>62188.07</v>
-      </c>
-      <c r="E128" t="n">
-        <v>62188.07</v>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>Rissolar Pilar S.A.</t>
-        </is>
-      </c>
-      <c r="G128" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
-      </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I128" t="n">
-        <v>62188.07</v>
-      </c>
-      <c r="J128" t="n">
-        <v>62188.07</v>
-      </c>
-      <c r="K128" t="n">
-        <v>1</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>Cafe Soluble Arlistan Pack (12 x 170 Grs)</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="n">
-        <v>37120.66</v>
-      </c>
-      <c r="O128" t="n">
-        <v>37120.66</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>01/01/2025</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>Tomate Perita Cumana Lata x 2.93 Kg</t>
-        </is>
-      </c>
-      <c r="C129" t="n">
-        <v>6</v>
-      </c>
-      <c r="D129" t="n">
-        <v>6387.35</v>
-      </c>
-      <c r="E129" t="n">
-        <v>38324.1</v>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>Rissolar Pilar S.A.</t>
-        </is>
-      </c>
-      <c r="G129" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
-      </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I129" t="n">
-        <v>6387.35</v>
-      </c>
-      <c r="J129" t="n">
-        <v>38324.1</v>
-      </c>
-      <c r="K129" t="n">
-        <v>6</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>Tomate Perita Cumana Lata x 2.93 Kg</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>6</v>
-      </c>
-      <c r="N129" t="n">
-        <v>6387.35</v>
-      </c>
-      <c r="O129" t="n">
-        <v>38324.1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>01/01/2025</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>Hanna de Trigo 0000 Cañuelas Bolsa x 25 Kg</t>
-        </is>
-      </c>
-      <c r="C130" t="n">
-        <v>2</v>
-      </c>
-      <c r="D130" t="n">
-        <v>16376.6</v>
-      </c>
-      <c r="E130" t="n">
-        <v>32753.2</v>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>Rissolar Pilar S.A.</t>
-        </is>
-      </c>
-      <c r="G130" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
-      </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I130" t="n">
-        <v>16376.6</v>
-      </c>
-      <c r="J130" t="n">
-        <v>32753.2</v>
-      </c>
-      <c r="K130" t="n">
-        <v>2</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>Harina de Trigo 0000 Cañuelas Bolsa x 25 Kg</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>2</v>
-      </c>
-      <c r="N130" t="n">
-        <v>16376.6</v>
-      </c>
-      <c r="O130" t="n">
-        <v>32753.2</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>01/01/2025</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>Fideos Spaghetti Nº7 Lucchetti Paquete (20 x 300 Grs)</t>
-        </is>
-      </c>
-      <c r="C131" t="n">
-        <v>1</v>
-      </c>
-      <c r="D131" t="n">
-        <v>18010.62</v>
-      </c>
-      <c r="E131" t="n">
-        <v>18010.62</v>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>Rissolar Pilar S.A.</t>
-        </is>
-      </c>
-      <c r="G131" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
-      </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I131" t="n">
-        <v>18010.62</v>
-      </c>
-      <c r="J131" t="n">
-        <v>18010.62</v>
-      </c>
-      <c r="K131" t="n">
-        <v>1</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>Fideos Spaghetti No7 Lucchetti Paquete (20 x 500 Grs)</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="n">
-        <v>18010.62</v>
-      </c>
-      <c r="O131" t="n">
-        <v>18010.62</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>01/01/2025</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>Sal Fina Dos Anclas Paquete (12 x 500 Grs)</t>
-        </is>
-      </c>
-      <c r="C132" t="n">
-        <v>1</v>
-      </c>
-      <c r="D132" t="n">
-        <v>11113.6</v>
-      </c>
-      <c r="E132" t="n">
-        <v>11113.6</v>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>Rissolar Pilar S.A.</t>
-        </is>
-      </c>
-      <c r="G132" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
-      </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I132" t="n">
-        <v>11113.6</v>
-      </c>
-      <c r="J132" t="n">
-        <v>11113.6</v>
-      </c>
-      <c r="K132" t="n">
-        <v>1</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>Sal Fina Dos Anclas Paquete (12 x 500 Gis)</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="n">
-        <v>1113.6</v>
-      </c>
-      <c r="O132" t="n">
-        <v>1113.6</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>01/01/2025</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>Caldo de Verdura Granulado Knorr Caja (6 x 650 Grs)</t>
-        </is>
-      </c>
-      <c r="C133" t="n">
-        <v>1</v>
-      </c>
-      <c r="D133" t="n">
-        <v>57980.3</v>
-      </c>
-      <c r="E133" t="n">
-        <v>57980.3</v>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>Rissolar Pilar S.A.</t>
-        </is>
-      </c>
-      <c r="G133" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
-      </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I133" t="n">
-        <v>57980.3</v>
-      </c>
-      <c r="J133" t="n">
-        <v>57980.3</v>
-      </c>
-      <c r="K133" t="n">
-        <v>1</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>Caldo de Verdura Granulado Knorr Caja (6 x 650 Gr)</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="n">
-        <v>57980.3</v>
-      </c>
-      <c r="O133" t="n">
-        <v>57980.3</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>01/01/2025</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>Aceite Alto Oleico Vero Caja (2 x 10 Lts)</t>
-        </is>
-      </c>
-      <c r="C134" t="n">
-        <v>3</v>
-      </c>
-      <c r="D134" t="n">
-        <v>62032.32</v>
-      </c>
-      <c r="E134" t="n">
-        <v>186096.96</v>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>Rissolar Pilar S.A.</t>
-        </is>
-      </c>
-      <c r="G134" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
-      </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I134" t="n">
-        <v>62032.32</v>
-      </c>
-      <c r="J134" t="n">
-        <v>186096.96</v>
-      </c>
-      <c r="K134" t="n">
-        <v>3</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>Aceite Alto Oleico Vero Caja (2 x 10 Lts)</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>3</v>
-      </c>
-      <c r="N134" t="n">
-        <v>62032.32</v>
-      </c>
-      <c r="O134" t="n">
-        <v>186096.96</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>01/01/2025</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>Salsa Demi Glace Safra Bolsa x 480 Grs</t>
-        </is>
-      </c>
-      <c r="C135" t="n">
-        <v>2</v>
-      </c>
-      <c r="D135" t="n">
-        <v>7795.79</v>
-      </c>
-      <c r="E135" t="n">
-        <v>15591.58</v>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>Rissolar Pilar S.A.</t>
-        </is>
-      </c>
-      <c r="G135" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
-      </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I135" t="n">
-        <v>7795.79</v>
-      </c>
-      <c r="J135" t="n">
-        <v>15591.58</v>
-      </c>
-      <c r="K135" t="n">
-        <v>2</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>Salsa Demi-Glace Safra Bolsa x 480 Grs</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>2</v>
-      </c>
-      <c r="N135" t="n">
-        <v>7795.79</v>
-      </c>
-      <c r="O135" t="n">
-        <v>15591.58</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>01/01/2025</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>Nueces Mariposas Extra Light Cumana Bolsa x 1 Kg</t>
-        </is>
-      </c>
-      <c r="C136" t="n">
-        <v>1</v>
-      </c>
-      <c r="D136" t="n">
-        <v>21573.3</v>
-      </c>
-      <c r="E136" t="n">
-        <v>21573.3</v>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>Rissolar Pilar S.A.</t>
-        </is>
-      </c>
-      <c r="G136" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
-      </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I136" t="n">
-        <v>21573.3</v>
-      </c>
-      <c r="J136" t="n">
-        <v>21573.3</v>
-      </c>
-      <c r="K136" t="n">
-        <v>1</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>Nueces Mariposas Extra Light Cumana Bolsa x 1 Kg.</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="n">
-        <v>21573.3</v>
-      </c>
-      <c r="O136" t="n">
-        <v>21573.3</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>01/01/2025</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>Papa McCain Tradicional (6 x 2.5 Kg) (A11109)x</t>
-        </is>
-      </c>
-      <c r="C137" t="n">
-        <v>8</v>
-      </c>
-      <c r="D137" t="n">
-        <v>32902.53</v>
-      </c>
-      <c r="E137" t="n">
-        <v>263220.24</v>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>Rissolar Pilar S.A.</t>
-        </is>
-      </c>
-      <c r="G137" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
-      </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I137" t="n">
-        <v>32902.53</v>
-      </c>
-      <c r="J137" t="n">
-        <v>263220.24</v>
-      </c>
-      <c r="K137" t="n">
-        <v>8</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>Papa McCain Tradicional (6 x 2.5 Kg) (A11109)x</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>8</v>
-      </c>
-      <c r="N137" t="n">
-        <v>32902.53</v>
-      </c>
-      <c r="O137" t="n">
-        <v>263220.27</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>17/06/2025</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>Té Clásico Green Hills con sobre Pack (10 x 50 un)</t>
-        </is>
-      </c>
-      <c r="C138" t="n">
-        <v>18818.27</v>
-      </c>
-      <c r="D138" t="n">
-        <v>7.44</v>
-      </c>
-      <c r="E138" t="n">
-        <v>140007.93</v>
-      </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>GRATTINADO</t>
-        </is>
-      </c>
-      <c r="G138" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
-      </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>Diferencia de Precio</t>
-        </is>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="n">
-        <v>0</v>
-      </c>
-      <c r="K138" t="n">
-        <v>18818.27</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>Té Clasico Green Hills con sobre Pack (10 x 50 un)</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>6</v>
-      </c>
-      <c r="N138" t="n">
-        <v>18818.27</v>
-      </c>
-      <c r="O138" t="n">
-        <v>112909.62</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>28/05/2025</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>Cobertura de Chocolate Negro Amargo (87) Fenix Bolsa x 2,5 Kg</t>
-        </is>
-      </c>
-      <c r="C139" t="n">
-        <v>1</v>
-      </c>
-      <c r="D139" t="n">
-        <v>82945.66</v>
-      </c>
-      <c r="E139" t="n">
-        <v>82945.66</v>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>Mince Bar S.A.S</t>
-        </is>
-      </c>
-      <c r="G139" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
-      </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I139" t="n">
-        <v>82945.66</v>
-      </c>
-      <c r="J139" t="n">
-        <v>82945.66</v>
-      </c>
-      <c r="K139" t="n">
-        <v>1</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>Cobertura de Chocolate Negro Amargo (87) Fenix Bolsa x 2.5 Kg</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="n">
-        <v>82945.66</v>
-      </c>
-      <c r="O139" t="n">
-        <v>82945.66</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>28/05/2025</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>Crema de Leche (44%) Milkaut Balde 5 itríos</t>
-        </is>
-      </c>
-      <c r="C140" t="n">
-        <v>1</v>
-      </c>
-      <c r="D140" t="n">
-        <v>43401.18</v>
-      </c>
-      <c r="E140" t="n">
-        <v>43401.18</v>
-      </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>Mince Bar S.A.S</t>
-        </is>
-      </c>
-      <c r="G140" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
-      </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I140" t="n">
-        <v>43401.18</v>
-      </c>
-      <c r="J140" t="n">
-        <v>43401.18</v>
-      </c>
-      <c r="K140" t="n">
-        <v>1</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>Crema de Leche (44%) Milkaut Balde 5 litros.</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="n">
-        <v>43401.18</v>
-      </c>
-      <c r="O140" t="n">
-        <v>43401.18</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>28/05/2025</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>Queso Pategras Sandwich La Paulina Barra x 3,5 Kg</t>
-        </is>
-      </c>
-      <c r="C141" t="n">
-        <v>1</v>
-      </c>
-      <c r="D141" t="n">
-        <v>30173.08</v>
-      </c>
-      <c r="E141" t="n">
-        <v>30173.08</v>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>Mince Bar S.A.S</t>
-        </is>
-      </c>
-      <c r="G141" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
-      </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I141" t="n">
-        <v>30173.08</v>
-      </c>
-      <c r="J141" t="n">
-        <v>30173.08</v>
-      </c>
-      <c r="K141" t="n">
-        <v>1</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>Queso Pategras Sandwich La Paulina Barra x 3,5 Kg</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="n">
-        <v>30173.08</v>
-      </c>
-      <c r="O141" t="n">
-        <v>30173.08</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>28/05/2025</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>Ketchup Hellmann's Sobres Caja (196 x 8 gr)</t>
-        </is>
-      </c>
-      <c r="C142" t="n">
-        <v>2</v>
-      </c>
-      <c r="D142" t="n">
-        <v>11401.56</v>
-      </c>
-      <c r="E142" t="n">
-        <v>22803.12</v>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>Mince Bar S.A.S</t>
-        </is>
-      </c>
-      <c r="G142" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
-      </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I142" t="n">
-        <v>11401.56</v>
-      </c>
-      <c r="J142" t="n">
-        <v>22803.12</v>
-      </c>
-      <c r="K142" t="n">
-        <v>2</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>Ketchup Hellmann's Sobres Caja (196 x 8 gr)</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>2</v>
-      </c>
-      <c r="N142" t="n">
-        <v>11401.56</v>
-      </c>
-      <c r="O142" t="n">
-        <v>22803.12</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>28/05/2025</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>Salsa de Chocolate Lheritter Pomo x 500 Grs</t>
-        </is>
-      </c>
-      <c r="C143" t="n">
-        <v>2</v>
-      </c>
-      <c r="D143" t="n">
-        <v>2318.76</v>
-      </c>
-      <c r="E143" t="n">
-        <v>4637.52</v>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>Mince Bar S.A.S</t>
-        </is>
-      </c>
-      <c r="G143" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
-      </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I143" t="n">
-        <v>2318.76</v>
-      </c>
-      <c r="J143" t="n">
-        <v>4637.52</v>
-      </c>
-      <c r="K143" t="n">
-        <v>2</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>Salsa de Chocolate Lheritier Pomo x 500 Grs</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>2</v>
-      </c>
-      <c r="N143" t="n">
-        <v>2318.76</v>
-      </c>
-      <c r="O143" t="n">
-        <v>4637.52</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>28/05/2025</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>Salsa de Dulce de Leche Lheritter Pomo x 500 Grs</t>
-        </is>
-      </c>
-      <c r="C144" t="n">
-        <v>2</v>
-      </c>
-      <c r="D144" t="n">
-        <v>2318.76</v>
-      </c>
-      <c r="E144" t="n">
-        <v>4637.52</v>
-      </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>Mince Bar S.A.S</t>
-        </is>
-      </c>
-      <c r="G144" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
-      </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I144" t="n">
-        <v>2318.76</v>
-      </c>
-      <c r="J144" t="n">
-        <v>4637.52</v>
-      </c>
-      <c r="K144" t="n">
-        <v>2</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>Salsa de Dulce de Leche Lheritier Pomo x 500 Grs</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>2</v>
-      </c>
-      <c r="N144" t="n">
-        <v>2318.76</v>
-      </c>
-      <c r="O144" t="n">
-        <v>4637.52</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>28/05/2025</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>Azucar Impalpable Talco Lesarisi Bolsa x 1 Kg</t>
-        </is>
-      </c>
-      <c r="C145" t="n">
-        <v>2</v>
-      </c>
-      <c r="D145" t="n">
-        <v>1533.1</v>
-      </c>
-      <c r="E145" t="n">
-        <v>3066.2</v>
-      </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>Mince Bar S.A.S</t>
-        </is>
-      </c>
-      <c r="G145" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
-      </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I145" t="n">
-        <v>1533.1</v>
-      </c>
-      <c r="J145" t="n">
-        <v>3066.2</v>
-      </c>
-      <c r="K145" t="n">
-        <v>2</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>Azucar Impalpable Talco Lesansi Bolsa x 1 Kg</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>2</v>
-      </c>
-      <c r="N145" t="n">
-        <v>1533.1</v>
-      </c>
-      <c r="O145" t="n">
-        <v>3066.2</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>28/05/2025</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>Panko Blanco Nutripanko Bolsa x 1 Kg</t>
-        </is>
-      </c>
-      <c r="C146" t="n">
-        <v>2</v>
-      </c>
-      <c r="D146" t="n">
-        <v>6219.94</v>
-      </c>
-      <c r="E146" t="n">
-        <v>12439.88</v>
-      </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>Mince Bar S.A.S</t>
-        </is>
-      </c>
-      <c r="G146" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
-      </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I146" t="n">
-        <v>6219.94</v>
-      </c>
-      <c r="J146" t="n">
-        <v>12439.88</v>
-      </c>
-      <c r="K146" t="n">
-        <v>2</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>Panko Blanco Nutripanko Bolsa x 1 kg</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>2</v>
-      </c>
-      <c r="N146" t="n">
-        <v>6219.94</v>
-      </c>
-      <c r="O146" t="n">
-        <v>12439.88</v>
+        <v>2922.92</v>
       </c>
     </row>
   </sheetData>

--- a/BD extracciones.xlsx
+++ b/BD extracciones.xlsx
@@ -437,30 +437,29 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S105"/>
+  <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col width="10.5546875" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="10.5546875" customWidth="1" min="1" max="1"/>
     <col width="64.21875" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="8.5546875" bestFit="1" customWidth="1" style="3" min="3" max="3"/>
     <col width="9" customWidth="1" style="5" min="4" max="5"/>
     <col hidden="1" width="21.5546875" customWidth="1" min="6" max="6"/>
     <col hidden="1" width="17.5546875" customWidth="1" min="7" max="7"/>
-    <col width="18.109375" customWidth="1" min="8" max="8"/>
+    <col width="10.21875" customWidth="1" min="8" max="8"/>
     <col width="12.21875" customWidth="1" min="9" max="9"/>
-    <col width="11.109375" customWidth="1" min="10" max="10"/>
-    <col hidden="1" width="10" customWidth="1" min="11" max="11"/>
-    <col hidden="1" width="11.6640625" customWidth="1" min="12" max="12"/>
-    <col width="48.5546875" bestFit="1" customWidth="1" min="13" max="13"/>
-    <col width="7.21875" bestFit="1" customWidth="1" min="14" max="14"/>
+    <col width="10.77734375" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="7.88671875" bestFit="1" customWidth="1" min="11" max="11"/>
+    <col width="56" customWidth="1" min="12" max="12"/>
+    <col width="6.88671875" bestFit="1" customWidth="1" min="13" max="13"/>
+    <col width="11" bestFit="1" customWidth="1" min="14" max="14"/>
     <col width="11.21875" bestFit="1" customWidth="1" min="15" max="15"/>
-    <col width="11.109375" bestFit="1" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -526,35 +525,30 @@
       </c>
       <c r="M1" s="10" t="inlineStr">
         <is>
-          <t>Producto Gem</t>
+          <t>Q Gem</t>
         </is>
       </c>
       <c r="N1" s="10" t="inlineStr">
         <is>
-          <t>Q Gem</t>
+          <t>Precio Gem</t>
         </is>
       </c>
       <c r="O1" s="10" t="inlineStr">
         <is>
-          <t>Precio Gem</t>
+          <t>Total Gem</t>
         </is>
       </c>
       <c r="P1" s="10" t="inlineStr">
         <is>
-          <t>Total Gem</t>
+          <t>Dif Q</t>
         </is>
       </c>
       <c r="Q1" s="10" t="inlineStr">
         <is>
-          <t>Dif Q</t>
+          <t>Dif px</t>
         </is>
       </c>
       <c r="R1" s="10" t="inlineStr">
-        <is>
-          <t>Dif px</t>
-        </is>
-      </c>
-      <c r="S1" s="10" t="inlineStr">
         <is>
           <t>Dif Total</t>
         </is>
@@ -563,149 +557,143 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>20/05/2025</t>
+          <t>ECOM035</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Barritas de submarino Aguila Caja (24 x 14 gr)</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="D2" t="n">
-        <v>14946.31</v>
+        <v>2042.61</v>
       </c>
       <c r="E2" t="n">
-        <v>14946.31</v>
+        <v>81704.32000000001</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>GOURMAND S.A</t>
+          <t>Riba Al Rio</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Mayorista Net</t>
+          <t>Ajo</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>Diferencia de Precio</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>14946.31</v>
+        <v>81704.32000000001</v>
       </c>
       <c r="J2" t="n">
-        <v>14946.31</v>
+        <v>3268172.8</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Barritas de submarino Aguila Caja (24 x 14 gr)</t>
-        </is>
-      </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="n">
-        <v>14946.31</v>
-      </c>
-      <c r="O2" t="n">
-        <v>14946.31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>20/05/2025</t>
+          <t>ECOM035</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Queso Crema Milka ut Balde x 3.6 Kg</t>
+          <t>Harina</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="D3" t="n">
-        <v>40698.53</v>
+        <v>2042.61</v>
       </c>
       <c r="E3" t="n">
-        <v>81397.06</v>
+        <v>81704.32000000001</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>GOURMAND S.A</t>
+          <t>Riba Al Rio</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Mayorista Net</t>
+          <t>Ajo</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>Diferencia de Precio</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>40698.53</v>
+        <v>81704.32000000001</v>
       </c>
       <c r="J3" t="n">
-        <v>81397.06</v>
+        <v>3268172.8</v>
       </c>
       <c r="K3" t="n">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Queso Crema Milka ut Balde x 3.6 Kg</t>
-        </is>
-      </c>
-      <c r="M3" t="n">
-        <v>2</v>
-      </c>
-      <c r="N3" t="n">
-        <v>40698.53</v>
-      </c>
-      <c r="O3" t="n">
-        <v>81397.05</v>
+          <t>ECOM101</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>SALSA DE HAMBURGUESA</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>3626,17</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>7252,34</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20/05/2025</t>
+          <t>ECOM035</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Rebozador Preferido Bolsa x 5 Kg</t>
+          <t>Producto</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>8961.049999999999</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>8961.049999999999</v>
+        <v>0</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>GOURMAND S.A</t>
+          <t>Riba Al Rio Polo</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Mayorista Net</t>
+          <t>Ajo</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -714,175 +702,172 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>8961.049999999999</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>8961.049999999999</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Rebozador Preferido Bolsa x 5 Kg</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
+          <t>ECOM101</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>SALSA DE HAMBURGUESA</t>
+        </is>
       </c>
       <c r="N4" t="n">
-        <v>8961.049999999999</v>
+        <v>2</v>
       </c>
       <c r="O4" t="n">
-        <v>8961.049999999999</v>
+        <v>3626.17</v>
+      </c>
+      <c r="P4" t="n">
+        <v>7252.34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>01/01/2025</t>
+          <t>ECOM035</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Levadura Prensada Virgen Calsa Pan x 500 Gr</t>
+          <t>Producto</t>
         </is>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Riba Al Rio Polo</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Ajo</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>ECOM101</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>SALSA DE HAMBURGUESA</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
-        <v>3537.26</v>
-      </c>
-      <c r="E5" t="n">
-        <v>7074.52</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Rissolar Pilar S.A.</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>3537.26</v>
-      </c>
-      <c r="J5" t="n">
-        <v>7074.52</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>Levadura Prensada Virgen Calsa Pan x 500 Gr</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>2</v>
-      </c>
-      <c r="N5" t="n">
-        <v>3537.26</v>
-      </c>
       <c r="O5" t="n">
-        <v>7074.52</v>
+        <v>3626.17</v>
+      </c>
+      <c r="P5" t="n">
+        <v>7252.34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>01/01/2025</t>
+          <t>ECOM035</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Jamón Cocido Tradicional Campo Austral Pieza x 5 Kg</t>
+          <t>Producto</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4.92</v>
-      </c>
-      <c r="D6" t="n">
-        <v>10371.05</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>51025.57</v>
+        <v>0</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Rissolar Pilar S.A.</t>
+          <t>Riba Al Rio Polo</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Mayorista Net</t>
+          <t>Ajo</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Diferencia de Precio</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>10364.73</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>50994.47</v>
-      </c>
-      <c r="K6" t="n">
-        <v>4.92</v>
+        <v>0</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Jamon Cocido Tradicional Campo Austral Pieza x 5 Kg</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
+          <t>ECOM101</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>SALSA DE HAMBURGUESA</t>
+        </is>
       </c>
       <c r="N6" t="n">
-        <v>59358.44</v>
+        <v>2</v>
       </c>
       <c r="O6" t="n">
-        <v>59358.44</v>
+        <v>3626.17</v>
+      </c>
+      <c r="P6" t="n">
+        <v>7252.34</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>01/01/2025</t>
+          <t>ECOM035</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Queso Cheddar Fundido Milkaut Caja (2 x 3.5 Kg)</t>
+          <t>Producto</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>59358.44</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>59358.44</v>
+        <v>0</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Rissolar Pilar S.A.</t>
+          <t>Riba Al Rio Polo</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Mayorista Net</t>
+          <t>Ajo</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -891,175 +876,172 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>59358.44</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>59358.44</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Queso Cheddar Fundido Milkaut Caja (2 x 3.5 Kg)</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
+          <t>IND002</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Buzo para personal (M)</t>
+        </is>
       </c>
       <c r="N7" t="n">
-        <v>10364.73</v>
+        <v>3</v>
       </c>
       <c r="O7" t="n">
-        <v>10364.73</v>
+        <v>39900</v>
+      </c>
+      <c r="P7" t="n">
+        <v>119700</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>01/01/2025</t>
+          <t>ECOM035</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Queso Criña Milkaut Balde x 3.6 Kg</t>
+          <t>Producto</t>
         </is>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Riba Al Rio Polo</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Ajo</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>IND003</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Remera para personal (M)</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
-      <c r="D8" t="n">
-        <v>40698.53</v>
-      </c>
-      <c r="E8" t="n">
-        <v>40698.53</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Rissolar Pilar S.A.</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>40698.53</v>
-      </c>
-      <c r="J8" t="n">
-        <v>40698.53</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>Queso Crema Milka ut Balde x 3.6 Kg</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="n">
-        <v>40698.53</v>
-      </c>
       <c r="O8" t="n">
-        <v>40698.53</v>
+        <v>18500</v>
+      </c>
+      <c r="P8" t="n">
+        <v>18500</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>01/01/2025</t>
+          <t>ECOM035</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Panceta Ahumada Campo Austral Pieza x 2.2 Kg Aprox</t>
+          <t>Producto</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>11.51</v>
-      </c>
-      <c r="D9" t="n">
-        <v>13521.75</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>155635.38</v>
+        <v>0</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Rissolar Pilar S.A.</t>
+          <t>Riba Al Rio Polo</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Mayorista Net</t>
+          <t>Ajo</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Diferencia de Precio</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>13527.63</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>155703.02</v>
-      </c>
-      <c r="K9" t="n">
-        <v>11.51</v>
+        <v>0</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Panceta Ahumada Campo Austral Pieza x 2.2 Yo Aprox</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>6</v>
+          <t>ECOMO03</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Lorno Ahumado (Porcionado)</t>
+        </is>
       </c>
       <c r="N9" t="n">
-        <v>13527.63</v>
+        <v>1</v>
       </c>
       <c r="O9" t="n">
-        <v>155635.38</v>
+        <v>52554.75</v>
+      </c>
+      <c r="P9" t="n">
+        <v>52554.75</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>01/01/2025</t>
+          <t>ECOM035</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Pan Rallado Preferido Bolsa x 5 Kg</t>
+          <t>Producto</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
-      </c>
-      <c r="D10" t="n">
-        <v>8961.049999999999</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>17922.1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Rissolar Pilar S.A.</t>
+          <t>Riba Al Rio Polo</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Mayorista Net</t>
+          <t>Ajo</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1068,175 +1050,172 @@
         </is>
       </c>
       <c r="I10" t="n">
-        <v>8961.049999999999</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>17922.1</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Pan Rallado Preferido Bolsa x 5 Kg</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>2</v>
+          <t>ECOM004</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Pollo Ahumado (para Caesar)</t>
+        </is>
       </c>
       <c r="N10" t="n">
-        <v>8961.049999999999</v>
+        <v>1</v>
       </c>
       <c r="O10" t="n">
-        <v>17922.1</v>
+        <v>17600.75</v>
+      </c>
+      <c r="P10" t="n">
+        <v>17600.75</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>01/01/2025</t>
+          <t>ECOM035</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Galletitas Chocolipas Bagley Caja (25 x 250 Grs)</t>
+          <t>Producto</t>
         </is>
       </c>
       <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Riba Al Rio Polo</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Ajo</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>ECOM007</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>Salsa lomo / beef</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
-      <c r="D11" t="n">
-        <v>37120.66</v>
-      </c>
-      <c r="E11" t="n">
-        <v>37120.66</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Rissolar Pilar S.A.</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
-        <v>37120.66</v>
-      </c>
-      <c r="J11" t="n">
-        <v>37120.66</v>
-      </c>
-      <c r="K11" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>Galietitas Chocolinas Bagley Caja (25 x 250 Grs)</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="n">
-        <v>37120.66</v>
-      </c>
       <c r="O11" t="n">
-        <v>37120.66</v>
+        <v>3448.1</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3448.1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>01/01/2025</t>
+          <t>ECOM035</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Cafe Soluble Arlistan Pack (12 x 170 Grs)</t>
+          <t>Producto</t>
         </is>
       </c>
       <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Riba Al Rio Polo</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Ajo</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>ECOM017</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Aderezo Caesar</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
-      <c r="D12" t="n">
-        <v>62188.07</v>
-      </c>
-      <c r="E12" t="n">
-        <v>62188.07</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Rissolar Pilar S.A.</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
-        <v>62188.07</v>
-      </c>
-      <c r="J12" t="n">
-        <v>62188.07</v>
-      </c>
-      <c r="K12" t="n">
-        <v>1</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>Cafe Soluble Arlistan Pack (12 x 170 Grs)</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="n">
-        <v>62188.07</v>
-      </c>
       <c r="O12" t="n">
-        <v>62188.07</v>
+        <v>4769.07</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4769.07</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>01/01/2025</t>
+          <t>ECOM035</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Tomate Perita Cumana Lata x 2.93 Kg</t>
+          <t>Producto</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>6</v>
-      </c>
-      <c r="D13" t="n">
-        <v>6387.35</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>38324.1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Rissolar Pilar S.A.</t>
+          <t>Riba Al Rio Polo</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Mayorista Net</t>
+          <t>Ajo</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1245,57 +1224,56 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>6387.35</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>38324.1</v>
-      </c>
-      <c r="K13" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Tomate Perita Cumana Lata x 2.93 Kg</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>6</v>
+          <t>ECOM036</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Bbq Black</t>
+        </is>
       </c>
       <c r="N13" t="n">
-        <v>6387.35</v>
+        <v>1</v>
       </c>
       <c r="O13" t="n">
-        <v>38324.1</v>
+        <v>3970.61</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3970.61</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>01/01/2025</t>
+          <t>ECOM035</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Hanna de Trigo 0000 Cañuelas Bolsa x 25 Kg</t>
+          <t>Producto</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
-      </c>
-      <c r="D14" t="n">
-        <v>16376.6</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>32753.2</v>
+        <v>0</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Rissolar Pilar S.A.</t>
+          <t>Riba Al Rio Polo</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Mayorista Net</t>
+          <t>Ajo</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1304,4798 +1282,497 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>16376.6</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>32753.2</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Harina de Trigo 0000 Cañuelas Bolsa x 25 Kg</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>2</v>
+          <t>ECOM037</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Salsa Coleslaw</t>
+        </is>
       </c>
       <c r="N14" t="n">
-        <v>16376.6</v>
+        <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>32753.2</v>
+        <v>4062.36</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4062.36</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>01/01/2025</t>
+          <t>ECOM035</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Fideos Spaghetti Nº7 Lucchetti Paquete (20 x 300 Grs)</t>
+          <t>Producto</t>
         </is>
       </c>
       <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Riba Al Rio Polo</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Ajo</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>ECOM012</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>Cebolla encurtida seca</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
-      <c r="D15" t="n">
-        <v>18010.62</v>
-      </c>
-      <c r="E15" t="n">
-        <v>18010.62</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Rissolar Pilar S.A.</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
-        <v>18010.62</v>
-      </c>
-      <c r="J15" t="n">
-        <v>18010.62</v>
-      </c>
-      <c r="K15" t="n">
-        <v>1</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>Fideos Spaghetti No7 Lucchetti Paquete (20 x 500 Grs)</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="n">
-        <v>18010.62</v>
-      </c>
       <c r="O15" t="n">
-        <v>18010.62</v>
+        <v>2324.53</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2324.53</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>01/01/2025</t>
+          <t>ECOM035</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Sal Fina Dos Anclas Paquete (12 x 500 Grs)</t>
+          <t>Producto</t>
         </is>
       </c>
       <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Riba Al Rio Polo</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Ajo</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>ECOM013</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>Cebolla caramelizada</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
-      <c r="D16" t="n">
-        <v>11113.6</v>
-      </c>
-      <c r="E16" t="n">
-        <v>11113.6</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Rissolar Pilar S.A.</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
-        <v>11113.6</v>
-      </c>
-      <c r="J16" t="n">
-        <v>11113.6</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="O16" t="n">
+        <v>8355.4</v>
+      </c>
+      <c r="P16" t="n">
+        <v>8355.4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>ECOM101</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>SALSA DE HAMBURGUESA</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
+        <v>2</v>
+      </c>
+      <c r="O17" t="n">
+        <v>3626.17</v>
+      </c>
+      <c r="P17" t="n">
+        <v>7252.34</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr"/>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>IND002</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>Buzo para personal (M)</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
+        <v>3</v>
+      </c>
+      <c r="O18" t="n">
+        <v>39900</v>
+      </c>
+      <c r="P18" t="n">
+        <v>119700</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>IND003</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>Remera para personal (M)</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>Sal Fina Dos Anclas Paquete (12 x 500 Gis)</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
+      <c r="O19" t="n">
+        <v>18500</v>
+      </c>
+      <c r="P19" t="n">
+        <v>18500</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>ECOMO03</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>Lorno Ahumado (Porcionado)</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
-      <c r="N16" t="n">
-        <v>1113.6</v>
-      </c>
-      <c r="O16" t="n">
-        <v>11113.6</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>01/01/2025</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Caldo de Verdura Granulado Knorr Caja (6 x 650 Grs)</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
+      <c r="O20" t="n">
+        <v>52554.75</v>
+      </c>
+      <c r="P20" t="n">
+        <v>52554.75</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>ECOM004</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>Pollo Ahumado (para Caesar)</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
-      <c r="D17" t="n">
-        <v>57980.3</v>
-      </c>
-      <c r="E17" t="n">
-        <v>57980.3</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Rissolar Pilar S.A.</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
-        <v>57980.3</v>
-      </c>
-      <c r="J17" t="n">
-        <v>57980.3</v>
-      </c>
-      <c r="K17" t="n">
+      <c r="O21" t="n">
+        <v>17600.75</v>
+      </c>
+      <c r="P21" t="n">
+        <v>17600.75</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>ECOM007</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>Salsa lomo / beef</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>Caldo de Verdura Granulado Knorr Caja (6 x 650 Gr)</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
+      <c r="O22" t="n">
+        <v>3448.1</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3448.1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr"/>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>ECOM017</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>Aderezo Caesar</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
-      <c r="N17" t="n">
-        <v>57980.3</v>
-      </c>
-      <c r="O17" t="n">
-        <v>57980.3</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>01/01/2025</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Aceite Alto Oleico Vero Caja (2 x 10 Lts)</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>3</v>
-      </c>
-      <c r="D18" t="n">
-        <v>62032.32</v>
-      </c>
-      <c r="E18" t="n">
-        <v>186096.96</v>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Rissolar Pilar S.A.</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
-        <v>62032.32</v>
-      </c>
-      <c r="J18" t="n">
-        <v>186096.96</v>
-      </c>
-      <c r="K18" t="n">
-        <v>3</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>Aceite Alto Oleico Vero Caja (2 x 10 Lts)</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>3</v>
-      </c>
-      <c r="N18" t="n">
-        <v>62032.32</v>
-      </c>
-      <c r="O18" t="n">
-        <v>186096.96</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>01/01/2025</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Salsa Demi Glace Safra Bolsa x 480 Grs</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>2</v>
-      </c>
-      <c r="D19" t="n">
-        <v>7795.79</v>
-      </c>
-      <c r="E19" t="n">
-        <v>15591.58</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Rissolar Pilar S.A.</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
-        <v>7795.79</v>
-      </c>
-      <c r="J19" t="n">
-        <v>15591.58</v>
-      </c>
-      <c r="K19" t="n">
-        <v>2</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>Salsa Demi-Glace Safra Bolsa x 480 Grs</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>2</v>
-      </c>
-      <c r="N19" t="n">
-        <v>7795.79</v>
-      </c>
-      <c r="O19" t="n">
-        <v>15591.58</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>01/01/2025</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Nueces Mariposas Extra Light Cumana Bolsa x 1 Kg</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
+      <c r="O23" t="n">
+        <v>4769.07</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4769.07</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>ECOM036</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>Bbq Black</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
-      <c r="D20" t="n">
-        <v>21573.3</v>
-      </c>
-      <c r="E20" t="n">
-        <v>21573.3</v>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Rissolar Pilar S.A.</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
-        <v>21573.3</v>
-      </c>
-      <c r="J20" t="n">
-        <v>21573.3</v>
-      </c>
-      <c r="K20" t="n">
+      <c r="O24" t="n">
+        <v>3970.61</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3970.61</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>ECOM037</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>Salsa Coleslaw</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>Nueces Mariposas Extra Light Cumana Bolsa x 1 Kg.</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
+      <c r="O25" t="n">
+        <v>4062.36</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4062.36</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr"/>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>ECOM012</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>Cebolla encurtida seca</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
-      <c r="N20" t="n">
-        <v>21573.3</v>
-      </c>
-      <c r="O20" t="n">
-        <v>21573.3</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>01/01/2025</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Papa McCain Tradicional (6 x 2.5 Kg) (A11109)x</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>8</v>
-      </c>
-      <c r="D21" t="n">
-        <v>32902.53</v>
-      </c>
-      <c r="E21" t="n">
-        <v>263220.24</v>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Rissolar Pilar S.A.</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
-        <v>32902.53</v>
-      </c>
-      <c r="J21" t="n">
-        <v>263220.24</v>
-      </c>
-      <c r="K21" t="n">
-        <v>8</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>Papa McCain Tradicional (6 x 2.5 Kg) (A11109)x</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>8</v>
-      </c>
-      <c r="N21" t="n">
-        <v>32902.53</v>
-      </c>
-      <c r="O21" t="n">
-        <v>263220.27</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>21/05/2025</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Chocolate Blanco Cobertura (90) Fenix Bolsa x 2.5 Kg</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
+      <c r="O26" t="n">
+        <v>2324.53</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2324.53</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr"/>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>ECOM013</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>Cebolla caramelizada</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
-      <c r="D22" t="n">
-        <v>65912.17999999999</v>
-      </c>
-      <c r="E22" t="n">
-        <v>65912.17999999999</v>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Mojama SA</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
-        <v>65912.17999999999</v>
-      </c>
-      <c r="J22" t="n">
-        <v>65912.17999999999</v>
-      </c>
-      <c r="K22" t="n">
-        <v>1</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>Chocolate Blanco Cobertura (90) Fenix Bolsa x 2.5 Kg</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="n">
-        <v>65912.17999999999</v>
-      </c>
-      <c r="O22" t="n">
-        <v>65912.17999999999</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>21/05/2025</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Pan Rallado Prefendo Bolsa x 5 Kg</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" t="n">
-        <v>8961.049999999999</v>
-      </c>
-      <c r="E23" t="n">
-        <v>8961.049999999999</v>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Mojama SA</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
-        <v>8961.049999999999</v>
-      </c>
-      <c r="J23" t="n">
-        <v>8961.049999999999</v>
-      </c>
-      <c r="K23" t="n">
-        <v>1</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>Pan Rallado Preferido Bolsa x 5 Kg</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="n">
-        <v>8961.049999999999</v>
-      </c>
-      <c r="O23" t="n">
-        <v>8961.049999999999</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>21/05/2025</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Chip de Chocolate Semiamargo (9641) Aguila Caja x 10 Kg</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>1</v>
-      </c>
-      <c r="D24" t="n">
-        <v>56017.25</v>
-      </c>
-      <c r="E24" t="n">
-        <v>56017.25</v>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Mojama SA</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
-        <v>56017.25</v>
-      </c>
-      <c r="J24" t="n">
-        <v>56017.25</v>
-      </c>
-      <c r="K24" t="n">
-        <v>1</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>Chip de Chocolate Semiamargo (9641) Aguila Caja x 10 Kg</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="n">
-        <v>56017.25</v>
-      </c>
-      <c r="O24" t="n">
-        <v>56017.25</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>17/06/2025</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Té Clásico Green Hills con sobre Pack (10 x 50 un)</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>18818.27</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>GRATTINADO</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v/>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>Té Clasico Green Hills con sobre Pack (10 x 50 un)</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>6</v>
-      </c>
-      <c r="N25" t="n">
-        <v>18818.27</v>
-      </c>
-      <c r="O25" t="n">
-        <v>112909.62</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v/>
-      </c>
-      <c r="B26" t="n">
-        <v/>
-      </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v/>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v/>
-      </c>
-      <c r="G26" t="n">
-        <v/>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v/>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>Ketchup Hellmann's Sobres Caja (196 x 8 gr)</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>3</v>
-      </c>
-      <c r="N26" t="n">
-        <v>11401.56</v>
-      </c>
-      <c r="O26" t="n">
-        <v>34204.68</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v/>
-      </c>
-      <c r="B27" t="n">
-        <v/>
-      </c>
-      <c r="C27" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" t="n">
-        <v/>
-      </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
-        <v/>
-      </c>
-      <c r="G27" t="n">
-        <v/>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
-        <v/>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>Mayonesa Hellmann's Sobres Caja (196 x 7.6 gr)</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>2</v>
-      </c>
-      <c r="N27" t="n">
-        <v>11363.08</v>
-      </c>
       <c r="O27" t="n">
-        <v>22726.16</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v/>
-      </c>
-      <c r="B28" t="n">
-        <v/>
-      </c>
-      <c r="C28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" t="n">
-        <v/>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v/>
-      </c>
-      <c r="G28" t="n">
-        <v/>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v/>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>Atun al Natural Lomito Cumana Lata x 170 Grs</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="n">
-        <v>1755.72</v>
-      </c>
-      <c r="O28" t="n">
-        <v>8778.6</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v/>
-      </c>
-      <c r="B29" t="n">
-        <v/>
-      </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v/>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v/>
-      </c>
-      <c r="G29" t="n">
-        <v/>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v/>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>Harina de Trigo 0000 Morixe Paquete (10 x 1 Kg)</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>5</v>
-      </c>
-      <c r="N29" t="n">
-        <v>8640.17</v>
-      </c>
-      <c r="O29" t="n">
-        <v>8640.17</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v/>
-      </c>
-      <c r="B30" t="n">
-        <v/>
-      </c>
-      <c r="C30" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" t="n">
-        <v/>
-      </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
-        <v/>
-      </c>
-      <c r="G30" t="n">
-        <v/>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
-        <v/>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>Papa McCain Crinkle (5 x 2.5 Kg) (06570)</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>10</v>
-      </c>
-      <c r="N30" t="n">
-        <v>52127.51</v>
-      </c>
-      <c r="O30" t="n">
-        <v>521275.07</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v/>
-      </c>
-      <c r="B31" t="n">
-        <v/>
-      </c>
-      <c r="C31" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" t="n">
-        <v/>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v/>
-      </c>
-      <c r="G31" t="n">
-        <v/>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v/>
-      </c>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v/>
-      </c>
-      <c r="B32" t="n">
-        <v/>
-      </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" t="n">
-        <v/>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v/>
-      </c>
-      <c r="G32" t="n">
-        <v/>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v/>
-      </c>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v/>
-      </c>
-      <c r="B33" t="n">
-        <v/>
-      </c>
-      <c r="C33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D33" t="n">
-        <v/>
-      </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
-        <v/>
-      </c>
-      <c r="G33" t="n">
-        <v/>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
-        <v/>
-      </c>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v/>
-      </c>
-      <c r="B34" t="n">
-        <v/>
-      </c>
-      <c r="C34" t="n">
-        <v>0</v>
-      </c>
-      <c r="D34" t="n">
-        <v/>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
-        <v/>
-      </c>
-      <c r="G34" t="n">
-        <v/>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v/>
-      </c>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v/>
-      </c>
-      <c r="B35" t="n">
-        <v/>
-      </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" t="n">
-        <v/>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v/>
-      </c>
-      <c r="G35" t="n">
-        <v/>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v/>
-      </c>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
-      <c r="O35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v/>
-      </c>
-      <c r="B36" t="n">
-        <v/>
-      </c>
-      <c r="C36" t="n">
-        <v>0</v>
-      </c>
-      <c r="D36" t="n">
-        <v/>
-      </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
-        <v/>
-      </c>
-      <c r="G36" t="n">
-        <v/>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
-        <v/>
-      </c>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v/>
-      </c>
-      <c r="B37" t="n">
-        <v/>
-      </c>
-      <c r="C37" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" t="n">
-        <v/>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v/>
-      </c>
-      <c r="G37" t="n">
-        <v/>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v/>
-      </c>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v/>
-      </c>
-      <c r="B38" t="n">
-        <v/>
-      </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="n">
-        <v/>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v/>
-      </c>
-      <c r="G38" t="n">
-        <v/>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v/>
-      </c>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
-      <c r="O38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v/>
-      </c>
-      <c r="B39" t="n">
-        <v/>
-      </c>
-      <c r="C39" t="n">
-        <v>0</v>
-      </c>
-      <c r="D39" t="n">
-        <v/>
-      </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
-        <v/>
-      </c>
-      <c r="G39" t="n">
-        <v/>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
-        <v/>
-      </c>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
-      <c r="O39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v/>
-      </c>
-      <c r="B40" t="n">
-        <v/>
-      </c>
-      <c r="C40" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" t="n">
-        <v/>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v/>
-      </c>
-      <c r="G40" t="n">
-        <v/>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v/>
-      </c>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
-      <c r="O40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v/>
-      </c>
-      <c r="B41" t="n">
-        <v/>
-      </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" t="n">
-        <v/>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v/>
-      </c>
-      <c r="G41" t="n">
-        <v/>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v/>
-      </c>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
-      <c r="O41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v/>
-      </c>
-      <c r="B42" t="n">
-        <v/>
-      </c>
-      <c r="C42" t="n">
-        <v>0</v>
-      </c>
-      <c r="D42" t="n">
-        <v/>
-      </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
-        <v/>
-      </c>
-      <c r="G42" t="n">
-        <v/>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
-        <v/>
-      </c>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr"/>
-      <c r="O42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v/>
-      </c>
-      <c r="B43" t="n">
-        <v/>
-      </c>
-      <c r="C43" t="n">
-        <v>0</v>
-      </c>
-      <c r="D43" t="n">
-        <v/>
-      </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
-        <v/>
-      </c>
-      <c r="G43" t="n">
-        <v/>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v/>
-      </c>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr"/>
-      <c r="O43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v/>
-      </c>
-      <c r="B44" t="n">
-        <v/>
-      </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" t="n">
-        <v/>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v/>
-      </c>
-      <c r="G44" t="n">
-        <v/>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v/>
-      </c>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr"/>
-      <c r="O44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v/>
-      </c>
-      <c r="B45" t="n">
-        <v/>
-      </c>
-      <c r="C45" t="n">
-        <v>0</v>
-      </c>
-      <c r="D45" t="n">
-        <v/>
-      </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
-        <v/>
-      </c>
-      <c r="G45" t="n">
-        <v/>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
-        <v/>
-      </c>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr"/>
-      <c r="O45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v/>
-      </c>
-      <c r="B46" t="n">
-        <v/>
-      </c>
-      <c r="C46" t="n">
-        <v>0</v>
-      </c>
-      <c r="D46" t="n">
-        <v/>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v/>
-      </c>
-      <c r="G46" t="n">
-        <v/>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v/>
-      </c>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="inlineStr"/>
-      <c r="O46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v/>
-      </c>
-      <c r="B47" t="n">
-        <v/>
-      </c>
-      <c r="C47" t="n">
-        <v>0</v>
-      </c>
-      <c r="D47" t="n">
-        <v/>
-      </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
-        <v/>
-      </c>
-      <c r="G47" t="n">
-        <v/>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
-        <v/>
-      </c>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr"/>
-      <c r="O47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v/>
-      </c>
-      <c r="B48" t="n">
-        <v/>
-      </c>
-      <c r="C48" t="n">
-        <v>0</v>
-      </c>
-      <c r="D48" t="n">
-        <v/>
-      </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
-        <v/>
-      </c>
-      <c r="G48" t="n">
-        <v/>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="n">
-        <v/>
-      </c>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr"/>
-      <c r="O48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v/>
-      </c>
-      <c r="B49" t="n">
-        <v/>
-      </c>
-      <c r="C49" t="n">
-        <v>0</v>
-      </c>
-      <c r="D49" t="n">
-        <v/>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
-        <v/>
-      </c>
-      <c r="G49" t="n">
-        <v/>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="n">
-        <v/>
-      </c>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr"/>
-      <c r="O49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v/>
-      </c>
-      <c r="B50" t="n">
-        <v/>
-      </c>
-      <c r="C50" t="n">
-        <v>0</v>
-      </c>
-      <c r="D50" t="n">
-        <v/>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
-        <v/>
-      </c>
-      <c r="G50" t="n">
-        <v/>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="n">
-        <v/>
-      </c>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="inlineStr"/>
-      <c r="O50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v/>
-      </c>
-      <c r="B51" t="n">
-        <v/>
-      </c>
-      <c r="C51" t="n">
-        <v>0</v>
-      </c>
-      <c r="D51" t="n">
-        <v/>
-      </c>
-      <c r="E51" t="n">
-        <v>0</v>
-      </c>
-      <c r="F51" t="n">
-        <v/>
-      </c>
-      <c r="G51" t="n">
-        <v/>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
-      <c r="K51" t="n">
-        <v/>
-      </c>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
-      <c r="O51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v/>
-      </c>
-      <c r="B52" t="n">
-        <v/>
-      </c>
-      <c r="C52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D52" t="n">
-        <v/>
-      </c>
-      <c r="E52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F52" t="n">
-        <v/>
-      </c>
-      <c r="G52" t="n">
-        <v/>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
-      <c r="K52" t="n">
-        <v/>
-      </c>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
-      <c r="O52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v/>
-      </c>
-      <c r="B53" t="n">
-        <v/>
-      </c>
-      <c r="C53" t="n">
-        <v>0</v>
-      </c>
-      <c r="D53" t="n">
-        <v/>
-      </c>
-      <c r="E53" t="n">
-        <v>0</v>
-      </c>
-      <c r="F53" t="n">
-        <v/>
-      </c>
-      <c r="G53" t="n">
-        <v/>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K53" t="n">
-        <v/>
-      </c>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
-      <c r="O53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v/>
-      </c>
-      <c r="B54" t="n">
-        <v/>
-      </c>
-      <c r="C54" t="n">
-        <v>0</v>
-      </c>
-      <c r="D54" t="n">
-        <v/>
-      </c>
-      <c r="E54" t="n">
-        <v>0</v>
-      </c>
-      <c r="F54" t="n">
-        <v/>
-      </c>
-      <c r="G54" t="n">
-        <v/>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
-      <c r="K54" t="n">
-        <v/>
-      </c>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
-      <c r="O54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v/>
-      </c>
-      <c r="B55" t="n">
-        <v/>
-      </c>
-      <c r="C55" t="n">
-        <v>0</v>
-      </c>
-      <c r="D55" t="n">
-        <v/>
-      </c>
-      <c r="E55" t="n">
-        <v>0</v>
-      </c>
-      <c r="F55" t="n">
-        <v/>
-      </c>
-      <c r="G55" t="n">
-        <v/>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
-      <c r="K55" t="n">
-        <v/>
-      </c>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr"/>
-      <c r="O55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v/>
-      </c>
-      <c r="B56" t="n">
-        <v/>
-      </c>
-      <c r="C56" t="n">
-        <v>0</v>
-      </c>
-      <c r="D56" t="n">
-        <v/>
-      </c>
-      <c r="E56" t="n">
-        <v>0</v>
-      </c>
-      <c r="F56" t="n">
-        <v/>
-      </c>
-      <c r="G56" t="n">
-        <v/>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
-      <c r="K56" t="n">
-        <v/>
-      </c>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr"/>
-      <c r="O56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v/>
-      </c>
-      <c r="B57" t="n">
-        <v/>
-      </c>
-      <c r="C57" t="n">
-        <v>0</v>
-      </c>
-      <c r="D57" t="n">
-        <v/>
-      </c>
-      <c r="E57" t="n">
-        <v>0</v>
-      </c>
-      <c r="F57" t="n">
-        <v/>
-      </c>
-      <c r="G57" t="n">
-        <v/>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
-      <c r="K57" t="n">
-        <v/>
-      </c>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr"/>
-      <c r="O57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v/>
-      </c>
-      <c r="B58" t="n">
-        <v/>
-      </c>
-      <c r="C58" t="n">
-        <v>0</v>
-      </c>
-      <c r="D58" t="n">
-        <v/>
-      </c>
-      <c r="E58" t="n">
-        <v>0</v>
-      </c>
-      <c r="F58" t="n">
-        <v/>
-      </c>
-      <c r="G58" t="n">
-        <v/>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
-      <c r="K58" t="n">
-        <v/>
-      </c>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr"/>
-      <c r="O58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v/>
-      </c>
-      <c r="B59" t="n">
-        <v/>
-      </c>
-      <c r="C59" t="n">
-        <v>0</v>
-      </c>
-      <c r="D59" t="n">
-        <v/>
-      </c>
-      <c r="E59" t="n">
-        <v>0</v>
-      </c>
-      <c r="F59" t="n">
-        <v/>
-      </c>
-      <c r="G59" t="n">
-        <v/>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
-      <c r="K59" t="n">
-        <v/>
-      </c>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr"/>
-      <c r="O59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v/>
-      </c>
-      <c r="B60" t="n">
-        <v/>
-      </c>
-      <c r="C60" t="n">
-        <v>0</v>
-      </c>
-      <c r="D60" t="n">
-        <v/>
-      </c>
-      <c r="E60" t="n">
-        <v>0</v>
-      </c>
-      <c r="F60" t="n">
-        <v/>
-      </c>
-      <c r="G60" t="n">
-        <v/>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
-      <c r="K60" t="n">
-        <v/>
-      </c>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr"/>
-      <c r="O60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v/>
-      </c>
-      <c r="B61" t="n">
-        <v/>
-      </c>
-      <c r="C61" t="n">
-        <v>0</v>
-      </c>
-      <c r="D61" t="n">
-        <v/>
-      </c>
-      <c r="E61" t="n">
-        <v>0</v>
-      </c>
-      <c r="F61" t="n">
-        <v/>
-      </c>
-      <c r="G61" t="n">
-        <v/>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
-      <c r="K61" t="n">
-        <v/>
-      </c>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr"/>
-      <c r="O61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>13/06/2025</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Queso Mozzarella La Paulina Barra x 3,5 Kg ($ x unidad)</t>
-        </is>
-      </c>
-      <c r="C62" t="n">
-        <v>3</v>
-      </c>
-      <c r="D62" t="n">
-        <v>24999.99</v>
-      </c>
-      <c r="E62" t="n">
-        <v>74999.97</v>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Rabble S.A</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
-        <v>24999.99</v>
-      </c>
-      <c r="J62" t="n">
-        <v>74999.97</v>
-      </c>
-      <c r="K62" t="n">
-        <v>3</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>Queso Mozzarella La Paulina Barra x 3,5 Kg</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>3</v>
-      </c>
-      <c r="N62" t="n">
-        <v>24999.99</v>
-      </c>
-      <c r="O62" t="n">
-        <v>74999.96000000001</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>13/06/2025</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Pan Rallado Preferido Bolsa x 5 Kg</t>
-        </is>
-      </c>
-      <c r="C63" t="n">
-        <v>1</v>
-      </c>
-      <c r="D63" t="n">
-        <v>8961.049999999999</v>
-      </c>
-      <c r="E63" t="n">
-        <v>8961.049999999999</v>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Rabble S.A</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
-        <v>8961.049999999999</v>
-      </c>
-      <c r="J63" t="n">
-        <v>8961.049999999999</v>
-      </c>
-      <c r="K63" t="n">
-        <v>1</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>Pan Rallado Preferido Bolsa x 5 Kg</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="n">
-        <v>8961.049999999999</v>
-      </c>
-      <c r="O63" t="n">
-        <v>8961.049999999999</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>13/06/2025</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Harina de Trigo 0000 Chacabuco Bolsa x 25 Kg</t>
-        </is>
-      </c>
-      <c r="C64" t="n">
-        <v>1</v>
-      </c>
-      <c r="D64" t="n">
-        <v>17435.43</v>
-      </c>
-      <c r="E64" t="n">
-        <v>17435.43</v>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Rabble S.A</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
-        <v>17435.43</v>
-      </c>
-      <c r="J64" t="n">
-        <v>17435.43</v>
-      </c>
-      <c r="K64" t="n">
-        <v>1</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>Harina de Trigo 0000 Chacabuco Bolsa x 25 Kg</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="n">
-        <v>17435.43</v>
-      </c>
-      <c r="O64" t="n">
-        <v>17435.43</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>13/06/2025</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Harina de Trigo 0000 Chacabuco Bolsa x 25 Kg</t>
-        </is>
-      </c>
-      <c r="C65" t="n">
-        <v>1</v>
-      </c>
-      <c r="D65" t="n">
-        <v>14329.53</v>
-      </c>
-      <c r="E65" t="n">
-        <v>14329.53</v>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Rabble S.A</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
-        <v>14329.53</v>
-      </c>
-      <c r="J65" t="n">
-        <v>14329.53</v>
-      </c>
-      <c r="K65" t="n">
-        <v>1</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>Harina de Trigo 000 Chacabuco Bolsa x 25 Kg</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="n">
-        <v>14329.53</v>
-      </c>
-      <c r="O65" t="n">
-        <v>14329.53</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>13/06/2025</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Pasta de Maní Oddi's Frasco x 350 Gr</t>
-        </is>
-      </c>
-      <c r="C66" t="n">
-        <v>5</v>
-      </c>
-      <c r="D66" t="n">
-        <v>3066.7</v>
-      </c>
-      <c r="E66" t="n">
-        <v>15333.5</v>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Rabble S.A</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
-        <v>3066.7</v>
-      </c>
-      <c r="J66" t="n">
-        <v>15333.5</v>
-      </c>
-      <c r="K66" t="n">
-        <v>5</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>Pasta de Mani Oddi's Frasco x 350 Gr</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>5</v>
-      </c>
-      <c r="N66" t="n">
-        <v>3066.7</v>
-      </c>
-      <c r="O66" t="n">
-        <v>15333.5</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>28/05/2025</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Cobertura de Chocolate Negro Amargo (87) Fenix Bolsa x 2,5 Kg</t>
-        </is>
-      </c>
-      <c r="C67" t="n">
-        <v>1</v>
-      </c>
-      <c r="D67" t="n">
-        <v>82945.66</v>
-      </c>
-      <c r="E67" t="n">
-        <v>82945.66</v>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Mince Bar S.A.S</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
-        <v>82945.66</v>
-      </c>
-      <c r="J67" t="n">
-        <v>82945.66</v>
-      </c>
-      <c r="K67" t="n">
-        <v>1</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>Cobertura de Chocolate Negro Amargo (87) Fenix Bolsa x 2.5 Kg</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="n">
-        <v>82945.66</v>
-      </c>
-      <c r="O67" t="n">
-        <v>82945.66</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>28/05/2025</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Crema de Leche (44%) Milkaut Balde 5 itríos</t>
-        </is>
-      </c>
-      <c r="C68" t="n">
-        <v>1</v>
-      </c>
-      <c r="D68" t="n">
-        <v>43401.18</v>
-      </c>
-      <c r="E68" t="n">
-        <v>43401.18</v>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Mince Bar S.A.S</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
-        <v>43401.18</v>
-      </c>
-      <c r="J68" t="n">
-        <v>43401.18</v>
-      </c>
-      <c r="K68" t="n">
-        <v>1</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>Crema de Leche (44%) Milkaut Balde 5 litros.</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="n">
-        <v>43401.18</v>
-      </c>
-      <c r="O68" t="n">
-        <v>43401.18</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>28/05/2025</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Queso Pategras Sandwich La Paulina Barra x 3,5 Kg</t>
-        </is>
-      </c>
-      <c r="C69" t="n">
-        <v>1</v>
-      </c>
-      <c r="D69" t="n">
-        <v>30173.08</v>
-      </c>
-      <c r="E69" t="n">
-        <v>30173.08</v>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Mince Bar S.A.S</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
-        <v>30173.08</v>
-      </c>
-      <c r="J69" t="n">
-        <v>30173.08</v>
-      </c>
-      <c r="K69" t="n">
-        <v>1</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>Queso Pategras Sandwich La Paulina Barra x 3,5 Kg</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="n">
-        <v>30173.08</v>
-      </c>
-      <c r="O69" t="n">
-        <v>30173.08</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>28/05/2025</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Ketchup Hellmann's Sobres Caja (196 x 8 gr)</t>
-        </is>
-      </c>
-      <c r="C70" t="n">
-        <v>2</v>
-      </c>
-      <c r="D70" t="n">
-        <v>11401.56</v>
-      </c>
-      <c r="E70" t="n">
-        <v>22803.12</v>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Mince Bar S.A.S</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
-        <v>11401.56</v>
-      </c>
-      <c r="J70" t="n">
-        <v>22803.12</v>
-      </c>
-      <c r="K70" t="n">
-        <v>2</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>Ketchup Hellmann's Sobres Caja (196 x 8 gr)</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>2</v>
-      </c>
-      <c r="N70" t="n">
-        <v>11401.56</v>
-      </c>
-      <c r="O70" t="n">
-        <v>22803.12</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>28/05/2025</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Salsa de Chocolate Lheritter Pomo x 500 Grs</t>
-        </is>
-      </c>
-      <c r="C71" t="n">
-        <v>2</v>
-      </c>
-      <c r="D71" t="n">
-        <v>2318.76</v>
-      </c>
-      <c r="E71" t="n">
-        <v>4637.52</v>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Mince Bar S.A.S</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
-        <v>2318.76</v>
-      </c>
-      <c r="J71" t="n">
-        <v>4637.52</v>
-      </c>
-      <c r="K71" t="n">
-        <v>2</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>Salsa de Chocolate Lheritier Pomo x 500 Grs</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>2</v>
-      </c>
-      <c r="N71" t="n">
-        <v>2318.76</v>
-      </c>
-      <c r="O71" t="n">
-        <v>4637.52</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>28/05/2025</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Salsa de Dulce de Leche Lheritter Pomo x 500 Grs</t>
-        </is>
-      </c>
-      <c r="C72" t="n">
-        <v>2</v>
-      </c>
-      <c r="D72" t="n">
-        <v>2318.76</v>
-      </c>
-      <c r="E72" t="n">
-        <v>4637.52</v>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Mince Bar S.A.S</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
-        <v>2318.76</v>
-      </c>
-      <c r="J72" t="n">
-        <v>4637.52</v>
-      </c>
-      <c r="K72" t="n">
-        <v>2</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>Salsa de Dulce de Leche Lheritier Pomo x 500 Grs</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>2</v>
-      </c>
-      <c r="N72" t="n">
-        <v>2318.76</v>
-      </c>
-      <c r="O72" t="n">
-        <v>4637.52</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>28/05/2025</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Azucar Impalpable Talco Lesarisi Bolsa x 1 Kg</t>
-        </is>
-      </c>
-      <c r="C73" t="n">
-        <v>2</v>
-      </c>
-      <c r="D73" t="n">
-        <v>1533.1</v>
-      </c>
-      <c r="E73" t="n">
-        <v>3066.2</v>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Mince Bar S.A.S</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
-        <v>1533.1</v>
-      </c>
-      <c r="J73" t="n">
-        <v>3066.2</v>
-      </c>
-      <c r="K73" t="n">
-        <v>2</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>Azucar Impalpable Talco Lesansi Bolsa x 1 Kg</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>2</v>
-      </c>
-      <c r="N73" t="n">
-        <v>1533.1</v>
-      </c>
-      <c r="O73" t="n">
-        <v>3066.2</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>28/05/2025</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>Panko Blanco Nutripanko Bolsa x 1 Kg</t>
-        </is>
-      </c>
-      <c r="C74" t="n">
-        <v>2</v>
-      </c>
-      <c r="D74" t="n">
-        <v>6219.94</v>
-      </c>
-      <c r="E74" t="n">
-        <v>12439.88</v>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Mince Bar S.A.S</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
-        <v>6219.94</v>
-      </c>
-      <c r="J74" t="n">
-        <v>12439.88</v>
-      </c>
-      <c r="K74" t="n">
-        <v>2</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>Panko Blanco Nutripanko Bolsa x 1 kg</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>2</v>
-      </c>
-      <c r="N74" t="n">
-        <v>6219.94</v>
-      </c>
-      <c r="O74" t="n">
-        <v>12439.88</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>18/06/2025</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Queso Cremoso La Paulina Horma x 4 Kg</t>
-        </is>
-      </c>
-      <c r="C75" t="n">
-        <v>4.73</v>
-      </c>
-      <c r="D75" t="n">
-        <v>6505.82</v>
-      </c>
-      <c r="E75" t="n">
-        <v>30772.55</v>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Rabble S.A</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>Diferencia de Precio</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
-        <v>6512.71</v>
-      </c>
-      <c r="J75" t="n">
-        <v>30805.12</v>
-      </c>
-      <c r="K75" t="n">
-        <v>4.73</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>Queso Cremoso La Paulina Horma x 4 Kg</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="n">
-        <v>6512.71</v>
-      </c>
-      <c r="O75" t="n">
-        <v>30772.55</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>18/06/2025</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Sal Fina Dos Anclas Bolsa x 5 Kg</t>
-        </is>
-      </c>
-      <c r="C76" t="n">
-        <v>1</v>
-      </c>
-      <c r="D76" t="n">
-        <v>5998.27</v>
-      </c>
-      <c r="E76" t="n">
-        <v>5998.27</v>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Rabble S.A</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
-        <v>5998.27</v>
-      </c>
-      <c r="J76" t="n">
-        <v>5998.27</v>
-      </c>
-      <c r="K76" t="n">
-        <v>1</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>Sal Fina Dos Anclas Bolsa x 5 Kg</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="n">
-        <v>5998.27</v>
-      </c>
-      <c r="O76" t="n">
-        <v>5998.27</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>18/06/2025</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Castañas de Caju W3 Cumana Bolsa x 1 Kg</t>
-        </is>
-      </c>
-      <c r="C77" t="n">
-        <v>1</v>
-      </c>
-      <c r="D77" t="n">
-        <v>12215.96</v>
-      </c>
-      <c r="E77" t="n">
-        <v>12215.96</v>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Rabble S.A</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
-        <v>12215.96</v>
-      </c>
-      <c r="J77" t="n">
-        <v>12215.96</v>
-      </c>
-      <c r="K77" t="n">
-        <v>1</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>Castañas de Caju W3 Cumana Bolsa x 1 Kg</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="n">
-        <v>12215.96</v>
-      </c>
-      <c r="O77" t="n">
-        <v>12215.96</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>18/06/2025</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Sal Entrefina Parrillera Dos Anclas Bolsa x 5 Kg</t>
-        </is>
-      </c>
-      <c r="C78" t="n">
-        <v>1</v>
-      </c>
-      <c r="D78" t="n">
-        <v>5577.68</v>
-      </c>
-      <c r="E78" t="n">
-        <v>5577.68</v>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Rabble S.A</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
-        <v>5577.68</v>
-      </c>
-      <c r="J78" t="n">
-        <v>5577.68</v>
-      </c>
-      <c r="K78" t="n">
-        <v>1</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>Sal Entrefina Parrillera Dos Anclas Bolsa x 5 Kg</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="n">
-        <v>5577.68</v>
-      </c>
-      <c r="O78" t="n">
-        <v>5577.68</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>18/06/2025</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Pasta de Mani Oddi's Frasco x 350 Gr</t>
-        </is>
-      </c>
-      <c r="C79" t="n">
-        <v>4</v>
-      </c>
-      <c r="D79" t="n">
-        <v>3066.7</v>
-      </c>
-      <c r="E79" t="n">
-        <v>12266.8</v>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Rabble S.A</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
-        <v>3066.7</v>
-      </c>
-      <c r="J79" t="n">
-        <v>12266.8</v>
-      </c>
-      <c r="K79" t="n">
-        <v>4</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>Pasta de Mani Oddi's Frasco x 350 Gr</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>4</v>
-      </c>
-      <c r="N79" t="n">
-        <v>3066.7</v>
-      </c>
-      <c r="O79" t="n">
-        <v>12266.8</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>18/06/2025</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Mostaza Antigua en Granos Arytza Balde x 4.5 Kg</t>
-        </is>
-      </c>
-      <c r="C80" t="n">
-        <v>1</v>
-      </c>
-      <c r="D80" t="n">
-        <v>39044.92</v>
-      </c>
-      <c r="E80" t="n">
-        <v>39044.92</v>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Rabble S.A</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
-        <v>39044.92</v>
-      </c>
-      <c r="J80" t="n">
-        <v>39044.92</v>
-      </c>
-      <c r="K80" t="n">
-        <v>1</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>Mostaza Antigua en Granos Arytza Balde x 4.5 Kg</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="n">
-        <v>39044.92</v>
-      </c>
-      <c r="O80" t="n">
-        <v>39044.92</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>12/06/2025</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Ketchup Hellmann's Sobres Caja (196 x 8 gr)</t>
-        </is>
-      </c>
-      <c r="C81" t="n">
-        <v>1</v>
-      </c>
-      <c r="D81" t="n">
-        <v>11401.56</v>
-      </c>
-      <c r="E81" t="n">
-        <v>11401.56</v>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>9 REINAS SA</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
-        <v>11401.56</v>
-      </c>
-      <c r="J81" t="n">
-        <v>11401.56</v>
-      </c>
-      <c r="K81" t="n">
-        <v>1</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>Ketchup Hellmann's Sobres Caja (196 x 8 gr)</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="n">
-        <v>11401.56</v>
-      </c>
-      <c r="O81" t="n">
-        <v>11401.56</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>12/06/2025</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>Mayonesa Hellmann's Sobres Caja (196 x 7.6 gr)</t>
-        </is>
-      </c>
-      <c r="C82" t="n">
-        <v>1</v>
-      </c>
-      <c r="D82" t="n">
-        <v>11363.08</v>
-      </c>
-      <c r="E82" t="n">
-        <v>11363.08</v>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>9 REINAS SA</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
-        <v>11363.08</v>
-      </c>
-      <c r="J82" t="n">
-        <v>11363.08</v>
-      </c>
-      <c r="K82" t="n">
-        <v>1</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>Mayonesa Hellmann's Sobres Caja (196 x 7.6 gr)</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="n">
-        <v>11363.08</v>
-      </c>
-      <c r="O82" t="n">
-        <v>11363.08</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>12/06/2025</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>Papa McCain Crinkle (5 x 2.5 Kg) (06570)</t>
-        </is>
-      </c>
-      <c r="C83" t="n">
-        <v>5</v>
-      </c>
-      <c r="D83" t="n">
-        <v>52127.51</v>
-      </c>
-      <c r="E83" t="n">
-        <v>260637.53</v>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>9 REINAS SA</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
-        <v>52127.51</v>
-      </c>
-      <c r="J83" t="n">
-        <v>260637.55</v>
-      </c>
-      <c r="K83" t="n">
-        <v>5</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>Papa McCain Crinkle (5 x 2.5 Kg)</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>5</v>
-      </c>
-      <c r="N83" t="n">
-        <v>52127.51</v>
-      </c>
-      <c r="O83" t="n">
-        <v>260637.53</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>02/06/2025</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>Chocolate Cobertura Amargo Lacteado (86) Fenix Caja x 2.5 Kg</t>
-        </is>
-      </c>
-      <c r="C84" t="n">
-        <v>1</v>
-      </c>
-      <c r="D84" t="n">
-        <v>75539.8</v>
-      </c>
-      <c r="E84" t="n">
-        <v>75539.8</v>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>PERSEO &amp; CO</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
-        <v>75539.8</v>
-      </c>
-      <c r="J84" t="n">
-        <v>75539.8</v>
-      </c>
-      <c r="K84" t="n">
-        <v>1</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>Chocolate Cobertura Amargo Lacteado (86) Fenix Caja x 2.5 Kg</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="n">
-        <v>75539.8</v>
-      </c>
-      <c r="O84" t="n">
-        <v>75539.8</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>02/06/2025</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>Vinagre de Alcohol Menoyo Bidon x 5 Rs</t>
-        </is>
-      </c>
-      <c r="C85" t="n">
-        <v>5</v>
-      </c>
-      <c r="D85" t="n">
-        <v>5176.24</v>
-      </c>
-      <c r="E85" t="n">
-        <v>25881.2</v>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>PERSEO &amp; CO</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
-        <v>5176.24</v>
-      </c>
-      <c r="J85" t="n">
-        <v>25881.2</v>
-      </c>
-      <c r="K85" t="n">
-        <v>5</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>Vinagre de Alcohol Menoyo Bidon x 5 Its</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>5</v>
-      </c>
-      <c r="N85" t="n">
-        <v>5176.24</v>
-      </c>
-      <c r="O85" t="n">
-        <v>25881.2</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>02/06/2025</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>Pan Rallado Preferido Bolsa x 5 Kg</t>
-        </is>
-      </c>
-      <c r="C86" t="n">
-        <v>1</v>
-      </c>
-      <c r="D86" t="n">
-        <v>8961.049999999999</v>
-      </c>
-      <c r="E86" t="n">
-        <v>8961.049999999999</v>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>ESCABECHE S.A</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
-        <v>8961.049999999999</v>
-      </c>
-      <c r="J86" t="n">
-        <v>8961.049999999999</v>
-      </c>
-      <c r="K86" t="n">
-        <v>1</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>Pan Rallado Preferido Bolsa x 5 Kg</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="n">
-        <v>8961.049999999999</v>
-      </c>
-      <c r="O86" t="n">
-        <v>8961.049999999999</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>02/06/2025</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>Pure de Tomate Noel Brick Caja (12 x 520 gr)</t>
-        </is>
-      </c>
-      <c r="C87" t="n">
-        <v>1</v>
-      </c>
-      <c r="D87" t="n">
-        <v>8061.1</v>
-      </c>
-      <c r="E87" t="n">
-        <v>8061.1</v>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>ESCABECHE S.A</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
-        <v>8061.1</v>
-      </c>
-      <c r="J87" t="n">
-        <v>8061.1</v>
-      </c>
-      <c r="K87" t="n">
-        <v>1</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>Pure de Tomate Noel Brick Caja (12 x 520 gr)</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="n">
-        <v>8061.1</v>
-      </c>
-      <c r="O87" t="n">
-        <v>8061.1</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>02/06/2025</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>Harina de Trigo 0000 Morixe Paquete (10 x 1 Kg)</t>
-        </is>
-      </c>
-      <c r="C88" t="n">
-        <v>1</v>
-      </c>
-      <c r="D88" t="n">
-        <v>8640.17</v>
-      </c>
-      <c r="E88" t="n">
-        <v>8640.17</v>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>ESCABECHE S.A</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
-        <v>8640.17</v>
-      </c>
-      <c r="J88" t="n">
-        <v>8640.17</v>
-      </c>
-      <c r="K88" t="n">
-        <v>1</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>Harina de Trigo 0000 Morixe Paquete (10 x 1 Kg)</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="n">
-        <v>8640.17</v>
-      </c>
-      <c r="O88" t="n">
-        <v>8640.17</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>02/06/2025</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Harina Leudante Morixe Paquete (10 x 1 Kg)</t>
-        </is>
-      </c>
-      <c r="C89" t="n">
-        <v>1</v>
-      </c>
-      <c r="D89" t="n">
-        <v>10011.63</v>
-      </c>
-      <c r="E89" t="n">
-        <v>10011.63</v>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>ESCABECHE S.A</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
-        <v>10011.63</v>
-      </c>
-      <c r="J89" t="n">
-        <v>10011.63</v>
-      </c>
-      <c r="K89" t="n">
-        <v>1</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>Harina Leudante Morixe Paquete (10 x 1 Kg)</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="n">
-        <v>10011.63</v>
-      </c>
-      <c r="O89" t="n">
-        <v>10011.63</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>02/06/2025</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>Azucar Blanca Arcor Bolsa (10 x 1 Kg)</t>
-        </is>
-      </c>
-      <c r="C90" t="n">
-        <v>1</v>
-      </c>
-      <c r="D90" t="n">
-        <v>11435.31</v>
-      </c>
-      <c r="E90" t="n">
-        <v>11435.31</v>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>ESCABECHE S.A</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
-        <v>11435.31</v>
-      </c>
-      <c r="J90" t="n">
-        <v>11435.31</v>
-      </c>
-      <c r="K90" t="n">
-        <v>1</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>Azucar Blanca Arcor Bolsa (10 x 1 Kg)</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="n">
-        <v>11435.31</v>
-      </c>
-      <c r="O90" t="n">
-        <v>11435.31</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>02/06/2025</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Aceite Alto Oleico Vero Caja (2 x 10 Lts)</t>
-        </is>
-      </c>
-      <c r="C91" t="n">
-        <v>1</v>
-      </c>
-      <c r="D91" t="n">
-        <v>62032.32</v>
-      </c>
-      <c r="E91" t="n">
-        <v>62032.32</v>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>ESCABECHE S.A</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I91" t="n">
-        <v>62032.32</v>
-      </c>
-      <c r="J91" t="n">
-        <v>62032.32</v>
-      </c>
-      <c r="K91" t="n">
-        <v>1</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>Aceite Alto Oleico Vero Caja (2 x 10 Lts)</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="n">
-        <v>62032.32</v>
-      </c>
-      <c r="O91" t="n">
-        <v>62032.32</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>28/05/2025</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>Cobertura de Chocolate Negro Amargo (87) Fenix Bolsa x 2,5 Kg</t>
-        </is>
-      </c>
-      <c r="C92" t="n">
-        <v>1</v>
-      </c>
-      <c r="D92" t="n">
-        <v>82945.66</v>
-      </c>
-      <c r="E92" t="n">
-        <v>82945.66</v>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Mince Bar S.A.S</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
-        <v>82945.66</v>
-      </c>
-      <c r="J92" t="n">
-        <v>82945.66</v>
-      </c>
-      <c r="K92" t="n">
-        <v>1</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>Cobertura de Chocolate Negro Amargo (87) Fenix Bolsa x 2.5 Kg</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="n">
-        <v>82945.66</v>
-      </c>
-      <c r="O92" t="n">
-        <v>82945.66</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>28/05/2025</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>Crema de Leche (44%) Milkaut Balde 5 itríos</t>
-        </is>
-      </c>
-      <c r="C93" t="n">
-        <v>1</v>
-      </c>
-      <c r="D93" t="n">
-        <v>43401.18</v>
-      </c>
-      <c r="E93" t="n">
-        <v>43401.18</v>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Mince Bar S.A.S</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
-        <v>43401.18</v>
-      </c>
-      <c r="J93" t="n">
-        <v>43401.18</v>
-      </c>
-      <c r="K93" t="n">
-        <v>1</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>Crema de Leche (44%) Milkaut Balde 5 litros.</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="n">
-        <v>43401.18</v>
-      </c>
-      <c r="O93" t="n">
-        <v>43401.18</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>28/05/2025</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Queso Pategras Sandwich La Paulina Barra x 3,5 Kg</t>
-        </is>
-      </c>
-      <c r="C94" t="n">
-        <v>1</v>
-      </c>
-      <c r="D94" t="n">
-        <v>30173.08</v>
-      </c>
-      <c r="E94" t="n">
-        <v>30173.08</v>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Mince Bar S.A.S</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
-        <v>30173.08</v>
-      </c>
-      <c r="J94" t="n">
-        <v>30173.08</v>
-      </c>
-      <c r="K94" t="n">
-        <v>1</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>Queso Pategras Sandwich La Paulina Barra x 3,5 Kg</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="n">
-        <v>30173.08</v>
-      </c>
-      <c r="O94" t="n">
-        <v>30173.08</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>28/05/2025</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Ketchup Hellmann's Sobres Caja (196 x 8 gr)</t>
-        </is>
-      </c>
-      <c r="C95" t="n">
-        <v>2</v>
-      </c>
-      <c r="D95" t="n">
-        <v>11401.56</v>
-      </c>
-      <c r="E95" t="n">
-        <v>22803.12</v>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Mince Bar S.A.S</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I95" t="n">
-        <v>11401.56</v>
-      </c>
-      <c r="J95" t="n">
-        <v>22803.12</v>
-      </c>
-      <c r="K95" t="n">
-        <v>2</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>Ketchup Hellmann's Sobres Caja (196 x 8 gr)</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>2</v>
-      </c>
-      <c r="N95" t="n">
-        <v>11401.56</v>
-      </c>
-      <c r="O95" t="n">
-        <v>22803.12</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>28/05/2025</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>Salsa de Chocolate Lheritter Pomo x 500 Grs</t>
-        </is>
-      </c>
-      <c r="C96" t="n">
-        <v>2</v>
-      </c>
-      <c r="D96" t="n">
-        <v>2318.76</v>
-      </c>
-      <c r="E96" t="n">
-        <v>4637.52</v>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Mince Bar S.A.S</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I96" t="n">
-        <v>2318.76</v>
-      </c>
-      <c r="J96" t="n">
-        <v>4637.52</v>
-      </c>
-      <c r="K96" t="n">
-        <v>2</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>Salsa de Chocolate Lheritier Pomo x 500 Grs</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>2</v>
-      </c>
-      <c r="N96" t="n">
-        <v>2318.76</v>
-      </c>
-      <c r="O96" t="n">
-        <v>4637.52</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>28/05/2025</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>Salsa de Dulce de Leche Lheritter Pomo x 500 Grs</t>
-        </is>
-      </c>
-      <c r="C97" t="n">
-        <v>2</v>
-      </c>
-      <c r="D97" t="n">
-        <v>2318.76</v>
-      </c>
-      <c r="E97" t="n">
-        <v>4637.52</v>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Mince Bar S.A.S</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I97" t="n">
-        <v>2318.76</v>
-      </c>
-      <c r="J97" t="n">
-        <v>4637.52</v>
-      </c>
-      <c r="K97" t="n">
-        <v>2</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>Salsa de Dulce de Leche Lheritier Pomo x 500 Grs</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>2</v>
-      </c>
-      <c r="N97" t="n">
-        <v>2318.76</v>
-      </c>
-      <c r="O97" t="n">
-        <v>4637.52</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>28/05/2025</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>Azucar Impalpable Talco Lesarisi Bolsa x 1 Kg</t>
-        </is>
-      </c>
-      <c r="C98" t="n">
-        <v>2</v>
-      </c>
-      <c r="D98" t="n">
-        <v>1533.1</v>
-      </c>
-      <c r="E98" t="n">
-        <v>3066.2</v>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Mince Bar S.A.S</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I98" t="n">
-        <v>1533.1</v>
-      </c>
-      <c r="J98" t="n">
-        <v>3066.2</v>
-      </c>
-      <c r="K98" t="n">
-        <v>2</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>Azucar Impalpable Talco Lesansi Bolsa x 1 Kg</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>2</v>
-      </c>
-      <c r="N98" t="n">
-        <v>1533.1</v>
-      </c>
-      <c r="O98" t="n">
-        <v>3066.2</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>28/05/2025</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>Panko Blanco Nutripanko Bolsa x 1 Kg</t>
-        </is>
-      </c>
-      <c r="C99" t="n">
-        <v>2</v>
-      </c>
-      <c r="D99" t="n">
-        <v>6219.94</v>
-      </c>
-      <c r="E99" t="n">
-        <v>12439.88</v>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Mince Bar S.A.S</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I99" t="n">
-        <v>6219.94</v>
-      </c>
-      <c r="J99" t="n">
-        <v>12439.88</v>
-      </c>
-      <c r="K99" t="n">
-        <v>2</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>Panko Blanco Nutripanko Bolsa x 1 kg</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>2</v>
-      </c>
-      <c r="N99" t="n">
-        <v>6219.94</v>
-      </c>
-      <c r="O99" t="n">
-        <v>12439.88</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>20/xx/xxxx</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>Levadura Prensada Virgen Calsa Pan x 500 Gr</t>
-        </is>
-      </c>
-      <c r="C100" t="n">
-        <v>1</v>
-      </c>
-      <c r="D100" t="n">
-        <v>3537.26</v>
-      </c>
-      <c r="E100" t="n">
-        <v>3537.26</v>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>PERSEO &amp; CO</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I100" t="n">
-        <v>3537.26</v>
-      </c>
-      <c r="J100" t="n">
-        <v>3537.26</v>
-      </c>
-      <c r="K100" t="n">
-        <v>1</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>Levadura Prensada Virgen Calsa Pan x 500 Gr</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="n">
-        <v>3537.26</v>
-      </c>
-      <c r="O100" t="n">
-        <v>3537.26</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>20/xx/xxxx</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>Queso Mozzarella P/Fetea r La Paulina Barra x 3,5 Kg</t>
-        </is>
-      </c>
-      <c r="C101" t="n">
-        <v>1</v>
-      </c>
-      <c r="D101" t="n">
-        <v>26268.94</v>
-      </c>
-      <c r="E101" t="n">
-        <v>26268.94</v>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>PERSEO &amp; CO</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I101" t="n">
-        <v>26268.94</v>
-      </c>
-      <c r="J101" t="n">
-        <v>26268.94</v>
-      </c>
-      <c r="K101" t="n">
-        <v>1</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>Queso Mozzarella P/Fetea r La Paulina Barra x 3,5 Kg</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="n">
-        <v>26268.94</v>
-      </c>
-      <c r="O101" t="n">
-        <v>26268.94</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>20/xx/xxxx</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>Harina de Trigo 0000 Cañuelas Bolsa x 25 Kg</t>
-        </is>
-      </c>
-      <c r="C102" t="n">
-        <v>1</v>
-      </c>
-      <c r="D102" t="n">
-        <v>15811.89</v>
-      </c>
-      <c r="E102" t="n">
-        <v>15811.89</v>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>PERSEO &amp; CO</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I102" t="n">
-        <v>15811.89</v>
-      </c>
-      <c r="J102" t="n">
-        <v>15811.89</v>
-      </c>
-      <c r="K102" t="n">
-        <v>1</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>Harina de Trigo 0000 Cañuelas Bolsa x 25 Kg</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="n">
-        <v>15811.89</v>
-      </c>
-      <c r="O102" t="n">
-        <v>15811.89</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>20/xx/xxxx</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>Azucar Blanca Ledesma Bolsa x 25 Kg</t>
-        </is>
-      </c>
-      <c r="C103" t="n">
-        <v>1</v>
-      </c>
-      <c r="D103" t="n">
-        <v>29551.5</v>
-      </c>
-      <c r="E103" t="n">
-        <v>29551.5</v>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>PERSEO &amp; CO</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I103" t="n">
-        <v>29551.5</v>
-      </c>
-      <c r="J103" t="n">
-        <v>29551.5</v>
-      </c>
-      <c r="K103" t="n">
-        <v>1</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>Azucar Blanca Ledesma Bolsa x 25 Kg</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="n">
-        <v>29551.5</v>
-      </c>
-      <c r="O103" t="n">
-        <v>29551.5</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>20/xx/xxxx</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>Leche de Almendras S/AzucarTratenfu Pack (8 x 1 Lt)</t>
-        </is>
-      </c>
-      <c r="C104" t="n">
-        <v>2</v>
-      </c>
-      <c r="D104" t="n">
-        <v>25600.2</v>
-      </c>
-      <c r="E104" t="n">
-        <v>51200.4</v>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>PERSEO &amp; CO</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I104" t="n">
-        <v>25600.2</v>
-      </c>
-      <c r="J104" t="n">
-        <v>51200.4</v>
-      </c>
-      <c r="K104" t="n">
-        <v>2</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>Leche de Almendras S/AzucarTratenfu Pack (8x1 Lt)</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>2</v>
-      </c>
-      <c r="N104" t="n">
-        <v>25600.2</v>
-      </c>
-      <c r="O104" t="n">
-        <v>51200.4</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>20/xx/xxxx</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>Azucar Rubia Lesansi Bolsa x 1 Kg</t>
-        </is>
-      </c>
-      <c r="C105" t="n">
-        <v>2</v>
-      </c>
-      <c r="D105" t="n">
-        <v>1461.46</v>
-      </c>
-      <c r="E105" t="n">
-        <v>2922.92</v>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>PERSEO &amp; CO</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>Mayorista Net</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I105" t="n">
-        <v>1461.46</v>
-      </c>
-      <c r="J105" t="n">
-        <v>2922.92</v>
-      </c>
-      <c r="K105" t="n">
-        <v>2</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>Azucar Rubia Lesansi Bolsa x 1 Kg</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>2</v>
-      </c>
-      <c r="N105" t="n">
-        <v>1461.46</v>
-      </c>
-      <c r="O105" t="n">
-        <v>2922.92</v>
+        <v>8355.4</v>
+      </c>
+      <c r="P27" t="n">
+        <v>8355.4</v>
       </c>
     </row>
   </sheetData>

--- a/BD extracciones.xlsx
+++ b/BD extracciones.xlsx
@@ -437,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S460"/>
+  <dimension ref="A1:S468"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -23575,6 +23575,246 @@
       </c>
       <c r="P460" t="n">
         <v>4108.61</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr"/>
+      <c r="B461" t="inlineStr"/>
+      <c r="C461" t="inlineStr"/>
+      <c r="D461" t="inlineStr"/>
+      <c r="E461" t="inlineStr"/>
+      <c r="F461" t="inlineStr"/>
+      <c r="G461" t="inlineStr"/>
+      <c r="H461" t="inlineStr"/>
+      <c r="I461" t="inlineStr"/>
+      <c r="J461" t="inlineStr"/>
+      <c r="K461" t="inlineStr"/>
+      <c r="L461" t="n">
+        <v>14933</v>
+      </c>
+      <c r="M461" t="inlineStr">
+        <is>
+          <t>ECO AND S/GAS 500x12 PET</t>
+        </is>
+      </c>
+      <c r="N461" t="n">
+        <v>1</v>
+      </c>
+      <c r="O461" t="n">
+        <v>16590.12</v>
+      </c>
+      <c r="P461" t="n">
+        <v>280572.11</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr"/>
+      <c r="B462" t="inlineStr"/>
+      <c r="C462" t="inlineStr"/>
+      <c r="D462" t="inlineStr"/>
+      <c r="E462" t="inlineStr"/>
+      <c r="F462" t="inlineStr"/>
+      <c r="G462" t="inlineStr"/>
+      <c r="H462" t="inlineStr"/>
+      <c r="I462" t="inlineStr"/>
+      <c r="J462" t="inlineStr"/>
+      <c r="K462" t="inlineStr"/>
+      <c r="L462" t="n">
+        <v>30481</v>
+      </c>
+      <c r="M462" t="inlineStr">
+        <is>
+          <t>SEVEN-UP NF CAN 130 BUL/PAL 4X6</t>
+        </is>
+      </c>
+      <c r="N462" t="n">
+        <v>1</v>
+      </c>
+      <c r="O462" t="n">
+        <v>45123.14</v>
+      </c>
+      <c r="P462" t="n">
+        <v>36098.51</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr"/>
+      <c r="B463" t="inlineStr"/>
+      <c r="C463" t="inlineStr"/>
+      <c r="D463" t="inlineStr"/>
+      <c r="E463" t="inlineStr"/>
+      <c r="F463" t="inlineStr"/>
+      <c r="G463" t="inlineStr"/>
+      <c r="H463" t="inlineStr"/>
+      <c r="I463" t="inlineStr"/>
+      <c r="J463" t="inlineStr"/>
+      <c r="K463" t="inlineStr"/>
+      <c r="L463" t="n">
+        <v>30648</v>
+      </c>
+      <c r="M463" t="inlineStr">
+        <is>
+          <t>PEPSI CAN 4X6 354CC TITAN</t>
+        </is>
+      </c>
+      <c r="N463" t="n">
+        <v>1</v>
+      </c>
+      <c r="O463" t="n">
+        <v>24297.16</v>
+      </c>
+      <c r="P463" t="n">
+        <v>12148.58</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr"/>
+      <c r="B464" t="inlineStr"/>
+      <c r="C464" t="inlineStr"/>
+      <c r="D464" t="inlineStr"/>
+      <c r="E464" t="inlineStr"/>
+      <c r="F464" t="inlineStr"/>
+      <c r="G464" t="inlineStr"/>
+      <c r="H464" t="inlineStr"/>
+      <c r="I464" t="inlineStr"/>
+      <c r="J464" t="inlineStr"/>
+      <c r="K464" t="inlineStr"/>
+      <c r="L464" t="n">
+        <v>31205</v>
+      </c>
+      <c r="M464" t="inlineStr">
+        <is>
+          <t>ANDES ORIGEN RUBIA 2.0 CAN 4X6</t>
+        </is>
+      </c>
+      <c r="N464" t="n">
+        <v>1</v>
+      </c>
+      <c r="O464" t="n">
+        <v>23448.54</v>
+      </c>
+      <c r="P464" t="n">
+        <v>11724.27</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr"/>
+      <c r="B465" t="inlineStr"/>
+      <c r="C465" t="inlineStr"/>
+      <c r="D465" t="inlineStr"/>
+      <c r="E465" t="inlineStr"/>
+      <c r="F465" t="inlineStr"/>
+      <c r="G465" t="inlineStr"/>
+      <c r="H465" t="inlineStr"/>
+      <c r="I465" t="inlineStr"/>
+      <c r="J465" t="inlineStr"/>
+      <c r="K465" t="inlineStr"/>
+      <c r="L465" t="n">
+        <v>30793</v>
+      </c>
+      <c r="M465" t="inlineStr">
+        <is>
+          <t>PEPSI BLACK CAN 4X6 354CC TITAN</t>
+        </is>
+      </c>
+      <c r="N465" t="n">
+        <v>3</v>
+      </c>
+      <c r="O465" t="n">
+        <v>23448.54</v>
+      </c>
+      <c r="P465" t="n">
+        <v>11724.27</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr"/>
+      <c r="B466" t="inlineStr"/>
+      <c r="C466" t="inlineStr"/>
+      <c r="D466" t="inlineStr"/>
+      <c r="E466" t="inlineStr"/>
+      <c r="F466" t="inlineStr"/>
+      <c r="G466" t="inlineStr"/>
+      <c r="H466" t="inlineStr"/>
+      <c r="I466" t="inlineStr"/>
+      <c r="J466" t="inlineStr"/>
+      <c r="K466" t="inlineStr"/>
+      <c r="L466" t="n">
+        <v>28317</v>
+      </c>
+      <c r="M466" t="inlineStr">
+        <is>
+          <t>CORONA OW X24 330CC</t>
+        </is>
+      </c>
+      <c r="N466" t="n">
+        <v>1</v>
+      </c>
+      <c r="O466" t="n">
+        <v>58648.38</v>
+      </c>
+      <c r="P466" t="n">
+        <v>123161.6</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr"/>
+      <c r="B467" t="inlineStr"/>
+      <c r="C467" t="inlineStr"/>
+      <c r="D467" t="inlineStr"/>
+      <c r="E467" t="inlineStr"/>
+      <c r="F467" t="inlineStr"/>
+      <c r="G467" t="inlineStr"/>
+      <c r="H467" t="inlineStr"/>
+      <c r="I467" t="inlineStr"/>
+      <c r="J467" t="inlineStr"/>
+      <c r="K467" t="inlineStr"/>
+      <c r="L467" t="n">
+        <v>31074</v>
+      </c>
+      <c r="M467" t="inlineStr">
+        <is>
+          <t>PDT POMELO CAN 4X6 269CC 169 BU</t>
+        </is>
+      </c>
+      <c r="N467" t="n">
+        <v>1</v>
+      </c>
+      <c r="O467" t="n">
+        <v>19219.67</v>
+      </c>
+      <c r="P467" t="n">
+        <v>9609.82</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr"/>
+      <c r="B468" t="inlineStr"/>
+      <c r="C468" t="inlineStr"/>
+      <c r="D468" t="inlineStr"/>
+      <c r="E468" t="inlineStr"/>
+      <c r="F468" t="inlineStr"/>
+      <c r="G468" t="inlineStr"/>
+      <c r="H468" t="inlineStr"/>
+      <c r="I468" t="inlineStr"/>
+      <c r="J468" t="inlineStr"/>
+      <c r="K468" t="inlineStr"/>
+      <c r="L468" t="n">
+        <v>99900</v>
+      </c>
+      <c r="M468" t="inlineStr">
+        <is>
+          <t>SERVICIO LOGISTICO</t>
+        </is>
+      </c>
+      <c r="N468" t="n">
+        <v>1</v>
+      </c>
+      <c r="O468" t="n">
+        <v>3660</v>
+      </c>
+      <c r="P468" t="n">
+        <v>3660</v>
       </c>
     </row>
   </sheetData>

--- a/BD extracciones.xlsx
+++ b/BD extracciones.xlsx
@@ -9,14 +9,15 @@
     <sheet name="BD" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0_ ;[Red]\-#,##0.0\ "/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -76,21 +77,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,415 +436,393 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S13"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col width="10.5546875" customWidth="1" min="1" max="1"/>
     <col width="26.5546875" customWidth="1" min="2" max="2"/>
-    <col width="8.5546875" bestFit="1" customWidth="1" style="3" min="3" max="3"/>
-    <col width="9" customWidth="1" style="5" min="4" max="5"/>
-    <col width="4.88671875" customWidth="1" min="6" max="6"/>
-    <col width="6.77734375" customWidth="1" min="7" max="7"/>
-    <col width="9.88671875" customWidth="1" min="8" max="8"/>
-    <col width="12.21875" customWidth="1" min="9" max="9"/>
-    <col width="10.77734375" bestFit="1" customWidth="1" min="10" max="10"/>
-    <col width="11.33203125" bestFit="1" customWidth="1" style="7" min="11" max="11"/>
-    <col width="20.44140625" customWidth="1" style="7" min="12" max="12"/>
-    <col width="6.77734375" bestFit="1" customWidth="1" style="7" min="13" max="13"/>
-    <col width="11" bestFit="1" customWidth="1" style="7" min="14" max="14"/>
-    <col width="11.21875" bestFit="1" customWidth="1" style="7" min="15" max="15"/>
-    <col width="11.33203125" customWidth="1" min="16" max="16"/>
-    <col width="9.5546875" bestFit="1" customWidth="1" style="9" min="18" max="18"/>
-    <col width="11.5546875" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="8.5546875" bestFit="1" customWidth="1" style="1" min="3" max="3"/>
+    <col width="9" customWidth="1" style="2" min="4" max="5"/>
+    <col width="5.33203125" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="10.109375" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col hidden="1" width="9.88671875" customWidth="1" min="8" max="8"/>
+    <col hidden="1" width="12.21875" customWidth="1" min="9" max="9"/>
+    <col hidden="1" width="10.77734375" customWidth="1" min="10" max="10"/>
+    <col width="6.77734375" customWidth="1" style="4" min="11" max="11"/>
+    <col width="20.44140625" customWidth="1" style="4" min="12" max="12"/>
+    <col width="6.77734375" bestFit="1" customWidth="1" style="4" min="13" max="13"/>
+    <col width="11" bestFit="1" customWidth="1" style="4" min="14" max="14"/>
+    <col width="11.21875" bestFit="1" customWidth="1" style="4" min="15" max="15"/>
+    <col width="5.21875" bestFit="1" customWidth="1" style="10" min="16" max="16"/>
+    <col width="9.5546875" bestFit="1" customWidth="1" style="10" min="17" max="17"/>
+    <col width="11.109375" bestFit="1" customWidth="1" style="10" min="18" max="18"/>
+    <col width="11.5546875" bestFit="1" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>Codigo</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>Producto</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="6" t="inlineStr">
         <is>
           <t>Cantidad</t>
         </is>
       </c>
-      <c r="D1" s="4" t="inlineStr">
+      <c r="D1" s="7" t="inlineStr">
         <is>
           <t>Precio</t>
         </is>
       </c>
-      <c r="E1" s="4" t="inlineStr">
+      <c r="E1" s="7" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="5" t="inlineStr">
         <is>
           <t>Local</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="5" t="inlineStr">
         <is>
           <t>Proveedor</t>
         </is>
       </c>
-      <c r="H1" s="6" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Alerta</t>
         </is>
       </c>
-      <c r="I1" s="6" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Precio Check</t>
         </is>
       </c>
-      <c r="J1" s="6" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Total Check</t>
         </is>
       </c>
-      <c r="K1" s="7" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Codigo Gem</t>
         </is>
       </c>
-      <c r="L1" s="7" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>Producto Gem</t>
         </is>
       </c>
-      <c r="M1" s="7" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Q Gem</t>
         </is>
       </c>
-      <c r="N1" s="7" t="inlineStr">
+      <c r="N1" s="3" t="inlineStr">
         <is>
           <t>Precio Gem</t>
         </is>
       </c>
-      <c r="O1" s="7" t="inlineStr">
+      <c r="O1" s="3" t="inlineStr">
         <is>
           <t>Total Gem</t>
         </is>
       </c>
-      <c r="P1" s="6" t="inlineStr">
-        <is>
-          <t>Dif Codigo</t>
-        </is>
-      </c>
-      <c r="Q1" s="6" t="inlineStr">
+      <c r="P1" s="8" t="inlineStr">
         <is>
           <t>Dif Q</t>
         </is>
       </c>
+      <c r="Q1" s="8" t="inlineStr">
+        <is>
+          <t>Dif Precio</t>
+        </is>
+      </c>
       <c r="R1" s="8" t="inlineStr">
-        <is>
-          <t>Dif Precio</t>
-        </is>
-      </c>
-      <c r="S1" s="6" t="inlineStr">
         <is>
           <t>Dif Total</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>L1115</t>
-        </is>
+      <c r="A2" t="n">
+        <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bobinas papel secante x 400 Mts</t>
+          <t>IPA Superstar (Caja x12 Lata 473ml)</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>5149.98</v>
+        <v>20520.94</v>
       </c>
       <c r="E2" t="n">
-        <v>5149.98</v>
+        <v>20520.94</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CENTRAL</t>
+          <t>9 REINAS SA</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Depósito Central</t>
+          <t>Kunze SRL</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>Diferencia de Precio</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>5149.98</v>
+        <v>2052094</v>
       </c>
       <c r="J2" t="n">
-        <v>5149.98</v>
+        <v>2052094</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>LI115</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>Bobinas papel secante x 400 Mts</t>
-        </is>
+          <t>IPA Superstar (Caja x12 Lata 473ml)</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>1</v>
+        <v>20520.94</v>
       </c>
       <c r="O2" t="n">
-        <v>5149.98</v>
-      </c>
-      <c r="P2" t="n">
-        <v>5149.98</v>
+        <v>20520.94</v>
+      </c>
+      <c r="P2" s="9">
+        <f>+C2-M2</f>
+        <v/>
+      </c>
+      <c r="Q2" s="9">
+        <f>+D2-N2</f>
+        <v/>
+      </c>
+      <c r="R2" s="9">
+        <f>+E2-O2</f>
+        <v/>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>DE700</t>
-        </is>
+      <c r="A3" t="n">
+        <v>0</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bolsa de arranque 15*20</t>
+          <t>IPA Superstar (Caja x12 Lata 473ml)</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1166</v>
+        <v>20520.94</v>
       </c>
       <c r="E3" t="n">
-        <v>2332</v>
+        <v>20520.94</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CENTRAL</t>
+          <t>9 REINAS SA</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Depósito Central</t>
+          <t>Kunze SRL</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>Diferencia de Precio</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>1166</v>
+        <v>2052094</v>
       </c>
       <c r="J3" t="n">
-        <v>2332</v>
+        <v>2052094</v>
       </c>
       <c r="K3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>DE700</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>Bolsa de arranque 15*20</t>
-        </is>
+          <t>IPA Superstar (Caja x12 Lata 473ml)</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>2</v>
+        <v>20520.94</v>
       </c>
       <c r="O3" t="n">
-        <v>1166</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2332</v>
+        <v>20520.94</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2001</t>
-        </is>
+      <c r="A4" t="n">
+        <v>0</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Detergente x 5 lts</t>
+          <t>Golden State Lager (Caja x12 Lata 473ml)</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>2536.6</v>
+        <v>16126.24</v>
       </c>
       <c r="E4" t="n">
-        <v>2536.6</v>
+        <v>16126.24</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>CENTRAL</t>
+          <t>9 REINAS SA</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Depósito Central</t>
+          <t>Kunze SRL</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>Diferencia de Precio</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>2536.6</v>
+        <v>1612624</v>
       </c>
       <c r="J4" t="n">
-        <v>2536.6</v>
+        <v>1612624</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2001</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>Detergente x 5 Its</t>
-        </is>
+          <t>Golden State Lager (Caja x12 Lata 473ml)</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>16126.24</v>
       </c>
       <c r="O4" t="n">
-        <v>2536.6</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2536.6</v>
+        <v>16126.24</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2116</t>
-        </is>
+      <c r="A5" t="n">
+        <v>0</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Servilletas 33 x 33 x Caja</t>
+          <t>Scotch Momentum (Caja x12 Lata 473ml)</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>6248</v>
+        <v>16126.24</v>
       </c>
       <c r="E5" t="n">
-        <v>6248</v>
+        <v>16126.24</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CENTRAL</t>
+          <t>9 REINAS SA</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Depósito Central</t>
+          <t>Kunze SRL</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>Diferencia de Precio</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>6248</v>
+        <v>1612624</v>
       </c>
       <c r="J5" t="n">
-        <v>6248</v>
+        <v>1612624</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2116</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>Servilletas 33 x 33 x Caja</t>
-        </is>
+          <t>Scotch Momentum (Caja x12 Lata 473ml)</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>16126.24</v>
       </c>
       <c r="O5" t="n">
-        <v>6248</v>
-      </c>
-      <c r="P5" t="n">
-        <v>6248</v>
+        <v>16126.24</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>1002</t>
-        </is>
+      <c r="A6" t="n">
+        <v>0</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Huevos Nº 2</t>
+          <t>Honey Lazy Bee (Caja x12 Lata 473ml)</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>210830</v>
+        <v>16126.24</v>
       </c>
       <c r="E6" t="n">
-        <v>18974700</v>
+        <v>16126.24</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>CENTRAL</t>
+          <t>9 REINAS SA</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Depósito Central</t>
+          <t>Kunze SRL</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -851,480 +831,27 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>210.83</v>
+        <v>1612624</v>
       </c>
       <c r="J6" t="n">
-        <v>18974.7</v>
+        <v>1612624</v>
       </c>
       <c r="K6" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>1002</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>Huevos N° 2</t>
-        </is>
+          <t>Honey Lazy Bee (Caja x12 Lata 473ml)</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>90</v>
+        <v>16126.24</v>
       </c>
       <c r="O6" t="n">
-        <v>210.83</v>
-      </c>
-      <c r="P6" t="n">
-        <v>18974.7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>AL400</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Leche Entero Tregar x1 lt</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>12</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1423780</v>
-      </c>
-      <c r="E7" t="n">
-        <v>17085360</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>CENTRAL</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Depósito Central</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Diferencia de Precio</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>1423.78</v>
-      </c>
-      <c r="J7" t="n">
-        <v>17085.36</v>
-      </c>
-      <c r="K7" t="n">
-        <v>12</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>AL400</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>Leche Entera Tregar x1 It</t>
-        </is>
-      </c>
-      <c r="N7" t="n">
-        <v>12</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1423.78</v>
-      </c>
-      <c r="P7" t="n">
-        <v>17085.36</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>L1115</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Bobinas papel secante x 400 Mts</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>5149.98</v>
-      </c>
-      <c r="E8" t="n">
-        <v>5149.98</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>CENTRAL</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Depósito Central</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>5149.98</v>
-      </c>
-      <c r="J8" t="n">
-        <v>5149.98</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>LI115</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>Bobinas papel secante x 400 Mts</t>
-        </is>
-      </c>
-      <c r="N8" t="n">
-        <v>1</v>
-      </c>
-      <c r="O8" t="n">
-        <v>5149.98</v>
-      </c>
-      <c r="P8" t="n">
-        <v>5149.98</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>DE700</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Bolsa de arranque 15*20</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>2</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1166</v>
-      </c>
-      <c r="E9" t="n">
-        <v>2332</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>CENTRAL</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Depósito Central</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>1166</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2332</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>DE700</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>Bolsa de arranque 15*20</t>
-        </is>
-      </c>
-      <c r="N9" t="n">
-        <v>2</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1166</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2332</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2001</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Detergente x 5 lts</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="n">
-        <v>2536.6</v>
-      </c>
-      <c r="E10" t="n">
-        <v>2536.6</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>CENTRAL</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Depósito Central</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
-        <v>2536.6</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2536.6</v>
-      </c>
-      <c r="K10" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>2001</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>Detergente x 5 Its</t>
-        </is>
-      </c>
-      <c r="N10" t="n">
-        <v>1</v>
-      </c>
-      <c r="O10" t="n">
-        <v>2536.6</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2536.6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2116</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Servilletas 33 x 33 x Caja</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>6248</v>
-      </c>
-      <c r="E11" t="n">
-        <v>6248</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>CENTRAL</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Depósito Central</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
-        <v>6248</v>
-      </c>
-      <c r="J11" t="n">
-        <v>6248</v>
-      </c>
-      <c r="K11" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>2116</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>Servilletas 33 x 33 x Caja</t>
-        </is>
-      </c>
-      <c r="N11" t="n">
-        <v>1</v>
-      </c>
-      <c r="O11" t="n">
-        <v>6248</v>
-      </c>
-      <c r="P11" t="n">
-        <v>6248</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>1002</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Huevos Nº 2</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>90</v>
-      </c>
-      <c r="D12" t="n">
-        <v>210.83</v>
-      </c>
-      <c r="E12" t="n">
-        <v>18974.7</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>CENTRAL</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Depósito Central</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
-        <v>210.83</v>
-      </c>
-      <c r="J12" t="n">
-        <v>18974.7</v>
-      </c>
-      <c r="K12" t="n">
-        <v>90</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>1002</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>Huevos N° 2</t>
-        </is>
-      </c>
-      <c r="N12" t="n">
-        <v>90</v>
-      </c>
-      <c r="O12" t="n">
-        <v>210.83</v>
-      </c>
-      <c r="P12" t="n">
-        <v>18974.7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>AL400</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Leche Entero Tregar x1 lt</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>12</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1423.78</v>
-      </c>
-      <c r="E13" t="n">
-        <v>17085.36</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>CENTRAL</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Depósito Central</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
-        <v>1423.78</v>
-      </c>
-      <c r="J13" t="n">
-        <v>17085.36</v>
-      </c>
-      <c r="K13" t="n">
-        <v>12</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>AL400</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>Leche Entera Tregar x1 lt</t>
-        </is>
-      </c>
-      <c r="N13" t="n">
-        <v>12</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1423.78</v>
-      </c>
-      <c r="P13" t="n">
-        <v>17085.36</v>
+        <v>16126.24</v>
       </c>
     </row>
   </sheetData>

--- a/BD extracciones.xlsx
+++ b/BD extracciones.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:R23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -854,6 +854,975 @@
         <v>16126.24</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>PATA Y MUSLO</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>214</v>
+      </c>
+      <c r="D7" t="n">
+        <v>330</v>
+      </c>
+      <c r="E7" t="n">
+        <v>70620</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>COSTA 7070</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Kunze SRL</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Diferencia de Precio</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>3300</v>
+      </c>
+      <c r="J7" t="n">
+        <v>706200</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>PATA Y MUSLO</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="N7" t="n">
+        <v>3300</v>
+      </c>
+      <c r="O7" t="n">
+        <v>70620</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ROAS BEEF</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>116</v>
+      </c>
+      <c r="D8" t="n">
+        <v>838</v>
+      </c>
+      <c r="E8" t="n">
+        <v>97208</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>LA MALA</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Kunze SRL</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Diferencia de Precio</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>8380</v>
+      </c>
+      <c r="J8" t="n">
+        <v>972080</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>ROAS BEEF</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="N8" t="n">
+        <v>8380</v>
+      </c>
+      <c r="O8" t="n">
+        <v>97208</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>PALETA</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>95</v>
+      </c>
+      <c r="D9" t="n">
+        <v>838</v>
+      </c>
+      <c r="E9" t="n">
+        <v>79610</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>LA MALA</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Kunze SRL</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Diferencia de Precio</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>8380</v>
+      </c>
+      <c r="J9" t="n">
+        <v>796100</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>PALETA</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="N9" t="n">
+        <v>8380</v>
+      </c>
+      <c r="O9" t="n">
+        <v>79610</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>CARNE PICADA</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>150</v>
+      </c>
+      <c r="D10" t="n">
+        <v>600</v>
+      </c>
+      <c r="E10" t="n">
+        <v>90000</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>LA MALA</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Kunze SRL</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Diferencia de Precio</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>6000</v>
+      </c>
+      <c r="J10" t="n">
+        <v>900000</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>CARNE PICADA</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>15</v>
+      </c>
+      <c r="N10" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O10" t="n">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>NALGA FETEADA</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>150</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1193.5</v>
+      </c>
+      <c r="E11" t="n">
+        <v>179025</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>LA MALA</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Kunze SRL</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Diferencia de Precio</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>11935</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1790250</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>NALGA FETEADA</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
+        <v>15</v>
+      </c>
+      <c r="N11" t="n">
+        <v>11935</v>
+      </c>
+      <c r="O11" t="n">
+        <v>179025</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>PATA Y MUSLO</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3300</v>
+      </c>
+      <c r="E12" t="n">
+        <v>70620</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>COSTA 7070</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Kunze SRL</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>3300</v>
+      </c>
+      <c r="J12" t="n">
+        <v>70620</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>PATA Y MUSLO</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="N12" t="n">
+        <v>3300</v>
+      </c>
+      <c r="O12" t="n">
+        <v>70620</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ROAS BEEF</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>116</v>
+      </c>
+      <c r="D13" t="n">
+        <v>838</v>
+      </c>
+      <c r="E13" t="n">
+        <v>97208</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>LA MALA</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Kunze SRL</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Diferencia de Precio</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>8380</v>
+      </c>
+      <c r="J13" t="n">
+        <v>972080</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>ROAS BEEF</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="N13" t="n">
+        <v>8380</v>
+      </c>
+      <c r="O13" t="n">
+        <v>97208</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>PALETA</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>95</v>
+      </c>
+      <c r="D14" t="n">
+        <v>838</v>
+      </c>
+      <c r="E14" t="n">
+        <v>79610</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>LA MALA</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Kunze SRL</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Diferencia de Precio</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>8380</v>
+      </c>
+      <c r="J14" t="n">
+        <v>796100</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>PALETA</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="N14" t="n">
+        <v>8380</v>
+      </c>
+      <c r="O14" t="n">
+        <v>79610</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>CARNE PICADA</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>150</v>
+      </c>
+      <c r="D15" t="n">
+        <v>600</v>
+      </c>
+      <c r="E15" t="n">
+        <v>90000</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>LA MALA</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Kunze SRL</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Diferencia de Precio</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>6000</v>
+      </c>
+      <c r="J15" t="n">
+        <v>900000</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>CARNE PICADA</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
+        <v>15</v>
+      </c>
+      <c r="N15" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O15" t="n">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>NALGA FETEADA</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>150</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1193.5</v>
+      </c>
+      <c r="E16" t="n">
+        <v>179025</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>LA MALA</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Kunze SRL</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Diferencia de Precio</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>11935</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1790250</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>NALGA FETEADA</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
+        <v>15</v>
+      </c>
+      <c r="N16" t="n">
+        <v>11935</v>
+      </c>
+      <c r="O16" t="n">
+        <v>179025</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>PATA Y MUSLO</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="D17" t="n">
+        <v>3300</v>
+      </c>
+      <c r="E17" t="n">
+        <v>70620</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>COSTA 7070</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Kunze SRL</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>3300</v>
+      </c>
+      <c r="J17" t="n">
+        <v>70620</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>PATA Y MUSLO</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="N17" t="n">
+        <v>3300</v>
+      </c>
+      <c r="O17" t="n">
+        <v>70620</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>0</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>PATA Y MUSLO</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="D18" t="n">
+        <v>3300</v>
+      </c>
+      <c r="E18" t="n">
+        <v>70620</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>COSTA 7070</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Kunze SRL</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>3300</v>
+      </c>
+      <c r="J18" t="n">
+        <v>70620</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>PATA Y MUSLO</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="N18" t="n">
+        <v>3300</v>
+      </c>
+      <c r="O18" t="n">
+        <v>70620</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>0</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ROAS BEEF</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="D19" t="n">
+        <v>8380</v>
+      </c>
+      <c r="E19" t="n">
+        <v>97208</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>LA MALA</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Kunze SRL</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>8380</v>
+      </c>
+      <c r="J19" t="n">
+        <v>97208</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>ROAS BEEF</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="N19" t="n">
+        <v>8380</v>
+      </c>
+      <c r="O19" t="n">
+        <v>97208</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>0</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>PALETA</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="D20" t="n">
+        <v>8380</v>
+      </c>
+      <c r="E20" t="n">
+        <v>79610</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>LA MALA</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Kunze SRL</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>8380</v>
+      </c>
+      <c r="J20" t="n">
+        <v>79610</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>PALETA</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="N20" t="n">
+        <v>8380</v>
+      </c>
+      <c r="O20" t="n">
+        <v>79610</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>0</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>CARNE PICADA</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>15</v>
+      </c>
+      <c r="D21" t="n">
+        <v>6000</v>
+      </c>
+      <c r="E21" t="n">
+        <v>90000</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>LA MALA</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Kunze SRL</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>6000</v>
+      </c>
+      <c r="J21" t="n">
+        <v>90000</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>CARNE PICADA</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
+        <v>15</v>
+      </c>
+      <c r="N21" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O21" t="n">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>NALGA FETEADA</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>15</v>
+      </c>
+      <c r="D22" t="n">
+        <v>11935</v>
+      </c>
+      <c r="E22" t="n">
+        <v>179025</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>LA MALA</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Kunze SRL</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>11935</v>
+      </c>
+      <c r="J22" t="n">
+        <v>179025</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>NALGA FETEADA</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
+        <v>15</v>
+      </c>
+      <c r="N22" t="n">
+        <v>11935</v>
+      </c>
+      <c r="O22" t="n">
+        <v>179025</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>PATA Y MUSLO</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="D23" t="n">
+        <v>3300</v>
+      </c>
+      <c r="E23" t="n">
+        <v>70620</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>COSTA 7070</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Kunze SRL</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>3300</v>
+      </c>
+      <c r="J23" t="n">
+        <v>70620</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>PATA Y MUSLO</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="N23" t="n">
+        <v>3300</v>
+      </c>
+      <c r="O23" t="n">
+        <v>70620</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/BD extracciones.xlsx
+++ b/BD extracciones.xlsx
@@ -436,11 +436,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R23"/>
+  <dimension ref="A1:R55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S42" sqref="S42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -459,8 +459,8 @@
     <col width="6.77734375" bestFit="1" customWidth="1" style="4" min="13" max="13"/>
     <col width="11" bestFit="1" customWidth="1" style="4" min="14" max="14"/>
     <col width="11.21875" bestFit="1" customWidth="1" style="4" min="15" max="15"/>
-    <col width="5.21875" bestFit="1" customWidth="1" style="10" min="16" max="16"/>
-    <col width="9.5546875" bestFit="1" customWidth="1" style="10" min="17" max="17"/>
+    <col width="9.21875" bestFit="1" customWidth="1" style="10" min="16" max="16"/>
+    <col width="9.33203125" bestFit="1" customWidth="1" style="10" min="17" max="17"/>
     <col width="11.109375" bestFit="1" customWidth="1" style="10" min="18" max="18"/>
     <col width="11.5546875" bestFit="1" customWidth="1" min="20" max="20"/>
   </cols>
@@ -682,6 +682,18 @@
       <c r="O3" t="n">
         <v>20520.94</v>
       </c>
+      <c r="P3" s="9">
+        <f>+C3-M3</f>
+        <v/>
+      </c>
+      <c r="Q3" s="9">
+        <f>+D3-N3</f>
+        <v/>
+      </c>
+      <c r="R3" s="9">
+        <f>+E3-O3</f>
+        <v/>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -739,6 +751,18 @@
       <c r="O4" t="n">
         <v>16126.24</v>
       </c>
+      <c r="P4" s="9">
+        <f>+C4-M4</f>
+        <v/>
+      </c>
+      <c r="Q4" s="9">
+        <f>+D4-N4</f>
+        <v/>
+      </c>
+      <c r="R4" s="9">
+        <f>+E4-O4</f>
+        <v/>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -796,6 +820,18 @@
       <c r="O5" t="n">
         <v>16126.24</v>
       </c>
+      <c r="P5" s="9">
+        <f>+C5-M5</f>
+        <v/>
+      </c>
+      <c r="Q5" s="9">
+        <f>+D5-N5</f>
+        <v/>
+      </c>
+      <c r="R5" s="9">
+        <f>+E5-O5</f>
+        <v/>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -853,6 +889,18 @@
       <c r="O6" t="n">
         <v>16126.24</v>
       </c>
+      <c r="P6" s="9">
+        <f>+C6-M6</f>
+        <v/>
+      </c>
+      <c r="Q6" s="9">
+        <f>+D6-N6</f>
+        <v/>
+      </c>
+      <c r="R6" s="9">
+        <f>+E6-O6</f>
+        <v/>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -910,6 +958,18 @@
       <c r="O7" t="n">
         <v>70620</v>
       </c>
+      <c r="P7" s="9">
+        <f>+C7-M7</f>
+        <v/>
+      </c>
+      <c r="Q7" s="9">
+        <f>+D7-N7</f>
+        <v/>
+      </c>
+      <c r="R7" s="9">
+        <f>+E7-O7</f>
+        <v/>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -967,6 +1027,18 @@
       <c r="O8" t="n">
         <v>97208</v>
       </c>
+      <c r="P8" s="9">
+        <f>+C8-M8</f>
+        <v/>
+      </c>
+      <c r="Q8" s="9">
+        <f>+D8-N8</f>
+        <v/>
+      </c>
+      <c r="R8" s="9">
+        <f>+E8-O8</f>
+        <v/>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1024,6 +1096,18 @@
       <c r="O9" t="n">
         <v>79610</v>
       </c>
+      <c r="P9" s="9">
+        <f>+C9-M9</f>
+        <v/>
+      </c>
+      <c r="Q9" s="9">
+        <f>+D9-N9</f>
+        <v/>
+      </c>
+      <c r="R9" s="9">
+        <f>+E9-O9</f>
+        <v/>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1081,6 +1165,18 @@
       <c r="O10" t="n">
         <v>90000</v>
       </c>
+      <c r="P10" s="9">
+        <f>+C10-M10</f>
+        <v/>
+      </c>
+      <c r="Q10" s="9">
+        <f>+D10-N10</f>
+        <v/>
+      </c>
+      <c r="R10" s="9">
+        <f>+E10-O10</f>
+        <v/>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1138,6 +1234,18 @@
       <c r="O11" t="n">
         <v>179025</v>
       </c>
+      <c r="P11" s="9">
+        <f>+C11-M11</f>
+        <v/>
+      </c>
+      <c r="Q11" s="9">
+        <f>+D11-N11</f>
+        <v/>
+      </c>
+      <c r="R11" s="9">
+        <f>+E11-O11</f>
+        <v/>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1195,6 +1303,18 @@
       <c r="O12" t="n">
         <v>70620</v>
       </c>
+      <c r="P12" s="9">
+        <f>+C12-M12</f>
+        <v/>
+      </c>
+      <c r="Q12" s="9">
+        <f>+D12-N12</f>
+        <v/>
+      </c>
+      <c r="R12" s="9">
+        <f>+E12-O12</f>
+        <v/>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1252,6 +1372,18 @@
       <c r="O13" t="n">
         <v>97208</v>
       </c>
+      <c r="P13" s="9">
+        <f>+C13-M13</f>
+        <v/>
+      </c>
+      <c r="Q13" s="9">
+        <f>+D13-N13</f>
+        <v/>
+      </c>
+      <c r="R13" s="9">
+        <f>+E13-O13</f>
+        <v/>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1309,6 +1441,18 @@
       <c r="O14" t="n">
         <v>79610</v>
       </c>
+      <c r="P14" s="9">
+        <f>+C14-M14</f>
+        <v/>
+      </c>
+      <c r="Q14" s="9">
+        <f>+D14-N14</f>
+        <v/>
+      </c>
+      <c r="R14" s="9">
+        <f>+E14-O14</f>
+        <v/>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1366,6 +1510,18 @@
       <c r="O15" t="n">
         <v>90000</v>
       </c>
+      <c r="P15" s="9">
+        <f>+C15-M15</f>
+        <v/>
+      </c>
+      <c r="Q15" s="9">
+        <f>+D15-N15</f>
+        <v/>
+      </c>
+      <c r="R15" s="9">
+        <f>+E15-O15</f>
+        <v/>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1423,6 +1579,18 @@
       <c r="O16" t="n">
         <v>179025</v>
       </c>
+      <c r="P16" s="9">
+        <f>+C16-M16</f>
+        <v/>
+      </c>
+      <c r="Q16" s="9">
+        <f>+D16-N16</f>
+        <v/>
+      </c>
+      <c r="R16" s="9">
+        <f>+E16-O16</f>
+        <v/>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1480,6 +1648,18 @@
       <c r="O17" t="n">
         <v>70620</v>
       </c>
+      <c r="P17" s="9">
+        <f>+C17-M17</f>
+        <v/>
+      </c>
+      <c r="Q17" s="9">
+        <f>+D17-N17</f>
+        <v/>
+      </c>
+      <c r="R17" s="9">
+        <f>+E17-O17</f>
+        <v/>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1537,6 +1717,18 @@
       <c r="O18" t="n">
         <v>70620</v>
       </c>
+      <c r="P18" s="9">
+        <f>+C18-M18</f>
+        <v/>
+      </c>
+      <c r="Q18" s="9">
+        <f>+D18-N18</f>
+        <v/>
+      </c>
+      <c r="R18" s="9">
+        <f>+E18-O18</f>
+        <v/>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1594,6 +1786,18 @@
       <c r="O19" t="n">
         <v>97208</v>
       </c>
+      <c r="P19" s="9">
+        <f>+C19-M19</f>
+        <v/>
+      </c>
+      <c r="Q19" s="9">
+        <f>+D19-N19</f>
+        <v/>
+      </c>
+      <c r="R19" s="9">
+        <f>+E19-O19</f>
+        <v/>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1651,6 +1855,18 @@
       <c r="O20" t="n">
         <v>79610</v>
       </c>
+      <c r="P20" s="9">
+        <f>+C20-M20</f>
+        <v/>
+      </c>
+      <c r="Q20" s="9">
+        <f>+D20-N20</f>
+        <v/>
+      </c>
+      <c r="R20" s="9">
+        <f>+E20-O20</f>
+        <v/>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1708,6 +1924,18 @@
       <c r="O21" t="n">
         <v>90000</v>
       </c>
+      <c r="P21" s="9">
+        <f>+C21-M21</f>
+        <v/>
+      </c>
+      <c r="Q21" s="9">
+        <f>+D21-N21</f>
+        <v/>
+      </c>
+      <c r="R21" s="9">
+        <f>+E21-O21</f>
+        <v/>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1765,6 +1993,18 @@
       <c r="O22" t="n">
         <v>179025</v>
       </c>
+      <c r="P22" s="9">
+        <f>+C22-M22</f>
+        <v/>
+      </c>
+      <c r="Q22" s="9">
+        <f>+D22-N22</f>
+        <v/>
+      </c>
+      <c r="R22" s="9">
+        <f>+E22-O22</f>
+        <v/>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1821,6 +2061,2190 @@
       </c>
       <c r="O23" t="n">
         <v>70620</v>
+      </c>
+      <c r="P23" s="9">
+        <f>+C23-M23</f>
+        <v/>
+      </c>
+      <c r="Q23" s="9">
+        <f>+D23-N23</f>
+        <v/>
+      </c>
+      <c r="R23" s="9">
+        <f>+E23-O23</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>240001</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>VODKA ABSOLUT AZUL X 700</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="n">
+        <v>10753.29</v>
+      </c>
+      <c r="E24" t="n">
+        <v>10753.29</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>CRUZA RECOLETA</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Buenos Ayres Vinos y Bebidas SA</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Diferencia de Precio</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>1075329</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1075329</v>
+      </c>
+      <c r="K24" t="n">
+        <v>240001</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>VODKA ABSOLUT AZUL X 700</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="N24" t="n">
+        <v>10753.29</v>
+      </c>
+      <c r="O24" t="n">
+        <v>10753.29</v>
+      </c>
+      <c r="P24" s="9">
+        <f>+C24-M24</f>
+        <v/>
+      </c>
+      <c r="Q24" s="9">
+        <f>+D24-N24</f>
+        <v/>
+      </c>
+      <c r="R24" s="9">
+        <f>+E24-O24</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>240070</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>VODKA ABSOLUT RASFBERRI 6 X 700</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>11910.31</v>
+      </c>
+      <c r="E25" t="n">
+        <v>11910.31</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>CRUZA RECOLETA</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Buenos Ayres Vinos y Bebidas SA</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Diferencia de Precio</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>1191031</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1191031</v>
+      </c>
+      <c r="K25" t="n">
+        <v>240070</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>VODKA ABSOLUT RASPBERRI 6 X 700</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="N25" t="n">
+        <v>11910.31</v>
+      </c>
+      <c r="O25" t="n">
+        <v>11910.31</v>
+      </c>
+      <c r="P25" s="9">
+        <f>+C25-M25</f>
+        <v/>
+      </c>
+      <c r="Q25" s="9">
+        <f>+D25-N25</f>
+        <v/>
+      </c>
+      <c r="R25" s="9">
+        <f>+E25-O25</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>340027</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>VODKA ABSOLUT ELYX X 1000</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="n">
+        <v>46747.23</v>
+      </c>
+      <c r="E26" t="n">
+        <v>46747.23</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>La Mala</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Buenos Ayres Vinos y Bebidas SA</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Diferencia de Precio</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>4674723</v>
+      </c>
+      <c r="J26" t="n">
+        <v>4674723</v>
+      </c>
+      <c r="K26" t="n">
+        <v>340027</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>VODKA ABSOLUT ELYX X 1000</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="N26" t="n">
+        <v>46747.23</v>
+      </c>
+      <c r="O26" t="n">
+        <v>46747.23</v>
+      </c>
+      <c r="P26" s="9">
+        <f>+C26-M26</f>
+        <v/>
+      </c>
+      <c r="Q26" s="9">
+        <f>+D26-N26</f>
+        <v/>
+      </c>
+      <c r="R26" s="9">
+        <f>+E26-O26</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>240021</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>VODKA GREY GOOSE X 750</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>10</v>
+      </c>
+      <c r="D27" t="n">
+        <v>38705.73</v>
+      </c>
+      <c r="E27" t="n">
+        <v>387057.28</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>La Mala</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Buenos Ayres Vinos y Bebidas SA</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Diferencia de Precio</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>6450955</v>
+      </c>
+      <c r="J27" t="n">
+        <v>64509550</v>
+      </c>
+      <c r="K27" t="n">
+        <v>240021</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>VODKA GREY GOOSE X 750</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="n">
+        <v>64509.55</v>
+      </c>
+      <c r="O27" t="n">
+        <v>387057.28</v>
+      </c>
+      <c r="P27" s="9">
+        <f>+C27-M27</f>
+        <v/>
+      </c>
+      <c r="Q27" s="9">
+        <f>+D27-N27</f>
+        <v/>
+      </c>
+      <c r="R27" s="9">
+        <f>+E27-O27</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>240014</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>VODKA BELVEDERE X 700</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>2</v>
+      </c>
+      <c r="D28" t="n">
+        <v>53070.66</v>
+      </c>
+      <c r="E28" t="n">
+        <v>106141.32</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>La Mala</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Buenos Ayres Vinos y Bebidas SA</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Diferencia de Precio</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>5307066</v>
+      </c>
+      <c r="J28" t="n">
+        <v>10614132</v>
+      </c>
+      <c r="K28" t="n">
+        <v>240014</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>VODKA BELVEDERE X 700</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="N28" t="n">
+        <v>53070.66</v>
+      </c>
+      <c r="O28" t="n">
+        <v>106141.32</v>
+      </c>
+      <c r="P28" s="9">
+        <f>+C28-M28</f>
+        <v/>
+      </c>
+      <c r="Q28" s="9">
+        <f>+D28-N28</f>
+        <v/>
+      </c>
+      <c r="R28" s="9">
+        <f>+E28-O28</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>100022</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>CH. VEUVE CLICQUOT BRUT X 750</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>3</v>
+      </c>
+      <c r="D29" t="n">
+        <v>121452.89</v>
+      </c>
+      <c r="E29" t="n">
+        <v>364358.68</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>La Mala</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Buenos Ayres Vinos y Bebidas SA</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Diferencia de Precio</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>12145289</v>
+      </c>
+      <c r="J29" t="n">
+        <v>36435867</v>
+      </c>
+      <c r="K29" t="n">
+        <v>100022</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>CH. VEUVE CLICQUOT BRUT X 750</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N29" t="n">
+        <v>121452.89</v>
+      </c>
+      <c r="O29" t="n">
+        <v>364358.68</v>
+      </c>
+      <c r="P29" s="9">
+        <f>+C29-M29</f>
+        <v/>
+      </c>
+      <c r="Q29" s="9">
+        <f>+D29-N29</f>
+        <v/>
+      </c>
+      <c r="R29" s="9">
+        <f>+E29-O29</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>190036</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>GIN TANQUERAY ENGLISH X 700</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>20</v>
+      </c>
+      <c r="D30" t="n">
+        <v>8341.459999999999</v>
+      </c>
+      <c r="E30" t="n">
+        <v>166829.21</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>La Mala</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Buenos Ayres Vinos y Bebidas SA</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Diferencia de Precio</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>1390243</v>
+      </c>
+      <c r="J30" t="n">
+        <v>27804860</v>
+      </c>
+      <c r="K30" t="n">
+        <v>190036</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>GIN TANQUERAY ENGLISH X 700</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" t="n">
+        <v>13902.43</v>
+      </c>
+      <c r="O30" t="n">
+        <v>166829.21</v>
+      </c>
+      <c r="P30" s="9">
+        <f>+C30-M30</f>
+        <v/>
+      </c>
+      <c r="Q30" s="9">
+        <f>+D30-N30</f>
+        <v/>
+      </c>
+      <c r="R30" s="9">
+        <f>+E30-O30</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>100001</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>CH. BARON B B.NATURE X 750</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>40</v>
+      </c>
+      <c r="D31" t="n">
+        <v>14413.13</v>
+      </c>
+      <c r="E31" t="n">
+        <v>576525.39</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>LA MALA</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Buenos Ayres Vinos y Bebidas SA</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Diferencia de Precio</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>2402189</v>
+      </c>
+      <c r="J31" t="n">
+        <v>96087560</v>
+      </c>
+      <c r="K31" t="n">
+        <v>100001</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>CH. BARON B B.NATURE X 750</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="n">
+        <v>24021.89</v>
+      </c>
+      <c r="O31" t="n">
+        <v>576525.39</v>
+      </c>
+      <c r="P31" s="9">
+        <f>+C31-M31</f>
+        <v/>
+      </c>
+      <c r="Q31" s="9">
+        <f>+D31-N31</f>
+        <v/>
+      </c>
+      <c r="R31" s="9">
+        <f>+E31-O31</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>240001</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>VODKA ABSOLUT AZUL X 700</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="n">
+        <v>10753.29</v>
+      </c>
+      <c r="E32" t="n">
+        <v>10753.29</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>CRUZA RECOLETA</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Buenos Ayres Vinos y Bebidas SA</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Diferencia de Precio</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>1075329</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1075329</v>
+      </c>
+      <c r="K32" t="n">
+        <v>240001</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>VODKA ABSOLUT AZUL X 700</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
+        <v>12</v>
+      </c>
+      <c r="N32" t="n">
+        <v>10753.29</v>
+      </c>
+      <c r="O32" t="n">
+        <v>10753.29</v>
+      </c>
+      <c r="P32" s="9">
+        <f>+C32-M32</f>
+        <v/>
+      </c>
+      <c r="Q32" s="9">
+        <f>+D32-N32</f>
+        <v/>
+      </c>
+      <c r="R32" s="9">
+        <f>+E32-O32</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>240070</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>VODKA ABSOLUT RASFBERRI 6 X 700</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="n">
+        <v>11910.31</v>
+      </c>
+      <c r="E33" t="n">
+        <v>11910.31</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>CRUZA RECOLETA</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Buenos Ayres Vinos y Bebidas SA</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Diferencia de Precio</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>1191031</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1191031</v>
+      </c>
+      <c r="K33" t="n">
+        <v>240070</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>VODKA ABSOLUT RASPBERRI 6 X 700</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
+        <v>6</v>
+      </c>
+      <c r="N33" t="n">
+        <v>11910.31</v>
+      </c>
+      <c r="O33" t="n">
+        <v>11910.31</v>
+      </c>
+      <c r="P33" s="9">
+        <f>+C33-M33</f>
+        <v/>
+      </c>
+      <c r="Q33" s="9">
+        <f>+D33-N33</f>
+        <v/>
+      </c>
+      <c r="R33" s="9">
+        <f>+E33-O33</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>0</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>OJO DE BIFE</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="D34" t="n">
+        <v>15535</v>
+      </c>
+      <c r="E34" t="n">
+        <v>97870.5</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Galicia Polo Mince Bar</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Kunze SRL</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>15535</v>
+      </c>
+      <c r="J34" t="n">
+        <v>97870.5</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>OJO DE BIFE</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="N34" t="n">
+        <v>15535</v>
+      </c>
+      <c r="O34" t="n">
+        <v>97870.5</v>
+      </c>
+      <c r="P34" s="9">
+        <f>+C34-M34</f>
+        <v/>
+      </c>
+      <c r="Q34" s="9">
+        <f>+D34-N34</f>
+        <v/>
+      </c>
+      <c r="R34" s="9">
+        <f>+E34-O34</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>0</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ROAS BEEF</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>6</v>
+      </c>
+      <c r="D35" t="n">
+        <v>8380</v>
+      </c>
+      <c r="E35" t="n">
+        <v>50280</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>LA MALA</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Kunze SRL</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>8380</v>
+      </c>
+      <c r="J35" t="n">
+        <v>50280</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>ROAS BEEF</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
+        <v>6</v>
+      </c>
+      <c r="N35" t="n">
+        <v>8380</v>
+      </c>
+      <c r="O35" t="n">
+        <v>50280</v>
+      </c>
+      <c r="P35" s="9">
+        <f>+C35-M35</f>
+        <v/>
+      </c>
+      <c r="Q35" s="9">
+        <f>+D35-N35</f>
+        <v/>
+      </c>
+      <c r="R35" s="9">
+        <f>+E35-O35</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>0</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>PALETA</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="D36" t="n">
+        <v>8380</v>
+      </c>
+      <c r="E36" t="n">
+        <v>97208</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>LA MALA</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Kunze SRL</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>8380</v>
+      </c>
+      <c r="J36" t="n">
+        <v>97208</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>PALETA</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="N36" t="n">
+        <v>8380</v>
+      </c>
+      <c r="O36" t="n">
+        <v>97208</v>
+      </c>
+      <c r="P36" s="9">
+        <f>+C36-M36</f>
+        <v/>
+      </c>
+      <c r="Q36" s="9">
+        <f>+D36-N36</f>
+        <v/>
+      </c>
+      <c r="R36" s="9">
+        <f>+E36-O36</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>0</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>NALGA FETEADA</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="D37" t="n">
+        <v>109371.57</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1006218.4</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>LA MALA</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Kunze SRL</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Diferencia de Precio</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>109802</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1010178.4</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>NALGA FETEADA</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="N37" t="n">
+        <v>11935</v>
+      </c>
+      <c r="O37" t="n">
+        <v>109802</v>
+      </c>
+      <c r="P37" s="9">
+        <f>+C37-M37</f>
+        <v/>
+      </c>
+      <c r="Q37" s="9">
+        <f>+D37-N37</f>
+        <v/>
+      </c>
+      <c r="R37" s="9">
+        <f>+E37-O37</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>0</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>CARNE PICADA</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>9</v>
+      </c>
+      <c r="D38" t="n">
+        <v>54000</v>
+      </c>
+      <c r="E38" t="n">
+        <v>486000</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>LA MALA</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Kunze SRL</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>54000</v>
+      </c>
+      <c r="J38" t="n">
+        <v>486000</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>CARNE PICADA</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
+        <v>9</v>
+      </c>
+      <c r="N38" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O38" t="n">
+        <v>54000</v>
+      </c>
+      <c r="P38" s="9">
+        <f>+C38-M38</f>
+        <v/>
+      </c>
+      <c r="Q38" s="9">
+        <f>+D38-N38</f>
+        <v/>
+      </c>
+      <c r="R38" s="9">
+        <f>+E38-O38</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>0</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>CHORIZO PURO CERDO</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D39" t="n">
+        <v>12190</v>
+      </c>
+      <c r="E39" t="n">
+        <v>28037</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>LA MALA</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Kunze SRL</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>12190</v>
+      </c>
+      <c r="J39" t="n">
+        <v>28037</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>CHORIZO PURO CERDO</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="N39" t="n">
+        <v>5300</v>
+      </c>
+      <c r="O39" t="n">
+        <v>12190</v>
+      </c>
+      <c r="P39" s="9">
+        <f>+C39-M39</f>
+        <v/>
+      </c>
+      <c r="Q39" s="9">
+        <f>+D39-N39</f>
+        <v/>
+      </c>
+      <c r="R39" s="9">
+        <f>+E39-O39</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>0</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>SUPREMA</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>10</v>
+      </c>
+      <c r="D40" t="n">
+        <v>7450</v>
+      </c>
+      <c r="E40" t="n">
+        <v>74500</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>COCHINCHINA</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Kunze SRL</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>7450</v>
+      </c>
+      <c r="J40" t="n">
+        <v>74500</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>SUPREMA</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
+        <v>10</v>
+      </c>
+      <c r="N40" t="n">
+        <v>7450</v>
+      </c>
+      <c r="O40" t="n">
+        <v>74500</v>
+      </c>
+      <c r="P40" s="9">
+        <f>+C40-M40</f>
+        <v/>
+      </c>
+      <c r="Q40" s="9">
+        <f>+D40-N40</f>
+        <v/>
+      </c>
+      <c r="R40" s="9">
+        <f>+E40-O40</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>0</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>OJO DE BIFE</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="D41" t="n">
+        <v>15535</v>
+      </c>
+      <c r="E41" t="n">
+        <v>97870.5</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Galicia Polo Mince Bar</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Kunze SRL</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>15535</v>
+      </c>
+      <c r="J41" t="n">
+        <v>97870.5</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>OJO DE BIFE</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="N41" t="n">
+        <v>15535</v>
+      </c>
+      <c r="O41" t="n">
+        <v>97870.5</v>
+      </c>
+      <c r="P41" s="9">
+        <f>+C41-M41</f>
+        <v/>
+      </c>
+      <c r="Q41" s="9">
+        <f>+D41-N41</f>
+        <v/>
+      </c>
+      <c r="R41" s="9">
+        <f>+E41-O41</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>0</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>ROAS BEEF</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>6</v>
+      </c>
+      <c r="D42" t="n">
+        <v>6680</v>
+      </c>
+      <c r="E42" t="n">
+        <v>40080</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>LA MALA</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Kunze SRL</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Diferencia de Precio</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>8380</v>
+      </c>
+      <c r="J42" t="n">
+        <v>50280</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>ROAS BEEF</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
+        <v>6</v>
+      </c>
+      <c r="N42" t="n">
+        <v>8380</v>
+      </c>
+      <c r="O42" t="n">
+        <v>50280</v>
+      </c>
+      <c r="P42" s="9">
+        <f>+C42-M42</f>
+        <v/>
+      </c>
+      <c r="Q42" s="9">
+        <f>+D42-N42</f>
+        <v/>
+      </c>
+      <c r="R42" s="9">
+        <f>+E42-O42</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>0</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>PALETA</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="D43" t="n">
+        <v>8380</v>
+      </c>
+      <c r="E43" t="n">
+        <v>97208</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>LA MALA</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Kunze SRL</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>8380</v>
+      </c>
+      <c r="J43" t="n">
+        <v>97208</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>PALETA</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="N43" t="n">
+        <v>8380</v>
+      </c>
+      <c r="O43" t="n">
+        <v>97208</v>
+      </c>
+      <c r="P43" s="9">
+        <f>+C43-M43</f>
+        <v/>
+      </c>
+      <c r="Q43" s="9">
+        <f>+D43-N43</f>
+        <v/>
+      </c>
+      <c r="R43" s="9">
+        <f>+E43-O43</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>0</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>NALGA FETEADA</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="D44" t="n">
+        <v>109375.91</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1006258.4</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>LA MALA</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Kunze SRL</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Diferencia de Precio</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>109802</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1010178.4</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>NALGA FETEADA</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="N44" t="n">
+        <v>11935</v>
+      </c>
+      <c r="O44" t="n">
+        <v>109802</v>
+      </c>
+      <c r="P44" s="9">
+        <f>+C44-M44</f>
+        <v/>
+      </c>
+      <c r="Q44" s="9">
+        <f>+D44-N44</f>
+        <v/>
+      </c>
+      <c r="R44" s="9">
+        <f>+E44-O44</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>0</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>CARNE PICADA</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>9</v>
+      </c>
+      <c r="D45" t="n">
+        <v>54000</v>
+      </c>
+      <c r="E45" t="n">
+        <v>486000</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>LA MALA</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Kunze SRL</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>54000</v>
+      </c>
+      <c r="J45" t="n">
+        <v>486000</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>CARNE PICADA</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
+        <v>9</v>
+      </c>
+      <c r="N45" t="n">
+        <v>6000</v>
+      </c>
+      <c r="O45" t="n">
+        <v>54000</v>
+      </c>
+      <c r="P45" s="9">
+        <f>+C45-M45</f>
+        <v/>
+      </c>
+      <c r="Q45" s="9">
+        <f>+D45-N45</f>
+        <v/>
+      </c>
+      <c r="R45" s="9">
+        <f>+E45-O45</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>0</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>CHORIZO PURO CERDO</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D46" t="n">
+        <v>11755.22</v>
+      </c>
+      <c r="E46" t="n">
+        <v>27037</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>LA MALA</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Kunze SRL</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Diferencia de Precio</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>12190</v>
+      </c>
+      <c r="J46" t="n">
+        <v>28037</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>CHORIZO PURO CERDO</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="N46" t="n">
+        <v>5300</v>
+      </c>
+      <c r="O46" t="n">
+        <v>12190</v>
+      </c>
+      <c r="P46" s="9">
+        <f>+C46-M46</f>
+        <v/>
+      </c>
+      <c r="Q46" s="9">
+        <f>+D46-N46</f>
+        <v/>
+      </c>
+      <c r="R46" s="9">
+        <f>+E46-O46</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>0</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>SUPREMA</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>10</v>
+      </c>
+      <c r="D47" t="n">
+        <v>7450</v>
+      </c>
+      <c r="E47" t="n">
+        <v>74500</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>COCHINCHINA</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Kunze SRL</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>7450</v>
+      </c>
+      <c r="J47" t="n">
+        <v>74500</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>SUPREMA</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
+        <v>10</v>
+      </c>
+      <c r="N47" t="n">
+        <v>7450</v>
+      </c>
+      <c r="O47" t="n">
+        <v>74500</v>
+      </c>
+      <c r="P47" s="9">
+        <f>+C47-M47</f>
+        <v/>
+      </c>
+      <c r="Q47" s="9">
+        <f>+D47-N47</f>
+        <v/>
+      </c>
+      <c r="R47" s="9">
+        <f>+E47-O47</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>10</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>KG FILLET DE POLLO</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>30</v>
+      </c>
+      <c r="D48" t="n">
+        <v>7239.82</v>
+      </c>
+      <c r="E48" t="n">
+        <v>217194.6</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>PERSEO &amp; CO S.A.</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Buenos Ayres Vinos y Bebidas SA</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>7239.82</v>
+      </c>
+      <c r="J48" t="n">
+        <v>217194.6</v>
+      </c>
+      <c r="K48" t="n">
+        <v>10</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>FILLET DE POLLO</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
+        <v>30000</v>
+      </c>
+      <c r="N48" t="n">
+        <v>7239.82</v>
+      </c>
+      <c r="O48" t="n">
+        <v>217194.6</v>
+      </c>
+      <c r="P48" s="9">
+        <f>+C48-M48</f>
+        <v/>
+      </c>
+      <c r="Q48" s="9">
+        <f>+D48-N48</f>
+        <v/>
+      </c>
+      <c r="R48" s="9">
+        <f>+E48-O48</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>1</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>KG POLLO ENTERO A</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>20</v>
+      </c>
+      <c r="D49" t="n">
+        <v>10500</v>
+      </c>
+      <c r="E49" t="n">
+        <v>210000</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>MOJAMA S.A.</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Buenos Ayres Vinos y Bebidas SA</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Diferencia de Precio</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="J49" t="n">
+        <v>210</v>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>POLLO ENTERO A</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
+        <v>20000</v>
+      </c>
+      <c r="N49" t="n">
+        <v>3393.67</v>
+      </c>
+      <c r="O49" t="n">
+        <v>67873.39999999999</v>
+      </c>
+      <c r="P49" s="9">
+        <f>+C49-M49</f>
+        <v/>
+      </c>
+      <c r="Q49" s="9">
+        <f>+D49-N49</f>
+        <v/>
+      </c>
+      <c r="R49" s="9">
+        <f>+E49-O49</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>23</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>KG MILANESA/POLLO GRANDE</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>5</v>
+      </c>
+      <c r="D50" t="n">
+        <v>21000</v>
+      </c>
+      <c r="E50" t="n">
+        <v>105000</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>MOJAMA S.A.</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Buenos Ayres Vinos y Bebidas SA</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Diferencia de Precio</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>21</v>
+      </c>
+      <c r="J50" t="n">
+        <v>105</v>
+      </c>
+      <c r="K50" t="n">
+        <v>23</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>MILANESA/POLLO GRANDE</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
+        <v>5000</v>
+      </c>
+      <c r="N50" t="n">
+        <v>6281</v>
+      </c>
+      <c r="O50" t="n">
+        <v>31405</v>
+      </c>
+      <c r="P50" s="9">
+        <f>+C50-M50</f>
+        <v/>
+      </c>
+      <c r="Q50" s="9">
+        <f>+D50-N50</f>
+        <v/>
+      </c>
+      <c r="R50" s="9">
+        <f>+E50-O50</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>0</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>VINAGRE DE ALCOHOL MENOYO BID. X SLT SIN TACC</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>8</v>
+      </c>
+      <c r="D51" t="n">
+        <v>5125.09</v>
+      </c>
+      <c r="E51" t="n">
+        <v>41000.72</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>PERSEO &amp; CO.S.A.</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Distribuidora el Criollo</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Diferencia de Precio</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="J51" t="n">
+        <v>41.04</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>VINAGRE DE ALCOHOL MENOYO BID. X 5LT SIN TACC</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
+        <v>8</v>
+      </c>
+      <c r="N51" t="n">
+        <v>5125.09</v>
+      </c>
+      <c r="O51" t="n">
+        <v>41000.72</v>
+      </c>
+      <c r="P51" s="9">
+        <f>+C51-M51</f>
+        <v/>
+      </c>
+      <c r="Q51" s="9">
+        <f>+D51-N51</f>
+        <v/>
+      </c>
+      <c r="R51" s="9">
+        <f>+E51-O51</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>0</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>JAMON COCIDO CAMPO AUSTRAL KG SIN TACC</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>485</v>
+      </c>
+      <c r="D52" t="n">
+        <v>101.79</v>
+      </c>
+      <c r="E52" t="n">
+        <v>49369.94</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>GOURMAND S.A</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Distribuidora el Criollo</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Diferencia de Precio</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>10.18</v>
+      </c>
+      <c r="J52" t="n">
+        <v>4937.3</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>JAMON COCIDO CAMPO AUSTRAL KG SIN TACC</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="N52" t="n">
+        <v>10179.37</v>
+      </c>
+      <c r="O52" t="n">
+        <v>49369.94</v>
+      </c>
+      <c r="P52" s="9">
+        <f>+C52-M52</f>
+        <v/>
+      </c>
+      <c r="Q52" s="9">
+        <f>+D52-N52</f>
+        <v/>
+      </c>
+      <c r="R52" s="9">
+        <f>+E52-O52</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>171</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Pata Y Muslo De Pollo</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="D53" t="n">
+        <v>2699.9</v>
+      </c>
+      <c r="E53" t="n">
+        <v>28348.95</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>15 de Noviembre de 1889 Nº 1710 - CP 1130 - Caba</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Pereira</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Diferencia de Precio</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>26999</v>
+      </c>
+      <c r="J53" t="n">
+        <v>283489.5</v>
+      </c>
+      <c r="K53" t="n">
+        <v>171</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>Pata Y Muslo De Pollo</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="N53" t="n">
+        <v>2699.9</v>
+      </c>
+      <c r="O53" t="n">
+        <v>28348.95</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>162</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Filet De Pollo</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="D54" t="n">
+        <v>7649.9</v>
+      </c>
+      <c r="E54" t="n">
+        <v>46664.39</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>15 de Noviembre de 1889 Nº 1710 - CP 1130 - Caba</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Pereira</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Diferencia de Precio</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>76499</v>
+      </c>
+      <c r="J54" t="n">
+        <v>466643.9</v>
+      </c>
+      <c r="K54" t="n">
+        <v>162</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>Filet De Pollo</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="N54" t="n">
+        <v>7649.9</v>
+      </c>
+      <c r="O54" t="n">
+        <v>46664.39</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>171</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Pata Y Muslo De Pollo</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="D55" t="n">
+        <v>2699.9</v>
+      </c>
+      <c r="E55" t="n">
+        <v>28348.95</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>BAYONNA S.A.</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Pereira</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Diferencia de Precio</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>26999</v>
+      </c>
+      <c r="J55" t="n">
+        <v>283489.5</v>
+      </c>
+      <c r="K55" t="n">
+        <v>171</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>Pata Y Muslo De Pollo</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="N55" t="n">
+        <v>2699.9</v>
+      </c>
+      <c r="O55" t="n">
+        <v>28348.95</v>
       </c>
     </row>
   </sheetData>
